--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="201">
   <si>
     <r>
       <rPr>
@@ -3050,6 +3050,15 @@
     <t>ISSUE_CHANGE_STATUS.DINGTALKANDWECHAT</t>
   </si>
   <si>
+    <t>hmsg_message_template-23</t>
+  </si>
+  <si>
+    <t>ISSUE_CHANGE_STATUS_JSON</t>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}"}}</t>
+  </si>
+  <si>
     <t>消息模板参数</t>
   </si>
   <si>
@@ -3258,6 +3267,9 @@
   </si>
   <si>
     <t>hmsg_template_server_line-28</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-29</t>
   </si>
   <si>
     <t>notify_message_setting_config</t>
@@ -3290,9 +3302,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3379,6 +3391,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3390,11 +3417,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3406,17 +3439,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3436,24 +3463,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3468,24 +3502,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3499,24 +3518,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3596,7 +3608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3608,7 +3620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3620,7 +3644,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3632,19 +3746,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3656,73 +3776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3734,49 +3788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3916,17 +3928,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3961,22 +3978,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3984,145 +3996,145 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -4837,10 +4849,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5342,686 +5354,700 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
+    <row r="23" ht="19" customHeight="true" spans="5:16">
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="C25" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H24" t="s">
+      <c r="E25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I24" t="s">
+      <c r="F25" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" t="s">
+      <c r="G25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F25" t="str">
-        <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-8</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>127</v>
+      </c>
+      <c r="I25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F26" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F27" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F28" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F29" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F34" t="str">
-        <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F43" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G44" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F52" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F55" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-9</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G55" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F58" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-15</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-9</v>
       </c>
       <c r="G58" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F61" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-13</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-15</v>
       </c>
       <c r="G61" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F64" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-19</v>
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-13</v>
       </c>
       <c r="G64" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G65" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F67" t="str">
-        <f>消息模板!$E$17</f>
-        <v>hmsg_message_template-17</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-19</v>
       </c>
       <c r="G67" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G69" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F70" t="str">
-        <f>消息模板!$E$10</f>
-        <v>hmsg_message_template-10</v>
+        <f>消息模板!$E$17</f>
+        <v>hmsg_message_template-17</v>
       </c>
       <c r="G70" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F72" t="str">
-        <f>消息模板!$E$18</f>
-        <v>hmsg_message_template-18</v>
+        <f>消息模板!$E$10</f>
+        <v>hmsg_message_template-10</v>
       </c>
       <c r="G72" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F74" t="str">
-        <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-14</v>
+        <f>消息模板!$E$18</f>
+        <v>hmsg_message_template-18</v>
       </c>
       <c r="G74" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G75" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F76" t="str">
-        <f>$E$20</f>
-        <v>hmsg_message_template-20</v>
+        <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G76" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F77" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G77" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F78" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G78" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F79" t="str">
         <f>$E$20</f>
@@ -6033,55 +6059,55 @@
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F80" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G80" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F81" t="str">
-        <f>$E$21</f>
-        <v>hmsg_message_template-21</v>
+        <f>$E$20</f>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F82" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G82" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F83" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F84" t="str">
         <f>$E$21</f>
@@ -6093,55 +6119,55 @@
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F86" t="str">
-        <f>$E$22</f>
-        <v>hmsg_message_template-22</v>
+        <f>$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F87" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G87" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F88" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G88" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F89" t="str">
         <f>$E$22</f>
@@ -6153,14 +6179,134 @@
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7">
+      <c r="E91" t="s">
+        <v>129</v>
+      </c>
+      <c r="F91" t="str">
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
+      </c>
+      <c r="G91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7">
+      <c r="E92" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7">
+      <c r="E93" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7">
+      <c r="E94" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7">
+      <c r="E95" t="s">
+        <v>129</v>
+      </c>
+      <c r="F95" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7">
+      <c r="E96" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7">
+      <c r="E97" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7">
+      <c r="E98" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7">
+      <c r="E99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7">
+      <c r="E100" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6172,10 +6318,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6227,48 +6373,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
         <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="5:13">
       <c r="E8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
         <v>90</v>
@@ -6277,27 +6423,27 @@
         <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
         <v>77</v>
@@ -6306,27 +6452,27 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
         <v>102</v>
@@ -6335,27 +6481,27 @@
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L10" t="s">
         <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="5:13">
       <c r="E11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H11" t="s">
         <v>112</v>
@@ -6364,16 +6510,16 @@
         <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6384,34 +6530,34 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s">
         <v>64</v>
@@ -6419,14 +6565,14 @@
     </row>
     <row r="14" spans="5:13">
       <c r="E14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F14" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
         <v>93</v>
@@ -6435,7 +6581,7 @@
         <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s">
         <v>73</v>
@@ -6446,14 +6592,14 @@
     </row>
     <row r="15" spans="5:13">
       <c r="E15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F15" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
         <v>96</v>
@@ -6467,14 +6613,14 @@
     </row>
     <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
         <v>89</v>
@@ -6488,14 +6634,14 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H17" t="s">
         <v>86</v>
@@ -6509,14 +6655,14 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
@@ -6525,7 +6671,7 @@
         <v>73</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
@@ -6536,14 +6682,14 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F19" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
@@ -6557,14 +6703,14 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
         <v>76</v>
@@ -6578,14 +6724,14 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H21" t="s">
         <v>67</v>
@@ -6599,14 +6745,14 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H22" t="s">
         <v>105</v>
@@ -6615,7 +6761,7 @@
         <v>73</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
@@ -6626,14 +6772,14 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F23" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H23" t="s">
         <v>108</v>
@@ -6647,14 +6793,14 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H24" t="s">
         <v>101</v>
@@ -6668,14 +6814,14 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
         <v>98</v>
@@ -6689,14 +6835,14 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F26" t="str">
         <f>$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
         <v>111</v>
@@ -6705,7 +6851,7 @@
         <v>73</v>
       </c>
       <c r="K26" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s">
         <v>73</v>
@@ -6716,14 +6862,14 @@
     </row>
     <row r="27" spans="5:13">
       <c r="E27" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F27" t="str">
         <f>$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
         <v>115</v>
@@ -6737,14 +6883,14 @@
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F28" t="str">
         <f>$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H28" t="s">
         <v>118</v>
@@ -6756,52 +6902,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2">
+    <row r="29" spans="5:13">
+      <c r="E29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" t="str">
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
         <v>44036</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="C31" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8">
-      <c r="E31" t="s">
+      <c r="D31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="E31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6812,7 +6965,7 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F33" t="s">
         <v>156</v>
@@ -6824,9 +6977,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="true" spans="5:8">
+    <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F34" t="s">
         <v>159</v>
@@ -6835,6 +6988,20 @@
         <v>1</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="true" spans="5:8">
+      <c r="E35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="10305" tabRatio="609" activeTab="2"/>
+    <workbookView windowWidth="28770" windowHeight="10305" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2810,91 +2810,97 @@
     <t>问题状态变更</t>
   </si>
   <si>
-    <t>&lt;title&gt; &lt;/title&gt;
-  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-  &lt;style type="text/css"&gt;
-    #outlook a {
-      padding: 0;
-    }
-    .ReadMsgBody {
-      width: 100%;
-    }
-    .ExternalClass {
-      width: 100%;
-    }
-    .ExternalClass * {
-      line-height: 100%;
-    }
-    body {
-      margin: 0;
-      padding: 0;
-      -webkit-text-size-adjust: 100%;
-      -ms-text-size-adjust: 100%;
-    }
-    table,
-    td {
-      border-collapse: collapse;
-      mso-table-lspace: 0pt;
-      mso-table-rspace: 0pt;
-    }
-    img {
-      border: 0;
-      height: auto;
-      line-height: 100%;
-      outline: none;
-      text-decoration: none;
-      -ms-interpolation-mode: bicubic;
-    }
-    p {
-      display: block;
-      margin: 13px 0;
-    }
-  &lt;/style&gt;
-  &lt;!--[if !mso]&gt;&lt;!--&gt;
-  &lt;style type="text/css"&gt;
-    @media only screen and (max-width:480px) {
-      @-ms-viewport {
-        width: 320px;
-      }
-      @viewport {
-        width: 320px;
-      }
-    }
-  &lt;/style&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;!--[if mso]&gt;
-  &lt;xml&gt;
-    &lt;o:OfficeDocumentSettings&gt;
-      &lt;o:AllowPNG/&gt;
-      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-    &lt;/o:OfficeDocumentSettings&gt;
-  &lt;/xml&gt;
-  &lt;![endif]--&gt;
-  &lt;!--[if lte mso 11]&gt;
-  &lt;style type="text/css"&gt;
-    .outlook-group-fix { width:100% !important; }
-  &lt;/style&gt;
-  &lt;![endif]--&gt;
-  &lt;!--[if !mso]&gt;&lt;!--&gt;
-  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-  &lt;style type="text/css"&gt;
-    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-  &lt;/style&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;style type="text/css"&gt;
-    @media only screen and (min-width:480px) {
-      .mj-column-per-100 {
-        width: 100% !important;
-        max-width: 100%;
-      }
-    }
-  &lt;/style&gt;
-  &lt;style type="text/css"&gt;
-  &lt;/style&gt;
+    <t>&lt;!doctype html&gt;
+&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
+   xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
+&lt;head&gt;
+ &lt;title&gt; &lt;/title&gt;
+ &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+ &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+ &lt;!--&lt;![endif]--&gt;
+ &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+ &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+ &lt;style type="text/css"&gt;
+   #outlook a {
+  padding: 0;
+   }
+   .ReadMsgBody {
+  width: 100%;
+   }
+   .ExternalClass {
+  width: 100%;
+   }
+   .ExternalClass * {
+  line-height: 100%;
+   }
+   body {
+  margin: 0;
+  padding: 0;
+  -webkit-text-size-adjust: 100%;
+  -ms-text-size-adjust: 100%;
+   }
+   table,
+   td {
+  border-collapse: collapse;
+  mso-table-lspace: 0pt;
+  mso-table-rspace: 0pt;
+   }
+   img {
+  border: 0;
+  height: auto;
+  line-height: 100%;
+  outline: none;
+  text-decoration: none;
+  -ms-interpolation-mode: bicubic;
+   }
+   p {
+  display: block;
+  margin: 13px 0;
+   }
+ &lt;/style&gt;
+ &lt;!--[if !mso]&gt;&lt;!--&gt;
+ &lt;style type="text/css"&gt;
+   @media only screen and (max-width:480px) {
+  @-ms-viewport {
+    width: 320px;
+  }
+  @viewport {
+    width: 320px;
+  }
+   }
+ &lt;/style&gt;
+ &lt;!--&lt;![endif]--&gt;
+ &lt;!--[if mso]&gt;
+ &lt;xml&gt;
+   &lt;o:OfficeDocumentSettings&gt;
+  &lt;o:AllowPNG/&gt;
+  &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+   &lt;/o:OfficeDocumentSettings&gt;
+ &lt;/xml&gt;
+ &lt;![endif]--&gt;
+ &lt;!--[if lte mso 11]&gt;
+ &lt;style type="text/css"&gt;
+   .outlook-group-fix { width:100% !important; }
+ &lt;/style&gt;
+ &lt;![endif]--&gt;
+ &lt;!--[if !mso]&gt;&lt;!--&gt;
+ &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+ &lt;style type="text/css"&gt;
+   @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+ &lt;/style&gt;
+ &lt;!--&lt;![endif]--&gt;
+ &lt;style type="text/css"&gt;
+   @media only screen and (min-width:480px) {
+  .mj-column-per-100 {
+    width: 100% !important;
+    max-width: 100%;
+  }
+   }
+ &lt;/style&gt;
+ &lt;style type="text/css"&gt;
+ &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
 &lt;div style=""&gt;
   &lt;!--[if mso | IE]&gt;
   &lt;table
@@ -3029,7 +3035,9 @@
   &lt;/tr&gt;
   &lt;/table&gt;
   &lt;![endif]--&gt;
-&lt;/div&gt;</t>
+&lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-21</t>
@@ -3301,10 +3309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3391,6 +3399,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3404,13 +3420,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3418,14 +3427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3447,11 +3449,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3464,7 +3465,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3478,16 +3487,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3503,14 +3519,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3608,7 +3616,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3620,43 +3700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3674,13 +3730,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3692,7 +3784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3704,91 +3796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3908,6 +3916,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3928,6 +3945,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3935,15 +3967,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3959,21 +3982,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3996,145 +4004,145 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -4851,8 +4859,8 @@
   <sheetPr/>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6320,8 +6328,8 @@
   <sheetPr/>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="10305" tabRatio="609" activeTab="1"/>
+    <workbookView windowWidth="28710" windowHeight="10245" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="202">
   <si>
     <r>
       <rPr>
@@ -3058,6 +3058,9 @@
     <t>ISSUE_CHANGE_STATUS.DINGTALKANDWECHAT</t>
   </si>
   <si>
+    <t>&lt;p&gt;经办人${assigneeName}的问题 ${summary} 已由${operatorName}变更为${status}状态&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>hmsg_message_template-23</t>
   </si>
   <si>
@@ -3309,10 +3312,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3396,10 +3399,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3411,14 +3429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -3426,31 +3436,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3464,8 +3452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3473,7 +3462,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3488,7 +3477,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3502,16 +3506,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3524,19 +3536,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3616,7 +3619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3628,7 +3631,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3640,7 +3727,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3652,67 +3781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3724,79 +3799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3916,7 +3919,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3925,36 +3928,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3986,17 +3974,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4004,145 +4007,145 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="17" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -4859,8 +4862,8 @@
   <sheetPr/>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5350,7 +5353,7 @@
         <v>112</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N22" t="s">
         <v>72</v>
@@ -5364,10 +5367,10 @@
     </row>
     <row r="23" ht="19" customHeight="true" spans="5:16">
       <c r="E23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
         <v>112</v>
@@ -5376,7 +5379,7 @@
         <v>112</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N23" t="s">
         <v>72</v>
@@ -5396,925 +5399,925 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F26" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F27" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F28" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F29" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F77" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F78" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F79" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G79" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F80" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F81" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F82" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F83" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F84" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F86" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F87" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G87" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F88" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G88" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F89" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G89" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F91" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F92" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G92" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F93" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G93" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6381,48 +6384,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
         <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="5:13">
       <c r="E8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
         <v>90</v>
@@ -6431,27 +6434,27 @@
         <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H9" t="s">
         <v>77</v>
@@ -6460,27 +6463,27 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
         <v>102</v>
@@ -6489,27 +6492,27 @@
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L10" t="s">
         <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="5:13">
       <c r="E11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
         <v>112</v>
@@ -6518,16 +6521,16 @@
         <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6538,34 +6541,34 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s">
         <v>64</v>
@@ -6573,14 +6576,14 @@
     </row>
     <row r="14" spans="5:13">
       <c r="E14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H14" t="s">
         <v>93</v>
@@ -6589,7 +6592,7 @@
         <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s">
         <v>73</v>
@@ -6600,14 +6603,14 @@
     </row>
     <row r="15" spans="5:13">
       <c r="E15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F15" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H15" t="s">
         <v>96</v>
@@ -6621,14 +6624,14 @@
     </row>
     <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H16" t="s">
         <v>89</v>
@@ -6642,14 +6645,14 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
         <v>86</v>
@@ -6663,14 +6666,14 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
@@ -6679,7 +6682,7 @@
         <v>73</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
@@ -6690,14 +6693,14 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F19" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
@@ -6711,14 +6714,14 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H20" t="s">
         <v>76</v>
@@ -6732,14 +6735,14 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
         <v>67</v>
@@ -6753,14 +6756,14 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H22" t="s">
         <v>105</v>
@@ -6769,7 +6772,7 @@
         <v>73</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
@@ -6780,14 +6783,14 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F23" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H23" t="s">
         <v>108</v>
@@ -6801,14 +6804,14 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H24" t="s">
         <v>101</v>
@@ -6822,14 +6825,14 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" t="s">
         <v>98</v>
@@ -6843,14 +6846,14 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F26" t="str">
         <f>$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H26" t="s">
         <v>111</v>
@@ -6859,7 +6862,7 @@
         <v>73</v>
       </c>
       <c r="K26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s">
         <v>73</v>
@@ -6870,14 +6873,14 @@
     </row>
     <row r="27" spans="5:13">
       <c r="E27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F27" t="str">
         <f>$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H27" t="s">
         <v>115</v>
@@ -6891,14 +6894,14 @@
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F28" t="str">
         <f>$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
         <v>118</v>
@@ -6912,17 +6915,17 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F29" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s">
         <v>73</v>
@@ -6939,30 +6942,30 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6973,10 +6976,10 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -6987,10 +6990,10 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -7001,10 +7004,10 @@
     </row>
     <row r="35" customFormat="true" spans="5:8">
       <c r="E35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G35">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -3312,10 +3312,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3393,22 +3393,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3430,7 +3437,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3444,17 +3489,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3468,16 +3513,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3498,48 +3535,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3619,7 +3619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3637,37 +3637,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3685,7 +3685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3697,13 +3703,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3721,7 +3733,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3733,25 +3769,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3763,43 +3799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3906,20 +3906,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3933,27 +3930,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3989,17 +3980,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4007,148 +4007,148 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="17" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4863,7 +4863,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="10245" tabRatio="609" activeTab="1"/>
+    <workbookView windowWidth="28770" windowHeight="10305" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="201">
   <si>
     <r>
       <rPr>
@@ -3046,19 +3046,13 @@
     <t>ISSUE_CHANGE_STATUS.WEB</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Choerodon通知-问题已解决&lt;/p&gt;
-&lt;p&gt;${userName} 您好：&lt;/p&gt;
-&lt;p&gt;您好，经办人${assigneeName}的问题&amp;ldquo;${summary}&amp;rdquo;已由${operatorName}变更为${status}状态&lt;/p&gt;
-</t>
+    <t>&lt;p&gt;经办人${assigneeName}的问题 ${summary} 已由${operatorName}变更为${status}状态&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-22</t>
   </si>
   <si>
     <t>ISSUE_CHANGE_STATUS.DINGTALKANDWECHAT</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;经办人${assigneeName}的问题 ${summary} 已由${operatorName}变更为${status}状态&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-23</t>
@@ -3312,10 +3306,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3393,7 +3387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3406,25 +3400,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3437,15 +3416,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3467,7 +3492,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3481,47 +3506,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3535,11 +3522,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3619,7 +3613,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3631,7 +3643,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3643,163 +3787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3906,17 +3900,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3932,35 +3920,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3997,9 +3959,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4007,148 +4001,148 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="16" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4863,7 +4857,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5353,7 +5347,7 @@
         <v>112</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N22" t="s">
         <v>72</v>
@@ -5367,10 +5361,10 @@
     </row>
     <row r="23" ht="19" customHeight="true" spans="5:16">
       <c r="E23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" t="s">
         <v>120</v>
-      </c>
-      <c r="F23" t="s">
-        <v>121</v>
       </c>
       <c r="G23" t="s">
         <v>112</v>
@@ -5379,7 +5373,7 @@
         <v>112</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N23" t="s">
         <v>72</v>
@@ -5399,925 +5393,925 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" t="s">
         <v>127</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>128</v>
-      </c>
-      <c r="I25" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F77" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F78" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F79" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F80" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F81" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F82" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F83" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F84" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F86" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F87" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F88" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F89" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F91" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F92" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F93" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6384,48 +6378,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" t="s">
         <v>145</v>
-      </c>
-      <c r="H7" t="s">
-        <v>146</v>
       </c>
       <c r="I7" t="s">
         <v>64</v>
       </c>
       <c r="J7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" t="s">
         <v>147</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>148</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>149</v>
-      </c>
-      <c r="M7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="5:13">
       <c r="E8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
         <v>90</v>
@@ -6434,27 +6428,27 @@
         <v>73</v>
       </c>
       <c r="J8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" t="s">
-        <v>154</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
         <v>77</v>
@@ -6463,27 +6457,27 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" t="s">
         <v>153</v>
-      </c>
-      <c r="K9" t="s">
-        <v>154</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
         <v>102</v>
@@ -6492,27 +6486,27 @@
         <v>73</v>
       </c>
       <c r="J10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" t="s">
         <v>153</v>
-      </c>
-      <c r="K10" t="s">
-        <v>154</v>
       </c>
       <c r="L10" t="s">
         <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="5:13">
       <c r="E11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H11" t="s">
         <v>112</v>
@@ -6521,16 +6515,16 @@
         <v>73</v>
       </c>
       <c r="J11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" t="s">
         <v>153</v>
-      </c>
-      <c r="K11" t="s">
-        <v>154</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6541,34 +6535,34 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" t="s">
         <v>170</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>171</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>172</v>
-      </c>
-      <c r="L13" t="s">
-        <v>173</v>
       </c>
       <c r="M13" t="s">
         <v>64</v>
@@ -6576,14 +6570,14 @@
     </row>
     <row r="14" spans="5:13">
       <c r="E14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
         <v>93</v>
@@ -6592,7 +6586,7 @@
         <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s">
         <v>73</v>
@@ -6603,14 +6597,14 @@
     </row>
     <row r="15" spans="5:13">
       <c r="E15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
         <v>96</v>
@@ -6624,14 +6618,14 @@
     </row>
     <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
         <v>89</v>
@@ -6645,14 +6639,14 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H17" t="s">
         <v>86</v>
@@ -6666,14 +6660,14 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
@@ -6682,7 +6676,7 @@
         <v>73</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
@@ -6693,14 +6687,14 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F19" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
@@ -6714,14 +6708,14 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
         <v>76</v>
@@ -6735,14 +6729,14 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H21" t="s">
         <v>67</v>
@@ -6756,14 +6750,14 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" t="s">
         <v>105</v>
@@ -6772,7 +6766,7 @@
         <v>73</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
@@ -6783,14 +6777,14 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F23" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H23" t="s">
         <v>108</v>
@@ -6804,14 +6798,14 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H24" t="s">
         <v>101</v>
@@ -6825,14 +6819,14 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
         <v>98</v>
@@ -6846,14 +6840,14 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F26" t="str">
         <f>$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
         <v>111</v>
@@ -6862,7 +6856,7 @@
         <v>73</v>
       </c>
       <c r="K26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s">
         <v>73</v>
@@ -6873,14 +6867,14 @@
     </row>
     <row r="27" spans="5:13">
       <c r="E27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F27" t="str">
         <f>$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
         <v>115</v>
@@ -6894,14 +6888,14 @@
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" t="str">
         <f>$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H28" t="s">
         <v>118</v>
@@ -6915,17 +6909,17 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L29" t="s">
         <v>73</v>
@@ -6942,30 +6936,30 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" t="s">
         <v>196</v>
-      </c>
-      <c r="H31" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6976,10 +6970,10 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -6990,10 +6984,10 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -7004,10 +6998,10 @@
     </row>
     <row r="35" customFormat="true" spans="5:8">
       <c r="E35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G35">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -2953,7 +2953,7 @@
                       &lt;/div&gt;
                       &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
                         &lt;div style=""&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;Choerodon通知-问题已解决&lt;/p&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;Choerodon通知-问题状态变更&lt;/p&gt;
                           &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;${userName} 您好：&lt;/p&gt;
                           &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;您好，经办人${assigneeName}的问题“${summary}”已由${operatorName}变更为${status}状态&lt;br&gt;
 &lt;/p&gt;
@@ -3386,10 +3386,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3403,7 +3404,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3415,18 +3431,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3438,8 +3447,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3461,6 +3471,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -3468,9 +3486,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3483,22 +3522,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -3506,32 +3529,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3613,7 +3613,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3625,19 +3709,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3649,151 +3793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3903,66 +3903,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3997,152 +3938,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="16" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4857,7 +4857,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="210">
   <si>
     <r>
       <rPr>
@@ -3064,6 +3064,232 @@
     <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}"}}</t>
   </si>
   <si>
+    <t>hmsg_message_template-24</t>
+  </si>
+  <si>
+    <t>PROJECT_REPORT.EMAIL</t>
+  </si>
+  <si>
+    <t>项目报告</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        ${data}
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
+      font-size: 10px;
+      color: #FFFFFF;
+      text-align: center;
+      display: inline-block;
+      line-height: 34px;
+      width: 100%;
+      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>消息模板参数</t>
   </si>
   <si>
@@ -3121,6 +3347,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>发送配置</t>
   </si>
   <si>
@@ -3190,6 +3419,15 @@
     <t>问题状态变更，给相关用户发送通知</t>
   </si>
   <si>
+    <t>hmsg_template_server-12</t>
+  </si>
+  <si>
+    <t>PROJECT_REPORT</t>
+  </si>
+  <si>
+    <t>PRO-MANAGEMENT</t>
+  </si>
+  <si>
     <t>发送配置(其它)</t>
   </si>
   <si>
@@ -3275,6 +3513,9 @@
   </si>
   <si>
     <t>hmsg_template_server_line-29</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-30</t>
   </si>
   <si>
     <t>notify_message_setting_config</t>
@@ -3306,10 +3547,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3386,11 +3627,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3401,15 +3648,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3423,41 +3679,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3473,43 +3696,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3523,6 +3710,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3531,7 +3741,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3613,13 +3854,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3631,25 +3884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3661,7 +3914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3679,7 +3938,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3691,31 +3986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3727,37 +4004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3769,31 +4028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3903,7 +4144,81 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3923,226 +4238,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4854,10 +5095,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5385,914 +5626,928 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
+    <row r="24" ht="22" customHeight="true" spans="5:16">
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="C26" t="s">
         <v>126</v>
       </c>
-      <c r="H25" t="s">
+      <c r="D26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I25" t="s">
+      <c r="E26" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" t="s">
+      <c r="F26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F26" t="str">
-        <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-8</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="G26" s="4" t="s">
         <v>130</v>
+      </c>
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F27" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F28" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F29" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F35" t="str">
-        <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F44" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F53" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F56" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-9</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G56" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G58" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F59" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-15</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-9</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G61" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F62" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-13</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-15</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G64" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F65" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-19</v>
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-13</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G67" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F68" t="str">
-        <f>消息模板!$E$17</f>
-        <v>hmsg_message_template-17</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-19</v>
       </c>
       <c r="G68" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G70" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F71" t="str">
-        <f>消息模板!$E$10</f>
-        <v>hmsg_message_template-10</v>
+        <f>消息模板!$E$17</f>
+        <v>hmsg_message_template-17</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F73" t="str">
-        <f>消息模板!$E$18</f>
-        <v>hmsg_message_template-18</v>
+        <f>消息模板!$E$10</f>
+        <v>hmsg_message_template-10</v>
       </c>
       <c r="G73" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G74" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F75" t="str">
-        <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-14</v>
+        <f>消息模板!$E$18</f>
+        <v>hmsg_message_template-18</v>
       </c>
       <c r="G75" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F77" t="str">
-        <f>$E$20</f>
-        <v>hmsg_message_template-20</v>
+        <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F78" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G78" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F79" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F80" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F81" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F82" t="str">
-        <f>$E$21</f>
-        <v>hmsg_message_template-21</v>
+        <f>$E$20</f>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G82" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F83" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G83" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F84" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F86" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F87" t="str">
-        <f>$E$22</f>
-        <v>hmsg_message_template-22</v>
+        <f>$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G87" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F88" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G88" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F89" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G89" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F91" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F92" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G92" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F93" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G93" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G94" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
@@ -6304,14 +6559,38 @@
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7">
+      <c r="E101" t="s">
+        <v>133</v>
+      </c>
+      <c r="F101" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7">
+      <c r="E102" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" t="str">
+        <f>消息模板!$E$24</f>
+        <v>hmsg_message_template-24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6323,10 +6602,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6378,48 +6657,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
         <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="5:13">
       <c r="E8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H8" t="s">
         <v>90</v>
@@ -6428,27 +6707,27 @@
         <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
         <v>77</v>
@@ -6457,27 +6736,27 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H10" t="s">
         <v>102</v>
@@ -6486,27 +6765,27 @@
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L10" t="s">
         <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="5:13">
       <c r="E11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H11" t="s">
         <v>112</v>
@@ -6515,99 +6794,107 @@
         <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" t="s">
-        <v>172</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="I14" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" t="s">
+        <v>180</v>
+      </c>
+      <c r="M14" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="5:13">
-      <c r="E14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" t="str">
-        <f>发送配置!$E$8</f>
-        <v>hmsg_template_server-8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="5:13">
       <c r="E15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F15" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" t="s">
+        <v>183</v>
       </c>
       <c r="L15" t="s">
         <v>73</v>
@@ -6618,17 +6905,17 @@
     </row>
     <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
@@ -6639,17 +6926,17 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
         <v>73</v>
@@ -6660,23 +6947,17 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F18" t="str">
-        <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
+        <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
@@ -6687,17 +6968,23 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F19" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
       </c>
       <c r="L19" t="s">
         <v>73</v>
@@ -6708,17 +6995,17 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -6729,17 +7016,17 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s">
         <v>73</v>
@@ -6750,23 +7037,17 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F22" t="str">
-        <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
@@ -6777,17 +7058,23 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F23" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
       </c>
       <c r="L23" t="s">
         <v>73</v>
@@ -6798,17 +7085,17 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
@@ -6819,17 +7106,17 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s">
         <v>73</v>
@@ -6840,47 +7127,47 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F26" t="str">
-        <f>$E$11</f>
-        <v>hmsg_template_server-11</v>
+        <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s">
         <v>73</v>
       </c>
-      <c r="M26">
-        <v>1</v>
+      <c r="M26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="5:13">
       <c r="E27" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F27" t="str">
-        <f>$E$11</f>
+        <f t="shared" ref="F27:F31" si="0">$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s">
+        <v>183</v>
+      </c>
+      <c r="L27" t="s">
+        <v>73</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -6888,17 +7175,17 @@
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F28" t="str">
-        <f>$E$11</f>
+        <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -6909,85 +7196,105 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>hmsg_template_server-11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13">
+      <c r="E30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
-      <c r="G29" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" t="s">
         <v>120</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L30" t="s">
         <v>73</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2">
+    <row r="31" spans="5:13">
+      <c r="E31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" t="str">
+        <f>$E$12</f>
+        <v>hmsg_template_server-12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" t="s">
+        <v>183</v>
+      </c>
+      <c r="L31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
         <v>44036</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="C31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8">
-      <c r="E32" t="s">
-        <v>197</v>
-      </c>
-      <c r="F32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8">
-      <c r="E33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -6996,17 +7303,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="true" spans="5:8">
+    <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="true" spans="5:8">
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="210">
   <si>
     <r>
       <rPr>
@@ -2954,7 +2954,7 @@
                       &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
                         &lt;div style=""&gt;
                           &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;Choerodon通知-问题状态变更&lt;/p&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;${userName} 您好：&lt;/p&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;您好：&lt;/p&gt;
                           &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;您好，经办人${assigneeName}的问题“${summary}”已由${operatorName}变更为${status}状态&lt;br&gt;
 &lt;/p&gt;
                         &lt;/div&gt;
@@ -3547,10 +3547,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3634,15 +3634,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3663,24 +3671,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3702,8 +3725,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3711,6 +3735,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3732,49 +3770,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3854,19 +3854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3878,13 +3866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3896,13 +3884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3920,13 +3920,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3938,7 +3950,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3950,13 +3968,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3968,19 +4010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3992,49 +4034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4150,11 +4150,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4189,6 +4213,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4203,184 +4238,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -5095,10 +5095,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6302,7 +6302,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G78" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="5:7">
@@ -6314,7 +6314,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G79" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="5:7">
@@ -6326,7 +6326,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G80" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="5:7">
@@ -6338,7 +6338,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="5:7">
@@ -6346,11 +6346,11 @@
         <v>133</v>
       </c>
       <c r="F82" t="str">
-        <f>$E$20</f>
-        <v>hmsg_message_template-20</v>
+        <f>$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="5:7">
@@ -6362,7 +6362,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G83" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="5:7">
@@ -6374,7 +6374,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G84" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="5:7">
@@ -6386,7 +6386,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="5:7">
@@ -6398,7 +6398,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="5:7">
@@ -6406,11 +6406,11 @@
         <v>133</v>
       </c>
       <c r="F87" t="str">
-        <f>$E$21</f>
-        <v>hmsg_message_template-21</v>
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G87" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="5:7">
@@ -6422,7 +6422,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G88" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="5:7">
@@ -6434,7 +6434,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G89" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="5:7">
@@ -6446,7 +6446,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="5:7">
@@ -6458,7 +6458,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="5:7">
@@ -6466,11 +6466,11 @@
         <v>133</v>
       </c>
       <c r="F92" t="str">
-        <f>$E$22</f>
-        <v>hmsg_message_template-22</v>
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
       </c>
       <c r="G92" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="5:7">
@@ -6482,7 +6482,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="5:7">
@@ -6494,7 +6494,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="5:7">
@@ -6506,7 +6506,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="5:7">
@@ -6518,7 +6518,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="5:7">
@@ -6530,7 +6530,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="5:7">
@@ -6542,7 +6542,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="5:7">
@@ -6554,7 +6554,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="5:7">
@@ -6566,7 +6566,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="5:7">
@@ -6574,22 +6574,10 @@
         <v>133</v>
       </c>
       <c r="F101" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="5:7">
-      <c r="E102" t="s">
-        <v>133</v>
-      </c>
-      <c r="F102" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G101" t="s">
         <v>145</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="10305" tabRatio="609" activeTab="1"/>
+    <workbookView windowWidth="28770" windowHeight="10155" tabRatio="609" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="223">
   <si>
     <r>
       <rPr>
@@ -3290,6 +3290,246 @@
 &lt;/div&gt;</t>
   </si>
   <si>
+    <t>hmsg_message_template-25</t>
+  </si>
+  <si>
+    <t>AUTO_RULE_TRIGGER.EMAIL</t>
+  </si>
+  <si>
+    <t>自动规则通知</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;Choerodon通知-规则通知&lt;/p&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;您好：&lt;/p&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;由于${operatorName}${operator}了问题 ${summary} 满足自动规则 ${ruleName} ，向您发送通知。&lt;br&gt;
+                          &lt;/p&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
+      font-size: 10px;
+      color: #FFFFFF;
+      text-align: center;
+      display: inline-block;
+      line-height: 34px;
+      width: 100%;
+      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-26</t>
+  </si>
+  <si>
+    <t>AUTO_RULE_TRIGGER.WEB</t>
+  </si>
+  <si>
+    <t>由于${operatorName}${operator}了问题 ${summary} 满足自动规则 ${ruleName} ，向您发送通知。</t>
+  </si>
+  <si>
     <t>消息模板参数</t>
   </si>
   <si>
@@ -3350,6 +3590,12 @@
     <t>data</t>
   </si>
   <si>
+    <t>ruleName</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
     <t>发送配置</t>
   </si>
   <si>
@@ -3428,6 +3674,12 @@
     <t>PRO-MANAGEMENT</t>
   </si>
   <si>
+    <t>hmsg_template_server-13</t>
+  </si>
+  <si>
+    <t>AUTO_RULE_TRIGGER</t>
+  </si>
+  <si>
     <t>发送配置(其它)</t>
   </si>
   <si>
@@ -3516,6 +3768,12 @@
   </si>
   <si>
     <t>hmsg_template_server_line-30</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-31</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-32</t>
   </si>
   <si>
     <t>notify_message_setting_config</t>
@@ -3547,9 +3805,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -3628,29 +3886,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3664,22 +3907,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3693,14 +3946,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3709,32 +3954,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3762,19 +3999,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3854,7 +4112,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3866,25 +4148,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3896,13 +4172,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3914,49 +4232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3974,31 +4250,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4010,31 +4292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4144,30 +4402,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -4179,21 +4413,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4238,152 +4457,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="17" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5095,10 +5353,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5470,7 +5728,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" ht="64" customHeight="true" spans="5:16">
+    <row r="18" ht="15" customHeight="true" spans="5:16">
       <c r="E18" t="s">
         <v>104</v>
       </c>
@@ -5652,386 +5910,417 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
+    <row r="25" ht="22" customHeight="true" spans="5:16">
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="N25" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" ht="22" customHeight="true" spans="5:16">
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N26" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" ht="22" customHeight="true" spans="9:9">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" t="s">
+      <c r="C28" t="s">
         <v>133</v>
       </c>
-      <c r="F27" t="str">
-        <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-8</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="D28" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" t="str">
-        <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-8</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E28" s="3" t="s">
         <v>135</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F29" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F36" t="str">
-        <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F37" t="str">
-        <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F45" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F46" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F54" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F55" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$11</f>
@@ -6043,31 +6332,31 @@
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F57" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-9</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F58" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-9</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$9</f>
@@ -6079,31 +6368,31 @@
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F60" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-15</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F61" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-15</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$15</f>
@@ -6115,31 +6404,31 @@
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F63" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-13</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-15</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F64" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-13</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-15</v>
       </c>
       <c r="G64" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$13</f>
@@ -6151,31 +6440,31 @@
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F66" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-19</v>
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-13</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F67" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-19</v>
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-13</v>
       </c>
       <c r="G67" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$19</f>
@@ -6187,31 +6476,31 @@
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F69" t="str">
-        <f>消息模板!$E$17</f>
-        <v>hmsg_message_template-17</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-19</v>
       </c>
       <c r="G69" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F70" t="str">
-        <f>消息模板!$E$17</f>
-        <v>hmsg_message_template-17</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-19</v>
       </c>
       <c r="G70" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$17</f>
@@ -6223,362 +6512,482 @@
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F72" t="str">
+        <f>消息模板!$E$17</f>
+        <v>hmsg_message_template-17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7">
+      <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="str">
+        <f>消息模板!$E$17</f>
+        <v>hmsg_message_template-17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
-      <c r="G72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7">
-      <c r="E73" t="s">
-        <v>133</v>
-      </c>
-      <c r="F73" t="str">
+      <c r="G74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
-      <c r="G73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7">
-      <c r="E74" t="s">
-        <v>133</v>
-      </c>
-      <c r="F74" t="str">
+      <c r="G75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
-      <c r="G74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="5:7">
-      <c r="E75" t="s">
-        <v>133</v>
-      </c>
-      <c r="F75" t="str">
+      <c r="G76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
-      <c r="G75" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7">
-      <c r="E76" t="s">
-        <v>133</v>
-      </c>
-      <c r="F76" t="str">
+      <c r="G77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
-      <c r="G76" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7">
-      <c r="E77" t="s">
-        <v>133</v>
-      </c>
-      <c r="F77" t="str">
+      <c r="G78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7">
+      <c r="E79" t="s">
+        <v>140</v>
+      </c>
+      <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
-      <c r="G77" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="5:7">
-      <c r="E78" t="s">
-        <v>133</v>
-      </c>
-      <c r="F78" t="str">
-        <f>$E$20</f>
-        <v>hmsg_message_template-20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="5:7">
-      <c r="E79" t="s">
-        <v>133</v>
-      </c>
-      <c r="F79" t="str">
-        <f>$E$20</f>
-        <v>hmsg_message_template-20</v>
-      </c>
       <c r="G79" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F80" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F81" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F82" t="str">
-        <f>$E$21</f>
-        <v>hmsg_message_template-21</v>
+        <f>$E$20</f>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G82" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F83" t="str">
-        <f>$E$21</f>
-        <v>hmsg_message_template-21</v>
+        <f>$E$20</f>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G83" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F84" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G84" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F86" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F87" t="str">
-        <f>$E$22</f>
-        <v>hmsg_message_template-22</v>
+        <f>$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G87" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F88" t="str">
-        <f>$E$22</f>
-        <v>hmsg_message_template-22</v>
+        <f>$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F89" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G89" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F91" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F92" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G92" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F93" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G93" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G94" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F101" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7">
+      <c r="E102" t="s">
+        <v>140</v>
+      </c>
+      <c r="F102" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7">
+      <c r="E103" t="s">
+        <v>140</v>
+      </c>
+      <c r="F103" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
-      <c r="G101" t="s">
-        <v>145</v>
+      <c r="G103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" customFormat="true" spans="5:7">
+      <c r="E104" t="s">
+        <v>140</v>
+      </c>
+      <c r="F104" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" customFormat="true" spans="5:7">
+      <c r="E105" t="s">
+        <v>140</v>
+      </c>
+      <c r="F105" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" customFormat="true" spans="5:7">
+      <c r="E106" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" customFormat="true" spans="5:7">
+      <c r="E107" t="s">
+        <v>140</v>
+      </c>
+      <c r="F107" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" customFormat="true" spans="5:7">
+      <c r="E108" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" customFormat="true" spans="5:7">
+      <c r="E109" t="s">
+        <v>140</v>
+      </c>
+      <c r="F109" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" customFormat="true" spans="5:7">
+      <c r="E110" t="s">
+        <v>140</v>
+      </c>
+      <c r="F110" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" customFormat="true" spans="5:7">
+      <c r="E111" t="s">
+        <v>140</v>
+      </c>
+      <c r="F111" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6590,10 +6999,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6645,48 +7054,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
         <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="5:13">
       <c r="E8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
         <v>90</v>
@@ -6695,27 +7104,27 @@
         <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
         <v>77</v>
@@ -6724,27 +7133,27 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H10" t="s">
         <v>102</v>
@@ -6753,27 +7162,27 @@
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L10" t="s">
         <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="true" spans="5:13">
       <c r="E11" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
         <v>112</v>
@@ -6782,27 +7191,27 @@
         <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K11" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="5:13">
       <c r="E12" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H12" t="s">
         <v>124</v>
@@ -6811,10 +7220,10 @@
         <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L12" t="s">
         <v>73</v>
@@ -6823,87 +7232,95 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+    <row r="13" spans="5:13">
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="C15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I14" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" t="s">
-        <v>180</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="I15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L15" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13">
-      <c r="E15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" t="str">
-        <f>发送配置!$E$8</f>
-        <v>hmsg_template_server-8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>194</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
@@ -6914,17 +7331,17 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s">
         <v>73</v>
@@ -6935,17 +7352,17 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
@@ -6956,23 +7373,17 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F19" t="str">
-        <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
+        <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s">
         <v>73</v>
@@ -6983,17 +7394,23 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -7004,17 +7421,17 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L21" t="s">
         <v>73</v>
@@ -7025,17 +7442,17 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
@@ -7046,23 +7463,17 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F23" t="str">
-        <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
         <v>73</v>
@@ -7073,17 +7484,23 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
@@ -7094,17 +7511,17 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s">
         <v>73</v>
@@ -7115,17 +7532,17 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s">
         <v>73</v>
@@ -7134,49 +7551,49 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:13">
+    <row r="27" ht="15" customHeight="true" spans="5:13">
       <c r="E27" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" ref="F27:F31" si="0">$E$11</f>
-        <v>hmsg_template_server-11</v>
+        <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G27" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s">
         <v>73</v>
       </c>
-      <c r="M27">
-        <v>1</v>
+      <c r="M27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F28:F32" si="0">$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" t="s">
+        <v>73</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -7184,17 +7601,17 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -7205,131 +7622,200 @@
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>hmsg_template_server-11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13">
+      <c r="E31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
-      <c r="G30" t="s">
-        <v>187</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" t="s">
         <v>120</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L31" t="s">
         <v>73</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="5:13">
-      <c r="E31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F31" t="str">
+    <row r="32" spans="5:13">
+      <c r="E32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" t="str">
         <f>$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
-      <c r="G31" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" t="s">
         <v>123</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>73</v>
       </c>
-      <c r="K31" t="s">
-        <v>183</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="K32" t="s">
+        <v>194</v>
+      </c>
+      <c r="L32" t="s">
         <v>73</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="2">
+    <row r="33" spans="5:13">
+      <c r="E33" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" t="str">
+        <f>$E$13</f>
+        <v>hmsg_template_server-13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13">
+      <c r="E34" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" t="str">
+        <f>$E$13</f>
+        <v>hmsg_template_server-13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
         <v>44036</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8">
-      <c r="E34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F34" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8">
-      <c r="E35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8">
-      <c r="E36" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="true" spans="5:8">
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="true" spans="5:8">
+      <c r="E40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="226">
   <si>
     <r>
       <rPr>
@@ -3605,10 +3605,19 @@
     <t>*temp_server_id</t>
   </si>
   <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
     <t>#message_code</t>
   </si>
   <si>
-    <t>message_name</t>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
   </si>
   <si>
     <t>category_code</t>
@@ -3806,9 +3815,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3899,6 +3908,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3915,18 +3954,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3938,34 +3977,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3978,7 +3993,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3999,21 +4014,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -4022,15 +4022,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4118,13 +4127,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4142,7 +4163,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4154,31 +4235,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4190,25 +4271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4220,73 +4283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4402,8 +4411,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4413,6 +4422,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4428,6 +4446,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4458,15 +4491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4481,167 +4505,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="17" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6999,10 +7008,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7015,6 +7024,7 @@
     <col min="6" max="6" width="34.4222222222222" customWidth="true"/>
     <col min="7" max="7" width="33.8518518518519" customWidth="true"/>
     <col min="8" max="8" width="29.2814814814815" customWidth="true"/>
+    <col min="9" max="9" width="20.7777777777778" customWidth="true"/>
     <col min="10" max="10" width="29.8518518518519" customWidth="true"/>
     <col min="11" max="11" width="22.4222222222222" customWidth="true"/>
     <col min="12" max="12" width="17.5703703703704" customWidth="true"/>
@@ -7046,7 +7056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7063,201 +7073,243 @@
         <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" t="s">
         <v>159</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="I7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" t="s">
         <v>64</v>
       </c>
-      <c r="J7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" t="s">
-        <v>161</v>
-      </c>
       <c r="L7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13">
+        <v>164</v>
+      </c>
+      <c r="N7" t="s">
+        <v>165</v>
+      </c>
+      <c r="O7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" t="s">
         <v>90</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
         <v>73</v>
       </c>
-      <c r="J8" t="s">
-        <v>166</v>
-      </c>
-      <c r="K8" t="s">
-        <v>167</v>
-      </c>
       <c r="L8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M8" t="s">
+        <v>170</v>
+      </c>
+      <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="M8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13">
+      <c r="O8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
       </c>
       <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" t="s">
         <v>170</v>
       </c>
-      <c r="H9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="N9" t="s">
         <v>73</v>
       </c>
-      <c r="J9" t="s">
-        <v>166</v>
-      </c>
-      <c r="K9" t="s">
-        <v>167</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13">
+      <c r="O9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" t="s">
         <v>102</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
         <v>73</v>
       </c>
-      <c r="J10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K10" t="s">
-        <v>167</v>
-      </c>
       <c r="L10" t="s">
+        <v>169</v>
+      </c>
+      <c r="M10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" t="s">
         <v>73</v>
       </c>
-      <c r="M10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="true" spans="5:13">
+      <c r="O10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="true" spans="5:15">
       <c r="E11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" t="s">
         <v>112</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
         <v>73</v>
       </c>
-      <c r="J11" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" t="s">
-        <v>167</v>
-      </c>
       <c r="L11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11" t="s">
         <v>73</v>
       </c>
-      <c r="M11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13">
+      <c r="O11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" t="s">
         <v>124</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
         <v>73</v>
       </c>
-      <c r="J12" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" t="s">
-        <v>180</v>
-      </c>
       <c r="L12" t="s">
+        <v>169</v>
+      </c>
+      <c r="M12" t="s">
+        <v>183</v>
+      </c>
+      <c r="N12" t="s">
         <v>73</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" t="s">
         <v>128</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
         <v>73</v>
       </c>
-      <c r="J13" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13" t="s">
-        <v>180</v>
-      </c>
       <c r="L13" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" t="s">
+        <v>183</v>
+      </c>
+      <c r="N13" t="s">
         <v>73</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7269,34 +7321,34 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s">
         <v>64</v>
@@ -7304,14 +7356,14 @@
     </row>
     <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H16" t="s">
         <v>93</v>
@@ -7320,7 +7372,7 @@
         <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
@@ -7331,14 +7383,14 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H17" t="s">
         <v>96</v>
@@ -7352,14 +7404,14 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -7373,14 +7425,14 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F19" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H19" t="s">
         <v>86</v>
@@ -7394,14 +7446,14 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
@@ -7410,7 +7462,7 @@
         <v>73</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -7421,14 +7473,14 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
@@ -7442,14 +7494,14 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H22" t="s">
         <v>76</v>
@@ -7463,14 +7515,14 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F23" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H23" t="s">
         <v>67</v>
@@ -7484,14 +7536,14 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H24" t="s">
         <v>105</v>
@@ -7500,7 +7552,7 @@
         <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
@@ -7511,14 +7563,14 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -7532,14 +7584,14 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H26" t="s">
         <v>101</v>
@@ -7553,14 +7605,14 @@
     </row>
     <row r="27" ht="15" customHeight="true" spans="5:13">
       <c r="E27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F27" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H27" t="s">
         <v>98</v>
@@ -7574,14 +7626,14 @@
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ref="F28:F32" si="0">$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -7590,7 +7642,7 @@
         <v>73</v>
       </c>
       <c r="K28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s">
         <v>73</v>
@@ -7601,14 +7653,14 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H29" t="s">
         <v>115</v>
@@ -7622,14 +7674,14 @@
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H30" t="s">
         <v>118</v>
@@ -7643,14 +7695,14 @@
     </row>
     <row r="31" spans="5:13">
       <c r="E31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F31" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G31" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H31" t="s">
         <v>120</v>
@@ -7664,14 +7716,14 @@
     </row>
     <row r="32" spans="5:13">
       <c r="E32" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F32" t="str">
         <f>$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G32" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H32" t="s">
         <v>123</v>
@@ -7680,7 +7732,7 @@
         <v>73</v>
       </c>
       <c r="K32" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L32" t="s">
         <v>73</v>
@@ -7691,14 +7743,14 @@
     </row>
     <row r="33" spans="5:13">
       <c r="E33" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F33" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H33" t="s">
         <v>127</v>
@@ -7707,7 +7759,7 @@
         <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
@@ -7718,14 +7770,14 @@
     </row>
     <row r="34" spans="5:13">
       <c r="E34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F34" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H34" t="s">
         <v>131</v>
@@ -7748,27 +7800,27 @@
         <v>155</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H36" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7779,10 +7831,10 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7793,10 +7845,10 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F39" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7807,10 +7859,10 @@
     </row>
     <row r="40" customFormat="true" spans="5:8">
       <c r="E40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F40" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G40">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/hzero_message/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D7A4C4-8A98-E440-91DC-572A0A09A233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="10155" tabRatio="609" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,30 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="213">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -38,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -47,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -59,6 +79,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -68,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -77,6 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -86,6 +109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -95,6 +119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -104,6 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -113,6 +139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -144,6 +171,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -153,6 +181,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -162,6 +191,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -171,6 +201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -180,6 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -189,6 +221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -201,6 +234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -211,6 +245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -221,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -231,6 +267,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -241,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -252,6 +290,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -261,6 +300,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -272,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -281,6 +322,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -292,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -301,6 +344,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -310,6 +354,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -321,6 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -330,6 +376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -339,6 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -348,6 +396,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -357,6 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -366,6 +416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -375,6 +426,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -384,6 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -393,6 +446,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -402,6 +456,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -431,6 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -440,6 +496,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -449,6 +506,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -458,6 +516,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -467,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -476,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -485,6 +546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -494,6 +556,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -505,6 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -514,6 +578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -523,6 +588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -532,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -541,6 +608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -550,6 +618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -560,6 +629,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -569,6 +639,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -578,6 +649,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -587,6 +659,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -597,6 +670,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -606,6 +680,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -615,6 +690,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -626,6 +702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -635,6 +712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -644,6 +722,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -653,6 +732,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -662,6 +742,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -676,6 +757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -685,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -694,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -703,6 +787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -712,6 +797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -721,6 +807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -730,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -739,6 +827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -748,6 +837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -757,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -768,6 +859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -777,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -786,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -796,6 +890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -806,6 +901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -816,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -826,6 +923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -835,6 +933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -844,6 +943,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -853,6 +953,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -862,6 +963,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -876,6 +978,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -885,6 +988,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -894,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -903,6 +1008,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -912,6 +1018,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -922,6 +1029,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -931,6 +1039,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -941,6 +1050,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -950,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -960,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -969,6 +1081,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -980,6 +1093,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -989,6 +1103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -999,6 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1008,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1024,6 +1141,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1033,6 +1151,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1044,6 +1163,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1053,6 +1173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1064,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1073,6 +1195,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1082,6 +1205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1091,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1102,6 +1227,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1111,6 +1237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1120,6 +1247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1132,6 +1260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1141,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1150,6 +1280,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1159,6 +1290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1168,6 +1300,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1177,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1186,6 +1320,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1200,6 +1335,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1209,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1218,6 +1355,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1227,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1236,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1245,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1254,6 +1395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1263,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1272,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1287,6 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1296,6 +1441,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1305,6 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1314,6 +1461,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1329,6 +1477,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1338,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1347,6 +1497,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1356,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1370,6 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1379,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1388,6 +1542,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1397,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1406,6 +1562,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1415,6 +1572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1425,6 +1583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1434,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1448,6 +1608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1457,6 +1618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1466,6 +1628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1475,6 +1638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1484,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1493,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1503,6 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1512,6 +1679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1523,6 +1691,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1533,6 +1702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1542,6 +1712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1553,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1562,6 +1734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1571,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1580,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1589,6 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1598,6 +1774,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1607,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1617,6 +1795,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1626,6 +1805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1635,6 +1815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1644,6 +1825,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1653,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1662,6 +1845,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1671,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1681,6 +1866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1690,6 +1876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1699,6 +1886,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1708,6 +1896,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1717,6 +1906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1726,6 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1735,6 +1926,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1744,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1754,6 +1947,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1765,6 +1959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1775,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1784,6 +1980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1795,6 +1992,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1804,6 +2002,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1813,6 +2012,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1824,6 +2024,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1833,6 +2034,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1842,6 +2044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1851,6 +2054,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1861,6 +2065,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -3290,246 +3495,6 @@
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>hmsg_message_template-25</t>
-  </si>
-  <si>
-    <t>AUTO_RULE_TRIGGER.EMAIL</t>
-  </si>
-  <si>
-    <t>自动规则通知</t>
-  </si>
-  <si>
-    <t>&lt;title&gt; &lt;/title&gt;
-  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-  &lt;style type="text/css"&gt;
-    #outlook a {
-      padding: 0;
-    }
-    .ReadMsgBody {
-      width: 100%;
-    }
-    .ExternalClass {
-      width: 100%;
-    }
-    .ExternalClass * {
-      line-height: 100%;
-    }
-    body {
-      margin: 0;
-      padding: 0;
-      -webkit-text-size-adjust: 100%;
-      -ms-text-size-adjust: 100%;
-    }
-    table,
-    td {
-      border-collapse: collapse;
-      mso-table-lspace: 0pt;
-      mso-table-rspace: 0pt;
-    }
-    img {
-      border: 0;
-      height: auto;
-      line-height: 100%;
-      outline: none;
-      text-decoration: none;
-      -ms-interpolation-mode: bicubic;
-    }
-    p {
-      display: block;
-      margin: 13px 0;
-    }
-  &lt;/style&gt;
-  &lt;!--[if !mso]&gt;&lt;!--&gt;
-  &lt;style type="text/css"&gt;
-    @media only screen and (max-width:480px) {
-      @-ms-viewport {
-        width: 320px;
-      }
-      @viewport {
-        width: 320px;
-      }
-    }
-  &lt;/style&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;!--[if mso]&gt;
-  &lt;xml&gt;
-    &lt;o:OfficeDocumentSettings&gt;
-      &lt;o:AllowPNG/&gt;
-      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-    &lt;/o:OfficeDocumentSettings&gt;
-  &lt;/xml&gt;
-  &lt;![endif]--&gt;
-  &lt;!--[if lte mso 11]&gt;
-  &lt;style type="text/css"&gt;
-    .outlook-group-fix { width:100% !important; }
-  &lt;/style&gt;
-  &lt;![endif]--&gt;
-  &lt;!--[if !mso]&gt;&lt;!--&gt;
-  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-  &lt;style type="text/css"&gt;
-    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-  &lt;/style&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;style type="text/css"&gt;
-    @media only screen and (min-width:480px) {
-      .mj-column-per-100 {
-        width: 100% !important;
-        max-width: 100%;
-      }
-    }
-  &lt;/style&gt;
-  &lt;style type="text/css"&gt;
-  &lt;/style&gt;
-&lt;div style=""&gt;
-  &lt;!--[if mso | IE]&gt;
-  &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
-  &gt;
-    &lt;tr&gt;
-      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-  &lt;![endif]--&gt;
-  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
-    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-      &lt;tbody&gt;
-      &lt;tr&gt;
-        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-          &lt;!--[if mso | IE]&gt;
-          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-            &lt;tr&gt;
-              &lt;td
-                      class="" style="vertical-align:top;width:782px;"
-              &gt;
-          &lt;![endif]--&gt;
-          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
-              &lt;tbody&gt;&lt;tr&gt;
-                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
-                  &lt;div style="line-height: 1; text-align: left;"&gt;
-                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
-                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
-                        &lt;table&gt;
-                          &lt;tbody&gt;&lt;tr&gt;
-                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                              &lt;table&gt;
-                                &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;/tr&gt;
-                              &lt;/tbody&gt;&lt;/table&gt;
-                            &lt;/td&gt;&lt;td&gt;
-                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
-                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
-                                &lt;p style="font-size: 14px;
-    color: #252528;
-    letter-spacing: 0;
-    display: inline-block;
-    text-align: right;
-    width: 558px;
-    padding-top: 55px;"&gt;&lt;/p&gt;
-                              &lt;/div&gt;
-                            &lt;/td&gt;
-                          &lt;/tr&gt;
-                        &lt;/tbody&gt;&lt;/table&gt;
-                      &lt;/div&gt;
-                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
-                        &lt;div style=""&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;Choerodon通知-规则通知&lt;/p&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;您好：&lt;/p&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;由于${operatorName}${operator}了问题 ${summary} 满足自动规则 ${ruleName} ，向您发送通知。&lt;br&gt;
-                          &lt;/p&gt;
-                        &lt;/div&gt;
-                      &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
-                        &lt;div style="text-align: justify;"&gt;
-                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                            &lt;tbody&gt;&lt;tr&gt;
-                              &lt;td style="padding-left: 29px;"&gt;
-                                &lt;table&gt;
-                                  &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
-                                  &lt;tr&gt;
-                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                  &lt;/tr&gt;
-                                &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td&gt;
-                              &lt;/td&gt;&lt;td&gt;
-                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                &lt;/div&gt;
-                              &lt;/td&gt;
-                            &lt;/tr&gt;
-                          &lt;/tbody&gt;&lt;/table&gt;
-                        &lt;/div&gt;
-                      &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
-                        &lt;p style="opacity: 0.8;
-      font-size: 10px;
-      color: #FFFFFF;
-      text-align: center;
-      display: inline-block;
-      line-height: 34px;
-      width: 100%;
-      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                      &lt;/div&gt;
-                    &lt;/div&gt;
-                  &lt;/div&gt;
-                &lt;/td&gt;
-              &lt;/tr&gt;
-            &lt;/tbody&gt;&lt;/table&gt;
-          &lt;/div&gt;
-          &lt;!--[if mso | IE]&gt;
-          &lt;/td&gt;
-          &lt;/tr&gt;
-          &lt;/table&gt;
-          &lt;![endif]--&gt;
-        &lt;/td&gt;
-      &lt;/tr&gt;
-      &lt;/tbody&gt;
-    &lt;/table&gt;&lt;br&gt;
-  &lt;/div&gt;
-  &lt;!--[if mso | IE]&gt;
-  &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;/table&gt;
-  &lt;![endif]--&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-26</t>
-  </si>
-  <si>
-    <t>AUTO_RULE_TRIGGER.WEB</t>
-  </si>
-  <si>
-    <t>由于${operatorName}${operator}了问题 ${summary} 满足自动规则 ${ruleName} ，向您发送通知。</t>
-  </si>
-  <si>
     <t>消息模板参数</t>
   </si>
   <si>
@@ -3590,12 +3555,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>ruleName</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
     <t>发送配置</t>
   </si>
   <si>
@@ -3683,12 +3642,6 @@
     <t>PRO-MANAGEMENT</t>
   </si>
   <si>
-    <t>hmsg_template_server-13</t>
-  </si>
-  <si>
-    <t>AUTO_RULE_TRIGGER</t>
-  </si>
-  <si>
     <t>发送配置(其它)</t>
   </si>
   <si>
@@ -3777,12 +3730,6 @@
   </si>
   <si>
     <t>hmsg_template_server_line-30</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-31</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-32</t>
   </si>
   <si>
     <t>notify_message_setting_config</t>
@@ -3812,14 +3759,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3830,36 +3771,37 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3867,187 +3809,42 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4067,28 +3864,45 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4119,194 +3933,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4316,11 +3944,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -4329,14 +3957,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -4345,12 +3973,12 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4359,19 +3987,19 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -4379,21 +4007,21 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -4401,388 +4029,99 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4855,6 +4194,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4978,7 +4320,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -5002,9 +4344,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -5028,7 +4370,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -5081,7 +4423,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -5106,285 +4448,282 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="9" customWidth="true"/>
-    <col min="2" max="2" width="10.2814814814815" style="10" customWidth="true"/>
-    <col min="3" max="3" width="28.1407407407407" customWidth="true"/>
-    <col min="4" max="4" width="35.2814814814815" style="8" customWidth="true"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="true"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="true"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="true"/>
-    <col min="8" max="8" width="22" customWidth="true"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="true"/>
-    <col min="10" max="10" width="27" customWidth="true"/>
-    <col min="11" max="11" width="19.1407407407407" customWidth="true"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="true"/>
-    <col min="13" max="13" width="13.1407407407407" customWidth="true"/>
-    <col min="14" max="1025" width="10.2814814814815" customWidth="true"/>
+    <col min="1" max="1" width="15.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="true" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="true" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="15" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" ht="47.25" spans="3:6">
-      <c r="C9" s="19" t="s">
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" ht="57">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="47.25" spans="3:5">
-      <c r="C10" s="21" t="s">
+    <row r="10" spans="1:8" ht="57">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="63" spans="3:5">
-      <c r="C11" s="17" t="s">
+    <row r="11" spans="1:8" ht="76">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="1:8" ht="19">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" ht="31.5" spans="3:5">
-      <c r="C15" s="22" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="38">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="25" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="25" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="25" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="25" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="true" spans="3:5">
-      <c r="C25" s="27" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="true" spans="3:5">
-      <c r="C26" s="18" t="s">
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="47.25" spans="3:3">
-      <c r="C27" s="28" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="3:5" ht="57">
+      <c r="C27" s="24" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="4" max="4" width="22.5703703703704" customWidth="true"/>
-    <col min="5" max="5" width="29.4222222222222" customWidth="true"/>
-    <col min="6" max="6" width="44.8518518518519" customWidth="true"/>
-    <col min="7" max="7" width="29.4222222222222" customWidth="true"/>
-    <col min="8" max="8" width="24.2814814814815" customWidth="true"/>
-    <col min="9" max="9" width="51.1407407407407" customWidth="true"/>
-    <col min="10" max="10" width="152.57037037037" customWidth="true"/>
-    <col min="11" max="11" width="112.851851851852" customWidth="true"/>
-    <col min="13" max="13" width="73.7111111111111" customWidth="true"/>
-    <col min="14" max="14" width="23.4222222222222" customWidth="true"/>
-    <col min="15" max="15" width="29.4222222222222" customWidth="true"/>
-    <col min="16" max="16" width="29.8518518518519" customWidth="true"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" customWidth="1"/>
+    <col min="10" max="10" width="152.5703125" customWidth="1"/>
+    <col min="11" max="11" width="112.85546875" customWidth="1"/>
+    <col min="13" max="13" width="73.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5398,7 +4737,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:16">
       <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
@@ -5459,7 +4798,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="5:16">
+    <row r="8" spans="1:16">
       <c r="E8" t="s">
         <v>66</v>
       </c>
@@ -5491,7 +4830,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="5:16">
+    <row r="9" spans="1:16">
       <c r="E9" t="s">
         <v>75</v>
       </c>
@@ -5517,7 +4856,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="true" spans="5:16">
+    <row r="10" spans="1:16" ht="42" customHeight="1">
       <c r="E10" t="s">
         <v>79</v>
       </c>
@@ -5543,7 +4882,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="5:16">
+    <row r="11" spans="1:16">
       <c r="E11" t="s">
         <v>82</v>
       </c>
@@ -5569,7 +4908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="5:16">
+    <row r="12" spans="1:16">
       <c r="E12" t="s">
         <v>85</v>
       </c>
@@ -5601,7 +4940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="5:16">
+    <row r="13" spans="1:16">
       <c r="E13" t="s">
         <v>88</v>
       </c>
@@ -5627,7 +4966,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="5:16">
+    <row r="14" spans="1:16">
       <c r="E14" t="s">
         <v>92</v>
       </c>
@@ -5653,7 +4992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="5:16">
+    <row r="15" spans="1:16">
       <c r="E15" t="s">
         <v>95</v>
       </c>
@@ -5679,7 +5018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="5:16">
+    <row r="16" spans="1:16">
       <c r="E16" t="s">
         <v>97</v>
       </c>
@@ -5711,7 +5050,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="1:16">
       <c r="E17" t="s">
         <v>100</v>
       </c>
@@ -5737,7 +5076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="true" spans="5:16">
+    <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="E18" t="s">
         <v>104</v>
       </c>
@@ -5763,7 +5102,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="1:16">
       <c r="E19" t="s">
         <v>107</v>
       </c>
@@ -5789,7 +5128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" ht="22" customHeight="true" spans="5:16">
+    <row r="20" spans="1:16" ht="22" customHeight="1">
       <c r="E20" t="s">
         <v>110</v>
       </c>
@@ -5815,7 +5154,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="20" customHeight="true" spans="5:16">
+    <row r="21" spans="1:16" ht="20" customHeight="1">
       <c r="E21" t="s">
         <v>114</v>
       </c>
@@ -5841,7 +5180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" ht="19" customHeight="true" spans="5:16">
+    <row r="22" spans="1:16" ht="19" customHeight="1">
       <c r="E22" t="s">
         <v>117</v>
       </c>
@@ -5867,7 +5206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" ht="19" customHeight="true" spans="5:16">
+    <row r="23" spans="1:16" ht="19" customHeight="1">
       <c r="E23" t="s">
         <v>119</v>
       </c>
@@ -5893,7 +5232,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="22" customHeight="true" spans="5:16">
+    <row r="24" spans="1:16" ht="22" customHeight="1">
       <c r="E24" t="s">
         <v>122</v>
       </c>
@@ -5919,62 +5258,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" ht="22" customHeight="true" spans="5:16">
-      <c r="E25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N25" t="s">
-        <v>72</v>
-      </c>
-      <c r="O25" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="true" spans="5:16">
-      <c r="E26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N26" t="s">
-        <v>72</v>
-      </c>
-      <c r="O26" t="s">
-        <v>73</v>
-      </c>
-      <c r="P26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" ht="22" customHeight="true" spans="9:9">
+    <row r="25" spans="1:16" ht="22" customHeight="1">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" ht="22" customHeight="1">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" ht="22" customHeight="1">
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -5982,1056 +5275,959 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="E29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F29" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="E30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="E31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="E32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G47" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G56" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G62" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G63" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G65" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G66" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G67" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G69" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G70" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G71" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G72" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G73" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G74" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G75" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G76" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G77" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G78" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G79" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F80" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G80" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F81" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F82" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G82" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F83" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G83" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F84" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G84" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F86" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F87" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G87" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F88" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F89" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G89" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F91" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F92" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G92" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F93" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G93" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G94" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G101" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G102" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G103" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="104" customFormat="true" spans="5:7">
-      <c r="E104" t="s">
-        <v>140</v>
-      </c>
-      <c r="F104" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" customFormat="true" spans="5:7">
-      <c r="E105" t="s">
-        <v>140</v>
-      </c>
-      <c r="F105" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" customFormat="true" spans="5:7">
-      <c r="E106" t="s">
-        <v>140</v>
-      </c>
-      <c r="F106" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G106" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" customFormat="true" spans="5:7">
-      <c r="E107" t="s">
-        <v>140</v>
-      </c>
-      <c r="F107" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" customFormat="true" spans="5:7">
-      <c r="E108" t="s">
-        <v>140</v>
-      </c>
-      <c r="F108" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-26</v>
-      </c>
-      <c r="G108" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" customFormat="true" spans="5:7">
-      <c r="E109" t="s">
-        <v>140</v>
-      </c>
-      <c r="F109" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" customFormat="true" spans="5:7">
-      <c r="E110" t="s">
-        <v>140</v>
-      </c>
-      <c r="F110" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-26</v>
-      </c>
-      <c r="G110" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" customFormat="true" spans="5:7">
-      <c r="E111" t="s">
-        <v>140</v>
-      </c>
-      <c r="F111" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="22.4222222222222" customWidth="true"/>
-    <col min="2" max="2" width="15.4222222222222" customWidth="true"/>
-    <col min="3" max="3" width="22.7111111111111" customWidth="true"/>
-    <col min="4" max="4" width="29.4222222222222" customWidth="true"/>
-    <col min="5" max="5" width="34.8518518518519" customWidth="true"/>
-    <col min="6" max="6" width="34.4222222222222" customWidth="true"/>
-    <col min="7" max="7" width="33.8518518518519" customWidth="true"/>
-    <col min="8" max="8" width="29.2814814814815" customWidth="true"/>
-    <col min="9" max="9" width="20.7777777777778" customWidth="true"/>
-    <col min="10" max="10" width="29.8518518518519" customWidth="true"/>
-    <col min="11" max="11" width="22.4222222222222" customWidth="true"/>
-    <col min="12" max="12" width="17.5703703703704" customWidth="true"/>
-    <col min="13" max="13" width="15.7111111111111" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7045,7 +6241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
@@ -7064,48 +6260,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="N7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="5:15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -7114,7 +6310,7 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
@@ -7126,21 +6322,21 @@
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -7149,7 +6345,7 @@
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -7161,21 +6357,21 @@
         <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -7184,7 +6380,7 @@
         <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I10" t="s">
         <v>102</v>
@@ -7196,21 +6392,21 @@
         <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="true" spans="5:15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="E11" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -7219,7 +6415,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I11" t="s">
         <v>112</v>
@@ -7231,21 +6427,21 @@
         <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -7254,7 +6450,7 @@
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="I12" t="s">
         <v>124</v>
@@ -7266,10 +6462,10 @@
         <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="N12" t="s">
         <v>73</v>
@@ -7278,101 +6474,87 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
         <v>184</v>
       </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F15" t="str">
+        <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
+      </c>
+      <c r="G15" t="s">
         <v>185</v>
       </c>
-      <c r="I13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="H15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" t="s">
         <v>73</v>
       </c>
-      <c r="L13" t="s">
-        <v>169</v>
-      </c>
-      <c r="M13" t="s">
-        <v>183</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="K15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" t="s">
         <v>73</v>
       </c>
-      <c r="O13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="M15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="s">
         <v>187</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" t="s">
-        <v>191</v>
-      </c>
-      <c r="J15" t="s">
-        <v>192</v>
-      </c>
-      <c r="K15" t="s">
-        <v>193</v>
-      </c>
-      <c r="L15" t="s">
-        <v>194</v>
-      </c>
-      <c r="M15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="5:13">
-      <c r="E16" t="s">
-        <v>195</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
@@ -7383,17 +6565,17 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
         <v>73</v>
@@ -7404,17 +6586,17 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G18" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
@@ -7425,17 +6607,23 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F19" t="str">
-        <f>发送配置!$E$8</f>
-        <v>hmsg_template_server-8</v>
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
       </c>
       <c r="L19" t="s">
         <v>73</v>
@@ -7446,23 +6634,17 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -7473,17 +6655,17 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s">
         <v>73</v>
@@ -7494,17 +6676,17 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
@@ -7515,17 +6697,23 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F23" t="str">
-        <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
+        <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G23" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>105</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
       </c>
       <c r="L23" t="s">
         <v>73</v>
@@ -7536,23 +6724,17 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" t="s">
-        <v>73</v>
-      </c>
-      <c r="K24" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
@@ -7563,17 +6745,17 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s">
         <v>73</v>
@@ -7582,19 +6764,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:13">
+    <row r="26" spans="5:13" ht="15" customHeight="1">
       <c r="E26" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s">
         <v>73</v>
@@ -7603,49 +6785,49 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="true" spans="5:13">
+    <row r="27" spans="5:13">
       <c r="E27" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F27" t="str">
-        <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
+        <f t="shared" ref="F27:F29" si="0">$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>111</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s">
+        <v>186</v>
       </c>
       <c r="L27" t="s">
         <v>73</v>
       </c>
-      <c r="M27" t="s">
-        <v>73</v>
+      <c r="M27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" ref="F28:F32" si="0">$E$11</f>
+        <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" t="s">
-        <v>197</v>
-      </c>
-      <c r="L28" t="s">
-        <v>73</v>
+        <v>115</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -7653,17 +6835,17 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -7674,153 +6856,98 @@
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
+        <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="L30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="5:13">
       <c r="E31" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F31" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
+        <f>$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" t="s">
+        <v>186</v>
       </c>
       <c r="L31" t="s">
         <v>73</v>
       </c>
-      <c r="M31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="5:13">
-      <c r="E32" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" t="str">
-        <f>$E$12</f>
-        <v>hmsg_template_server-12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" t="s">
-        <v>197</v>
-      </c>
-      <c r="L32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M32">
+      <c r="M31">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:13">
-      <c r="E33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F33" t="str">
-        <f>$E$13</f>
-        <v>hmsg_template_server-13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>196</v>
-      </c>
-      <c r="H33" t="s">
-        <v>127</v>
-      </c>
-      <c r="I33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" t="s">
-        <v>197</v>
-      </c>
-      <c r="L33" t="s">
-        <v>73</v>
-      </c>
-      <c r="M33">
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="E36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="5:13">
-      <c r="E34" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34" t="str">
-        <f>$E$13</f>
-        <v>hmsg_template_server-13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>199</v>
-      </c>
-      <c r="H34" t="s">
-        <v>131</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="E37" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7829,12 +6956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
+    <row r="38" spans="1:8">
       <c r="E38" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7843,12 +6970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="39" spans="1:8">
       <c r="E39" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7857,22 +6984,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="true" spans="5:8">
-      <c r="E40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F40" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/hzero_message/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\git\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D7A4C4-8A98-E440-91DC-572A0A09A233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05CEA8-2AAC-47C0-AECA-C324FFE1583C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,22 +24,11 @@
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="243">
   <si>
     <r>
       <rPr>
@@ -2737,9 +2726,6 @@
   </si>
   <si>
     <t>问题已解决</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href=${url} target=_blank&gt;${summary}&lt;/a&gt; 已经由 ${assigneeName} 解决&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-18</t>
@@ -3266,12 +3252,6 @@
     <t>ISSUE_CHANGE_STATUS_JSON</t>
   </si>
   <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}"}}</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-24</t>
-  </si>
-  <si>
     <t>PROJECT_REPORT.EMAIL</t>
   </si>
   <si>
@@ -3633,127 +3613,477 @@
     <t>问题状态变更，给相关用户发送通知</t>
   </si>
   <si>
+    <t>PROJECT_REPORT</t>
+  </si>
+  <si>
+    <t>PRO-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>发送配置(其它)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line</t>
+  </si>
+  <si>
+    <t>*temp_server_line_id</t>
+  </si>
+  <si>
+    <t>#temp_server_id</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>server_id</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>server_code</t>
+  </si>
+  <si>
+    <t>try_times</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-14</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-15</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-16</t>
+  </si>
+  <si>
+    <t>WEB_HOOK</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-17</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-18</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-19</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-20</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-21</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-22</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-23</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-24</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-25</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-26</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-27</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-28</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-29</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-31</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-32</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-33</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-24</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_message_template-25</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_CHANGE_STATUS_JSON</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT_NOTICE.EMAIL</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评论通知</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}"}}</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href=${url} target=_blank&gt;${summary}&lt;/a&gt; 已经由 ${assigneeName} 解决&lt;/p&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;${assigneeName} 创建了问题 &lt;a href=${url} target=_blank&gt;${summary}&lt;/a &gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue-status-change-notice</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题评论通知</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>反馈说明</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>行为</t>
+  </si>
+  <si>
+    <t>commentUser</t>
+  </si>
+  <si>
+    <t>评论人</t>
+  </si>
+  <si>
+    <t>issueSummary</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentType</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论类型</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作列表链接</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 24px;"&gt;您在【${projectName}】${action}问题&amp;ldquo;${issueSummary}&amp;rdquo;收到一条新的${commentType}，${commentType}内容如下，您也可以&lt;a href="${link}" style="text-decoration:none;" target="_blank"&gt;点击&lt;/a&gt;查看更多信息&lt;br&gt;
+&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;br&gt;&lt;br&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; vertical-align: top; border:1px dashed rgba(63,81,181,1); padding: 0px 12px 13px 12px;"&gt;
+                          &lt;p style="color: rgba(37,37,40,1); font-weight:400; font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;${commentUser}：&lt;/p&gt;
+                          &lt;p style="color: rgba(37,37,40,0.8); font-weight:400; font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;padding-left: 28px;"&gt;${comment}&lt;/p&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
+      font-size: 10px;
+      color: #FFFFFF;
+      text-align: center;
+      display: inline-block;
+      line-height: 34px;
+      width: 100%;
+      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题概要</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE-COMMENT-NOTICE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>hmsg_template_server-12</t>
-  </si>
-  <si>
-    <t>PROJECT_REPORT</t>
-  </si>
-  <si>
-    <t>PRO-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>发送配置(其它)</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line</t>
-  </si>
-  <si>
-    <t>*temp_server_line_id</t>
-  </si>
-  <si>
-    <t>#temp_server_id</t>
-  </si>
-  <si>
-    <t>#type_code</t>
-  </si>
-  <si>
-    <t>server_id</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>server_code</t>
-  </si>
-  <si>
-    <t>try_times</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-14</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>CHOERODON-EMAIL</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-15</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-16</t>
-  </si>
-  <si>
-    <t>WEB_HOOK</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-17</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-18</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-19</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-20</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-21</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-22</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-23</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-24</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-25</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-26</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-27</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-28</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-29</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_template_server-13</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题评论</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>hmsg_template_server_line-30</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#edit</t>
-  </si>
-  <si>
-    <t>#TENANT_ID</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-31</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-32</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-33</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-31</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_config-35</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>notify_message_setting_config-34</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUECHANGESTATUS</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4040,7 +4370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4101,11 +4431,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4115,6 +4445,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4464,50 +4798,50 @@
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:8" ht="19">
+    <row r="4" spans="1:8" ht="18">
       <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
@@ -4528,7 +4862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
@@ -4548,7 +4882,7 @@
       </c>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:8" ht="57">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4562,7 +4896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
@@ -4573,7 +4907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="76">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
@@ -4584,7 +4918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
+    <row r="12" spans="1:8">
       <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
@@ -4605,7 +4939,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:8" ht="38">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
@@ -4628,7 +4962,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="21" t="s">
         <v>31</v>
       </c>
@@ -4636,7 +4970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="21" t="s">
         <v>33</v>
       </c>
@@ -4644,7 +4978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="21" t="s">
         <v>35</v>
       </c>
@@ -4652,7 +4986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="21" t="s">
         <v>37</v>
       </c>
@@ -4664,21 +4998,21 @@
       <c r="C25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="3:5" ht="57">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="24" t="s">
         <v>43</v>
       </c>
@@ -4701,26 +5035,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:XFD111"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" customWidth="1"/>
-    <col min="10" max="10" width="152.5703125" customWidth="1"/>
-    <col min="11" max="11" width="112.85546875" customWidth="1"/>
-    <col min="13" max="13" width="73.7109375" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="29.42578125" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="51.109375" customWidth="1"/>
+    <col min="10" max="10" width="152.5546875" customWidth="1"/>
+    <col min="11" max="11" width="112.88671875" customWidth="1"/>
+    <col min="13" max="13" width="73.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" customWidth="1"/>
+    <col min="16" max="16" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4817,8 +5152,8 @@
       <c r="J8" t="s">
         <v>70</v>
       </c>
-      <c r="K8" t="s">
-        <v>71</v>
+      <c r="K8" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="N8" t="s">
         <v>72</v>
@@ -5005,8 +5340,8 @@
       <c r="H15" t="s">
         <v>90</v>
       </c>
-      <c r="I15" t="s">
-        <v>91</v>
+      <c r="I15" s="39" t="s">
+        <v>215</v>
       </c>
       <c r="N15" t="s">
         <v>72</v>
@@ -5063,8 +5398,8 @@
       <c r="H17" t="s">
         <v>102</v>
       </c>
-      <c r="I17" t="s">
-        <v>103</v>
+      <c r="I17" s="39" t="s">
+        <v>214</v>
       </c>
       <c r="N17" t="s">
         <v>72</v>
@@ -5078,10 +5413,10 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
         <v>104</v>
-      </c>
-      <c r="F18" t="s">
-        <v>105</v>
       </c>
       <c r="G18" t="s">
         <v>99</v>
@@ -5090,7 +5425,7 @@
         <v>99</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N18" t="s">
         <v>72</v>
@@ -5104,10 +5439,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
       </c>
       <c r="G19" t="s">
         <v>102</v>
@@ -5116,7 +5451,7 @@
         <v>102</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" t="s">
         <v>72</v>
@@ -5128,21 +5463,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1">
+    <row r="20" spans="1:16" ht="21.95" customHeight="1">
       <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
         <v>110</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>111</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="H20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="N20" t="s">
         <v>72</v>
@@ -5154,21 +5489,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="20" customHeight="1">
+    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
         <v>114</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="N21" t="s">
         <v>72</v>
@@ -5180,21 +5515,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="19" customHeight="1">
+    <row r="22" spans="1:16" ht="18.95" customHeight="1">
       <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
         <v>117</v>
       </c>
-      <c r="F22" t="s">
-        <v>118</v>
-      </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N22" t="s">
         <v>72</v>
@@ -5206,21 +5541,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="19" customHeight="1">
+    <row r="23" spans="1:16" ht="18.95" customHeight="1">
       <c r="E23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>213</v>
       </c>
       <c r="N23" t="s">
         <v>72</v>
@@ -5232,24 +5567,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1">
-      <c r="E24" t="s">
+    <row r="24" spans="1:16" ht="21.95" customHeight="1">
+      <c r="E24" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N24" t="s">
-        <v>72</v>
+      <c r="N24" s="39" t="s">
+        <v>212</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
@@ -5258,942 +5593,1073 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1">
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1">
+    <row r="25" spans="1:16" ht="21.95" customHeight="1">
+      <c r="E25" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="21.95" customHeight="1">
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1">
+    <row r="27" spans="1:16" ht="21.95" customHeight="1">
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" t="s">
-        <v>50</v>
+      <c r="A28" s="2">
+        <v>44036</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="H28" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="I28" t="s">
         <v>129</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="E29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F29" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="E31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="E32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G65" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G69" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G76" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G77" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G78" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G79" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F80" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G80" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F81" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F82" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G82" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F83" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F84" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G84" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F86" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F87" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G87" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F88" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F89" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G89" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F91" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F92" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G92" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F93" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G93" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G94" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="5:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="5:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="5:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="5:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="5:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="5:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G102" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="5:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G103" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8">
+      <c r="E104" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>136</v>
+      </c>
+      <c r="H104" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="5:8">
+      <c r="E105" t="s">
+        <v>130</v>
+      </c>
+      <c r="F105" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G105" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="H105" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8">
+      <c r="E106" t="s">
+        <v>130</v>
+      </c>
+      <c r="F106" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>220</v>
+      </c>
+      <c r="H106" s="39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8">
+      <c r="E107" t="s">
+        <v>130</v>
+      </c>
+      <c r="F107" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>221</v>
+      </c>
+      <c r="H107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="5:8">
+      <c r="E108" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H108" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8">
+      <c r="E109" t="s">
+        <v>130</v>
+      </c>
+      <c r="F109" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G109" t="s">
+        <v>225</v>
+      </c>
+      <c r="H109" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8">
+      <c r="E110" t="s">
+        <v>130</v>
+      </c>
+      <c r="F110" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G110" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="H110" s="39" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6204,27 +6670,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -6260,48 +6726,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="J7" t="s">
         <v>150</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" t="s">
-        <v>153</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7" t="s">
         <v>154</v>
-      </c>
-      <c r="M7" t="s">
-        <v>155</v>
-      </c>
-      <c r="N7" t="s">
-        <v>156</v>
-      </c>
-      <c r="O7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -6310,7 +6776,7 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
@@ -6322,21 +6788,21 @@
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>216</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -6345,7 +6811,7 @@
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -6357,21 +6823,21 @@
         <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -6380,7 +6846,7 @@
         <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I10" t="s">
         <v>102</v>
@@ -6392,21 +6858,21 @@
         <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="E11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -6415,33 +6881,33 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
         <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="E12" t="s">
-        <v>172</v>
+      <c r="E12" s="39" t="s">
+        <v>234</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -6450,111 +6916,125 @@
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
         <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N12" t="s">
         <v>73</v>
       </c>
       <c r="O12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="N13" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="H15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="J15" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="K15" t="s">
         <v>178</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="L15" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>180</v>
-      </c>
-      <c r="J14" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" t="s">
-        <v>182</v>
-      </c>
-      <c r="L14" t="s">
-        <v>183</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="M15" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" t="str">
-        <f>发送配置!$E$8</f>
-        <v>hmsg_template_server-8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" t="s">
-        <v>186</v>
-      </c>
-      <c r="L15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>182</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
@@ -6565,17 +7045,17 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s">
         <v>73</v>
@@ -6586,17 +7066,17 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
@@ -6607,23 +7087,17 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F19" t="str">
-        <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
+        <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s">
         <v>73</v>
@@ -6634,17 +7108,23 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -6655,17 +7135,17 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L21" t="s">
         <v>73</v>
@@ -6676,17 +7156,17 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
@@ -6697,23 +7177,17 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F23" t="str">
-        <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
         <v>73</v>
@@ -6724,17 +7198,23 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
@@ -6745,17 +7225,17 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s">
         <v>73</v>
@@ -6764,19 +7244,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:13" ht="15" customHeight="1">
+    <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s">
         <v>73</v>
@@ -6785,49 +7265,49 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:13">
+    <row r="27" spans="5:13" ht="15" customHeight="1">
       <c r="E27" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" ref="F27:F29" si="0">$E$11</f>
-        <v>hmsg_template_server-11</v>
+        <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s">
         <v>73</v>
       </c>
-      <c r="M27">
-        <v>1</v>
+      <c r="M27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F28:F30" si="0">$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28" t="s">
+        <v>73</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -6835,17 +7315,17 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6856,98 +7336,132 @@
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>hmsg_template_server-11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13">
+      <c r="E31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
-      <c r="G30" t="s">
-        <v>190</v>
-      </c>
-      <c r="H30" t="s">
-        <v>120</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="G31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L31" t="s">
         <v>73</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="5:13">
-      <c r="E31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" t="str">
+    <row r="32" spans="5:13">
+      <c r="E32" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" t="str">
         <f>$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
-      <c r="G31" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="G32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" t="s">
         <v>73</v>
       </c>
-      <c r="K31" t="s">
-        <v>186</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="K32" t="s">
+        <v>182</v>
+      </c>
+      <c r="L32" t="s">
         <v>73</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="2">
+    <row r="33" spans="1:13">
+      <c r="E33" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" t="str">
+        <f>$E$13</f>
+        <v>hmsg_template_server-13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" t="s">
+        <v>182</v>
+      </c>
+      <c r="L33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2">
         <v>44036</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="E36" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="E37" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6956,12 +7470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:13">
       <c r="E38" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -6970,22 +7484,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:13">
       <c r="E39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="E40" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="E41" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\git\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\asdasd\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05CEA8-2AAC-47C0-AECA-C324FFE1583C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7444CDD0-2134-423D-A090-8F959B747EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="244">
   <si>
     <r>
       <rPr>
@@ -3743,10 +3743,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>需求评论通知</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>zh_CN</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -3812,6 +3808,50 @@
   </si>
   <si>
     <t>工作列表链接</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题概要</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE-COMMENT-NOTICE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_template_server-12</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_template_server-13</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题评论</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-30</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-31</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_config-35</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_config-34</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUECHANGESTATUS</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3953,7 +3993,7 @@
                       &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
                         &lt;div style=""&gt;
                           &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 24px;"&gt;您在【${projectName}】${action}问题&amp;ldquo;${issueSummary}&amp;rdquo;收到一条新的${commentType}，${commentType}内容如下，您也可以&lt;a href="${link}" style="text-decoration:none;" target="_blank"&gt;点击&lt;/a&gt;查看更多信息&lt;br&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 24px;"&gt;您在【${projectName}】${action}${issueType}&amp;ldquo;${issueSummary}&amp;rdquo;收到一条新的${commentType}，${commentType}内容如下，您也可以&lt;a href="${link}" style="text-decoration:none;" target="_blank"&gt;点击&lt;/a&gt;查看更多信息&lt;br&gt;
 &lt;/p&gt;
                         &lt;/div&gt;
                         &lt;br&gt;&lt;br&gt;
@@ -4042,47 +4082,11 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>问题概要</t>
+    <t>issueType</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ISSUE-COMMENT-NOTICE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_template_server-12</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_template_server-13</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_COMMENT</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题评论</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-30</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-31</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_message_setting_config-35</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_message_setting_config-34</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUECHANGESTATUS</t>
+    <t>问题类型</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -4431,6 +4435,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4445,10 +4453,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4818,11 +4822,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -4831,21 +4835,21 @@
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
@@ -4956,11 +4960,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="21" t="s">
@@ -4998,19 +5002,19 @@
       <c r="C25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="24" t="s">
@@ -5035,10 +5039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="E97" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5152,8 +5156,8 @@
       <c r="J8" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="39" t="s">
-        <v>217</v>
+      <c r="K8" s="34" t="s">
+        <v>216</v>
       </c>
       <c r="N8" t="s">
         <v>72</v>
@@ -5340,8 +5344,8 @@
       <c r="H15" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="39" t="s">
-        <v>215</v>
+      <c r="I15" s="34" t="s">
+        <v>214</v>
       </c>
       <c r="N15" t="s">
         <v>72</v>
@@ -5398,8 +5402,8 @@
       <c r="H17" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="39" t="s">
-        <v>214</v>
+      <c r="I17" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="N17" t="s">
         <v>72</v>
@@ -5545,7 +5549,7 @@
       <c r="E23" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="34" t="s">
         <v>209</v>
       </c>
       <c r="G23" t="s">
@@ -5554,8 +5558,8 @@
       <c r="H23" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="40" t="s">
-        <v>213</v>
+      <c r="I23" s="35" t="s">
+        <v>212</v>
       </c>
       <c r="N23" t="s">
         <v>72</v>
@@ -5568,7 +5572,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="21.95" customHeight="1">
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="34" t="s">
         <v>207</v>
       </c>
       <c r="F24" t="s">
@@ -5583,8 +5587,8 @@
       <c r="I24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="N24" s="39" t="s">
-        <v>212</v>
+      <c r="N24" s="34" t="s">
+        <v>211</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
@@ -5594,26 +5598,26 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="21.95" customHeight="1">
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="N25" s="34" t="s">
         <v>211</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>212</v>
       </c>
       <c r="O25" t="s">
         <v>73</v>
@@ -6569,7 +6573,7 @@
         <v>136</v>
       </c>
       <c r="H104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="5:8">
@@ -6580,11 +6584,11 @@
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G105" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="H105" s="39" t="s">
-        <v>232</v>
+      <c r="G105" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H105" s="34" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="5:8">
@@ -6596,10 +6600,10 @@
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G106" t="s">
-        <v>220</v>
-      </c>
-      <c r="H106" s="39" t="s">
-        <v>230</v>
+        <v>219</v>
+      </c>
+      <c r="H106" s="34" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="5:8">
@@ -6611,10 +6615,10 @@
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G107" t="s">
+        <v>220</v>
+      </c>
+      <c r="H107" t="s">
         <v>221</v>
-      </c>
-      <c r="H107" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="108" spans="5:8">
@@ -6626,10 +6630,10 @@
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G108" t="s">
+        <v>222</v>
+      </c>
+      <c r="H108" t="s">
         <v>223</v>
-      </c>
-      <c r="H108" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="109" spans="5:8">
@@ -6641,10 +6645,10 @@
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G109" t="s">
+        <v>224</v>
+      </c>
+      <c r="H109" t="s">
         <v>225</v>
-      </c>
-      <c r="H109" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="110" spans="5:8">
@@ -6655,11 +6659,26 @@
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G110" s="39" t="s">
+      <c r="G110" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H110" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="H110" s="39" t="s">
-        <v>229</v>
+    </row>
+    <row r="111" spans="5:8">
+      <c r="E111" t="s">
+        <v>130</v>
+      </c>
+      <c r="F111" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G111" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="H111" s="34" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6790,8 +6809,8 @@
       <c r="L8" t="s">
         <v>157</v>
       </c>
-      <c r="M8" s="39" t="s">
-        <v>216</v>
+      <c r="M8" s="34" t="s">
+        <v>215</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
@@ -6906,8 +6925,8 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="E12" s="39" t="s">
-        <v>234</v>
+      <c r="E12" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -6941,8 +6960,8 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="E13" s="39" t="s">
-        <v>235</v>
+      <c r="E13" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -6950,14 +6969,14 @@
       <c r="G13" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>237</v>
+      <c r="H13" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="K13" t="s">
         <v>73</v>
@@ -6965,14 +6984,14 @@
       <c r="L13" t="s">
         <v>157</v>
       </c>
-      <c r="M13" s="39" t="s">
-        <v>233</v>
+      <c r="M13" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="N13" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="39" t="s">
-        <v>237</v>
+      <c r="O13" s="34" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -7377,8 +7396,8 @@
       </c>
     </row>
     <row r="32" spans="5:13">
-      <c r="E32" s="39" t="s">
-        <v>238</v>
+      <c r="E32" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="F32" t="str">
         <f>$E$12</f>
@@ -7404,8 +7423,8 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="E33" s="39" t="s">
-        <v>239</v>
+      <c r="E33" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="F33" t="str">
         <f>$E$13</f>
@@ -7414,7 +7433,7 @@
       <c r="G33" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="34" t="s">
         <v>210</v>
       </c>
       <c r="I33" t="s">
@@ -7499,11 +7518,11 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="E40" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>242</v>
+      <c r="E40" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>240</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -7513,11 +7532,11 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="E41" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>236</v>
+      <c r="E41" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="G41">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\asdasd\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7444CDD0-2134-423D-A090-8F959B747EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1E4980-C27F-49F1-B5CC-F2752ACEB6C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="251">
   <si>
     <r>
       <rPr>
@@ -3767,10 +3767,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>问题评论通知</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>项目名称</t>
   </si>
   <si>
@@ -4087,6 +4083,38 @@
   </si>
   <si>
     <t>问题类型</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_message_template-26</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT_NOTICE.WEB</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choerodon敏捷通知-问题已解决</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choerodon敏捷通知-问题新评论</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题新评论</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;经办人${assigneeName}的问题 ${summary} 已由${operatorName}变更为${status}状态&lt;/p&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您${action}${issueType}${issueSummary}收到一条新的${commentType}&lt;/p&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-32</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5039,10 +5067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E97" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5425,8 +5453,8 @@
       <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="H18" t="s">
-        <v>99</v>
+      <c r="H18" s="34" t="s">
+        <v>245</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>105</v>
@@ -5532,8 +5560,8 @@
       <c r="H22" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>115</v>
+      <c r="I22" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="N22" t="s">
         <v>72</v>
@@ -5605,16 +5633,16 @@
         <v>210</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N25" s="34" t="s">
         <v>211</v>
@@ -5627,50 +5655,67 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="21.95" customHeight="1">
-      <c r="I26" s="7"/>
+      <c r="E26" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="21.95" customHeight="1">
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="2">
+    <row r="28" spans="1:16" ht="21.95" customHeight="1">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="2">
         <v>44036</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>128</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="E29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" t="str">
-        <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-8</v>
-      </c>
-      <c r="G29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -5682,7 +5727,7 @@
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -5694,7 +5739,7 @@
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -5706,7 +5751,7 @@
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="5:7">
@@ -5718,7 +5763,7 @@
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="5:7">
@@ -5730,7 +5775,7 @@
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -5742,7 +5787,7 @@
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="5:7">
@@ -5754,7 +5799,7 @@
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="5:7">
@@ -5766,7 +5811,7 @@
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="5:7">
@@ -5774,11 +5819,11 @@
         <v>130</v>
       </c>
       <c r="F38" t="str">
-        <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="5:7">
@@ -5790,7 +5835,7 @@
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="5:7">
@@ -5802,7 +5847,7 @@
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="5:7">
@@ -5814,7 +5859,7 @@
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="5:7">
@@ -5826,7 +5871,7 @@
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="5:7">
@@ -5838,7 +5883,7 @@
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="5:7">
@@ -5850,7 +5895,7 @@
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="5:7">
@@ -5862,7 +5907,7 @@
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="5:7">
@@ -5874,7 +5919,7 @@
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="5:7">
@@ -5882,11 +5927,11 @@
         <v>130</v>
       </c>
       <c r="F47" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="5:7">
@@ -5898,7 +5943,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="5:7">
@@ -5910,7 +5955,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="5:7">
@@ -5922,7 +5967,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="5:7">
@@ -5934,7 +5979,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="5:7">
@@ -5946,7 +5991,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="5:7">
@@ -5958,7 +6003,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="5:7">
@@ -5970,7 +6015,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="5:7">
@@ -5982,7 +6027,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="5:7">
@@ -5990,11 +6035,11 @@
         <v>130</v>
       </c>
       <c r="F56" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G56" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="5:7">
@@ -6006,7 +6051,7 @@
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="5:7">
@@ -6018,7 +6063,7 @@
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="5:7">
@@ -6026,11 +6071,11 @@
         <v>130</v>
       </c>
       <c r="F59" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-9</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="5:7">
@@ -6042,7 +6087,7 @@
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="5:7">
@@ -6054,7 +6099,7 @@
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="5:7">
@@ -6062,11 +6107,11 @@
         <v>130</v>
       </c>
       <c r="F62" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-15</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="5:7">
@@ -6078,7 +6123,7 @@
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G63" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="5:7">
@@ -6090,7 +6135,7 @@
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="5:7">
@@ -6098,11 +6143,11 @@
         <v>130</v>
       </c>
       <c r="F65" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-13</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-15</v>
       </c>
       <c r="G65" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="5:7">
@@ -6114,7 +6159,7 @@
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="5:7">
@@ -6126,7 +6171,7 @@
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="5:7">
@@ -6134,11 +6179,11 @@
         <v>130</v>
       </c>
       <c r="F68" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-19</v>
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-13</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="5:7">
@@ -6150,7 +6195,7 @@
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G69" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="5:7">
@@ -6162,7 +6207,7 @@
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="5:7">
@@ -6170,11 +6215,11 @@
         <v>130</v>
       </c>
       <c r="F71" t="str">
-        <f>消息模板!$E$17</f>
-        <v>hmsg_message_template-17</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-19</v>
       </c>
       <c r="G71" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="5:7">
@@ -6186,7 +6231,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G72" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="5:7">
@@ -6198,7 +6243,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="5:7">
@@ -6206,11 +6251,11 @@
         <v>130</v>
       </c>
       <c r="F74" t="str">
-        <f>消息模板!$E$10</f>
-        <v>hmsg_message_template-10</v>
+        <f>消息模板!$E$17</f>
+        <v>hmsg_message_template-17</v>
       </c>
       <c r="G74" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="5:7">
@@ -6222,7 +6267,7 @@
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G75" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="5:7">
@@ -6230,11 +6275,11 @@
         <v>130</v>
       </c>
       <c r="F76" t="str">
-        <f>消息模板!$E$18</f>
-        <v>hmsg_message_template-18</v>
+        <f>消息模板!$E$10</f>
+        <v>hmsg_message_template-10</v>
       </c>
       <c r="G76" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="5:7">
@@ -6246,7 +6291,7 @@
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G77" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="5:7">
@@ -6254,11 +6299,11 @@
         <v>130</v>
       </c>
       <c r="F78" t="str">
-        <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-14</v>
+        <f>消息模板!$E$18</f>
+        <v>hmsg_message_template-18</v>
       </c>
       <c r="G78" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="5:7">
@@ -6270,7 +6315,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G79" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="5:7">
@@ -6278,11 +6323,11 @@
         <v>130</v>
       </c>
       <c r="F80" t="str">
-        <f>$E$20</f>
-        <v>hmsg_message_template-20</v>
+        <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G80" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="5:7">
@@ -6294,7 +6339,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="5:7">
@@ -6306,7 +6351,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G82" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="5:7">
@@ -6318,7 +6363,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="5:7">
@@ -6326,11 +6371,11 @@
         <v>130</v>
       </c>
       <c r="F84" t="str">
-        <f>$E$21</f>
-        <v>hmsg_message_template-21</v>
+        <f>$E$20</f>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G84" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="5:7">
@@ -6342,7 +6387,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="5:7">
@@ -6354,7 +6399,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="5:7">
@@ -6366,7 +6411,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G87" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="5:7">
@@ -6378,7 +6423,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="5:7">
@@ -6386,11 +6431,11 @@
         <v>130</v>
       </c>
       <c r="F89" t="str">
-        <f>$E$22</f>
-        <v>hmsg_message_template-22</v>
+        <f>$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G89" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="5:7">
@@ -6402,7 +6447,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="5:7">
@@ -6414,7 +6459,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="5:7">
@@ -6426,7 +6471,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G92" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="5:7">
@@ -6438,7 +6483,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="5:7">
@@ -6446,11 +6491,11 @@
         <v>130</v>
       </c>
       <c r="F94" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="5:7">
@@ -6462,7 +6507,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="5:7">
@@ -6474,7 +6519,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="5:8">
@@ -6486,7 +6531,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="5:8">
@@ -6498,7 +6543,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="5:8">
@@ -6510,7 +6555,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="5:8">
@@ -6522,7 +6567,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="5:8">
@@ -6534,7 +6579,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G101" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="5:8">
@@ -6546,7 +6591,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="5:8">
@@ -6554,26 +6599,23 @@
         <v>130</v>
       </c>
       <c r="F103" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8">
+      <c r="E104" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G104" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="5:8">
-      <c r="E104" t="s">
-        <v>130</v>
-      </c>
-      <c r="F104" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>136</v>
-      </c>
-      <c r="H104" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="105" spans="5:8">
@@ -6584,11 +6626,11 @@
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G105" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="H105" s="34" t="s">
-        <v>230</v>
+      <c r="G105" t="s">
+        <v>136</v>
+      </c>
+      <c r="H105" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="5:8">
@@ -6599,8 +6641,8 @@
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G106" t="s">
-        <v>219</v>
+      <c r="G106" s="34" t="s">
+        <v>225</v>
       </c>
       <c r="H106" s="34" t="s">
         <v>229</v>
@@ -6615,10 +6657,10 @@
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G107" t="s">
-        <v>220</v>
-      </c>
-      <c r="H107" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H107" s="34" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="5:8">
@@ -6630,10 +6672,10 @@
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G108" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H108" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="5:8">
@@ -6645,10 +6687,10 @@
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G109" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H109" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="5:8">
@@ -6659,11 +6701,11 @@
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G110" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="H110" s="34" t="s">
-        <v>228</v>
+      <c r="G110" t="s">
+        <v>223</v>
+      </c>
+      <c r="H110" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="5:8">
@@ -6675,10 +6717,121 @@
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G111" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H111" s="34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="5:8">
+      <c r="E112" t="s">
+        <v>130</v>
+      </c>
+      <c r="F112" t="str">
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G112" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H112" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="H111" s="34" t="s">
-        <v>243</v>
+    </row>
+    <row r="113" spans="6:8">
+      <c r="F113" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>136</v>
+      </c>
+      <c r="H113" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8">
+      <c r="F114" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G114" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="H114" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="6:8">
+      <c r="F115" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>218</v>
+      </c>
+      <c r="H115" s="34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="6:8">
+      <c r="F116" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G116" t="s">
+        <v>219</v>
+      </c>
+      <c r="H116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8">
+      <c r="F117" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>221</v>
+      </c>
+      <c r="H117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8">
+      <c r="F118" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G118" t="s">
+        <v>223</v>
+      </c>
+      <c r="H118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="6:8">
+      <c r="F119" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G119" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H119" s="34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="6:8">
+      <c r="F120" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G120" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H120" s="34" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6689,10 +6842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6926,7 +7079,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="E12" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -6961,7 +7114,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -6970,13 +7123,13 @@
         <v>74</v>
       </c>
       <c r="H13" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="34" t="s">
-        <v>235</v>
-      </c>
       <c r="J13" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K13" t="s">
         <v>73</v>
@@ -6985,13 +7138,13 @@
         <v>157</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N13" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -7397,7 +7550,7 @@
     </row>
     <row r="32" spans="5:13">
       <c r="E32" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F32" t="str">
         <f>$E$12</f>
@@ -7424,7 +7577,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="E33" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F33" t="str">
         <f>$E$13</f>
@@ -7449,52 +7602,59 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="2">
+    <row r="34" spans="1:13">
+      <c r="E34" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" t="str">
+        <f>$E$13</f>
+        <v>hmsg_template_server-13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2">
         <v>44036</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="E37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="E38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7505,10 +7665,10 @@
     </row>
     <row r="39" spans="1:13">
       <c r="E39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7518,11 +7678,11 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="E40" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>240</v>
+      <c r="E40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -7536,12 +7696,26 @@
         <v>238</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="E42" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1E4980-C27F-49F1-B5CC-F2752ACEB6C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4417F9F0-FC96-4F45-BCF9-0157D0C64012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="251">
   <si>
     <r>
       <rPr>
@@ -5069,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B107" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113:E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6738,7 +6738,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="113" spans="6:8">
+    <row r="113" spans="5:8">
+      <c r="E113" t="s">
+        <v>130</v>
+      </c>
       <c r="F113" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
@@ -6750,7 +6753,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="6:8">
+    <row r="114" spans="5:8">
+      <c r="E114" t="s">
+        <v>130</v>
+      </c>
       <c r="F114" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
@@ -6762,7 +6768,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="6:8">
+    <row r="115" spans="5:8">
+      <c r="E115" t="s">
+        <v>130</v>
+      </c>
       <c r="F115" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
@@ -6774,7 +6783,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="6:8">
+    <row r="116" spans="5:8">
+      <c r="E116" t="s">
+        <v>130</v>
+      </c>
       <c r="F116" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
@@ -6786,7 +6798,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="6:8">
+    <row r="117" spans="5:8">
+      <c r="E117" t="s">
+        <v>130</v>
+      </c>
       <c r="F117" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
@@ -6798,7 +6813,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="6:8">
+    <row r="118" spans="5:8">
+      <c r="E118" t="s">
+        <v>130</v>
+      </c>
       <c r="F118" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
@@ -6810,7 +6828,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="119" spans="6:8">
+    <row r="119" spans="5:8">
+      <c r="E119" t="s">
+        <v>130</v>
+      </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
@@ -6822,7 +6843,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="6:8">
+    <row r="120" spans="5:8">
+      <c r="E120" t="s">
+        <v>130</v>
+      </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
@@ -6844,8 +6868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="A35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4417F9F0-FC96-4F45-BCF9-0157D0C64012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C670FE4-58DB-4846-A267-6A778E1E3EA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="252">
   <si>
     <r>
       <rPr>
@@ -4115,6 +4115,10 @@
   </si>
   <si>
     <t>hmsg_template_server_line-32</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5069,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B107" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113:E120"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5719,8 +5723,8 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="E30" t="s">
-        <v>130</v>
+      <c r="E30" s="34" t="s">
+        <v>251</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C670FE4-58DB-4846-A267-6A778E1E3EA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E617FD4E-3BF5-4B87-A03D-993A2CC8C277}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="253">
   <si>
     <r>
       <rPr>
@@ -2424,9 +2424,6 @@
   </si>
   <si>
     <t>ISSUE_ASSIGNEE.WEB</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;${operatorName}将&lt;a href=${url} target=_blank&gt;${summary}&lt;/a &gt; 分配给 ${assigneeName}&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-12</t>
@@ -2989,9 +2986,6 @@
     <t>ISSUE_SOLVE.WEB</t>
   </si>
   <si>
-    <t>&lt;p&gt;经办人${assigneeName}的问题&lt;a href=${url} target=_blank&gt;${summary}&lt;/a&gt;已由${operatorName}变更为已解决状态&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>hmsg_message_template-20</t>
   </si>
   <si>
@@ -4110,15 +4104,27 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;您${action}${issueType}${issueSummary}收到一条新的${commentType}&lt;/p&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>hmsg_template_server_line-32</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;${operatorName}将&lt;a href=${url} target=_blank&gt;${summary}&lt;/a &gt; 分配给 ${assigneeName}&lt;/p&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;经办人${assigneeName}的问题&lt;a href=${url} target=_blank&gt;${summary}&lt;/a&gt;已由${operatorName}变更为已解决状态&lt;/p&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您${action}${issueType}&lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt;收到一条新的${commentType}&lt;/p&gt;</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5073,8 +5079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5189,7 +5195,7 @@
         <v>70</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N8" t="s">
         <v>72</v>
@@ -5266,8 +5272,8 @@
       <c r="H11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>84</v>
+      <c r="I11" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="N11" t="s">
         <v>72</v>
@@ -5281,16 +5287,16 @@
     </row>
     <row r="12" spans="1:16">
       <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
         <v>85</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>86</v>
       </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
         <v>69</v>
@@ -5313,19 +5319,19 @@
     </row>
     <row r="13" spans="1:16">
       <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
         <v>88</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>89</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s">
         <v>90</v>
-      </c>
-      <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" t="s">
-        <v>91</v>
       </c>
       <c r="N13" t="s">
         <v>72</v>
@@ -5339,19 +5345,19 @@
     </row>
     <row r="14" spans="1:16">
       <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
         <v>92</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
         <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
       </c>
       <c r="N14" t="s">
         <v>72</v>
@@ -5365,19 +5371,19 @@
     </row>
     <row r="15" spans="1:16">
       <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
         <v>95</v>
       </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N15" t="s">
         <v>72</v>
@@ -5391,16 +5397,16 @@
     </row>
     <row r="16" spans="1:16">
       <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
         <v>97</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>98</v>
       </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s">
         <v>69</v>
@@ -5423,19 +5429,19 @@
     </row>
     <row r="17" spans="1:16">
       <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
         <v>100</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>101</v>
       </c>
-      <c r="G17" t="s">
-        <v>102</v>
-      </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N17" t="s">
         <v>72</v>
@@ -5449,19 +5455,19 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
         <v>103</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="N18" t="s">
         <v>72</v>
@@ -5475,19 +5481,19 @@
     </row>
     <row r="19" spans="1:16">
       <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" t="s">
-        <v>107</v>
-      </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>251</v>
       </c>
       <c r="N19" t="s">
         <v>72</v>
@@ -5501,19 +5507,19 @@
     </row>
     <row r="20" spans="1:16" ht="21.95" customHeight="1">
       <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" t="s">
         <v>109</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="N20" t="s">
         <v>72</v>
@@ -5527,19 +5533,19 @@
     </row>
     <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="N21" t="s">
         <v>72</v>
@@ -5553,19 +5559,19 @@
     </row>
     <row r="22" spans="1:16" ht="18.95" customHeight="1">
       <c r="E22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N22" t="s">
         <v>72</v>
@@ -5579,19 +5585,19 @@
     </row>
     <row r="23" spans="1:16" ht="18.95" customHeight="1">
       <c r="E23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s">
         <v>72</v>
@@ -5605,22 +5611,22 @@
     </row>
     <row r="24" spans="1:16" ht="21.95" customHeight="1">
       <c r="E24" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="N24" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
@@ -5631,25 +5637,25 @@
     </row>
     <row r="25" spans="1:16" ht="21.95" customHeight="1">
       <c r="E25" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>210</v>
-      </c>
       <c r="G25" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O25" t="s">
         <v>73</v>
@@ -5660,25 +5666,25 @@
     </row>
     <row r="26" spans="1:16" ht="21.95" customHeight="1">
       <c r="E26" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N26" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O26" t="s">
         <v>73</v>
@@ -5701,1165 +5707,1165 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="H29" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="I29" t="s">
         <v>127</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="E30" s="34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="E31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="E32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F81" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F82" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F83" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G83" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F84" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F86" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F87" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G87" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F88" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F89" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F91" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F92" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F93" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F94" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G94" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G101" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G102" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G103" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G104" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G105" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G107" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H107" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G108" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H108" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H109" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G110" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H110" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H111" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H112" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G113" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G114" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H114" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G115" t="s">
-        <v>218</v>
+      <c r="G115" s="34" t="s">
+        <v>249</v>
       </c>
       <c r="H115" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H116" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="5:8">
       <c r="E117" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G117" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H117" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="5:8">
       <c r="E118" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H118" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="5:8">
       <c r="E119" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G119" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H119" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="5:8">
       <c r="E120" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G120" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H120" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6872,8 +6878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="A35:G35"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6926,48 +6932,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" t="s">
         <v>148</v>
-      </c>
-      <c r="I7" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" t="s">
-        <v>150</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M7" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" t="s">
         <v>151</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>152</v>
-      </c>
-      <c r="N7" t="s">
-        <v>153</v>
-      </c>
-      <c r="O7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -6976,33 +6982,33 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -7011,7 +7017,7 @@
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -7023,21 +7029,21 @@
         <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -7046,33 +7052,33 @@
         <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
         <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="E11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -7081,33 +7087,33 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
         <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -7116,33 +7122,33 @@
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
         <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N12" t="s">
         <v>73</v>
       </c>
       <c r="O12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="E13" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -7151,28 +7157,28 @@
         <v>74</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K13" t="s">
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N13" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -7183,34 +7189,34 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" t="s">
         <v>176</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>177</v>
-      </c>
-      <c r="K15" t="s">
-        <v>178</v>
-      </c>
-      <c r="L15" t="s">
-        <v>179</v>
       </c>
       <c r="M15" t="s">
         <v>64</v>
@@ -7218,23 +7224,23 @@
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
         <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
@@ -7245,17 +7251,17 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L17" t="s">
         <v>73</v>
@@ -7266,17 +7272,17 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
@@ -7287,17 +7293,17 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F19" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s">
         <v>73</v>
@@ -7308,14 +7314,14 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
@@ -7324,7 +7330,7 @@
         <v>73</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -7335,14 +7341,14 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
@@ -7356,14 +7362,14 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H22" t="s">
         <v>76</v>
@@ -7377,14 +7383,14 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F23" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H23" t="s">
         <v>67</v>
@@ -7398,23 +7404,23 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I24" t="s">
         <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
@@ -7425,17 +7431,17 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s">
         <v>73</v>
@@ -7446,17 +7452,17 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s">
         <v>73</v>
@@ -7467,17 +7473,17 @@
     </row>
     <row r="27" spans="5:13" ht="15" customHeight="1">
       <c r="E27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F27" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s">
         <v>73</v>
@@ -7488,23 +7494,23 @@
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ref="F28:F30" si="0">$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
         <v>73</v>
       </c>
       <c r="K28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s">
         <v>73</v>
@@ -7515,17 +7521,17 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -7536,17 +7542,17 @@
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -7557,17 +7563,17 @@
     </row>
     <row r="31" spans="5:13">
       <c r="E31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F31" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L31" t="s">
         <v>73</v>
@@ -7578,23 +7584,23 @@
     </row>
     <row r="32" spans="5:13">
       <c r="E32" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F32" t="str">
         <f>$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I32" t="s">
         <v>73</v>
       </c>
       <c r="K32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s">
         <v>73</v>
@@ -7605,23 +7611,23 @@
     </row>
     <row r="33" spans="1:13">
       <c r="E33" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F33" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I33" t="s">
         <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
@@ -7632,17 +7638,17 @@
     </row>
     <row r="34" spans="1:13">
       <c r="E34" s="34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F34" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L34" t="s">
         <v>73</v>
@@ -7659,30 +7665,30 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="H37" t="s">
         <v>201</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H37" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="E38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7693,10 +7699,10 @@
     </row>
     <row r="39" spans="1:13">
       <c r="E39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7707,10 +7713,10 @@
     </row>
     <row r="40" spans="1:13">
       <c r="E40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -7721,10 +7727,10 @@
     </row>
     <row r="41" spans="1:13">
       <c r="E41" s="34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -7735,10 +7741,10 @@
     </row>
     <row r="42" spans="1:13">
       <c r="E42" s="34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G42">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E617FD4E-3BF5-4B87-A03D-993A2CC8C277}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FD0EBC-8BDC-4A26-AB71-03EB12BF8BC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="255">
   <si>
     <r>
       <rPr>
@@ -4125,6 +4125,14 @@
   </si>
   <si>
     <t>&lt;p&gt;您${action}${issueType}&lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt;收到一条新的${commentType}&lt;/p&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作列表站内信链接</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5077,10 +5085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="E103" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6868,6 +6876,21 @@
         <v>240</v>
       </c>
     </row>
+    <row r="121" spans="5:8">
+      <c r="E121" t="s">
+        <v>128</v>
+      </c>
+      <c r="F121" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G121" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H121" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6878,8 +6901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FD0EBC-8BDC-4A26-AB71-03EB12BF8BC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA633762-7B94-4A75-B3B2-C4A690F483F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4124,15 +4124,15 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;您${action}${issueType}&lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt;收到一条新的${commentType}&lt;/p&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>工作列表站内信链接</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您${action}${issueType} &lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt; 收到一条新的${commentType}&lt;/p&gt;</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5087,8 +5087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E103" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5686,7 +5686,7 @@
         <v>245</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K26" s="34" t="s">
         <v>228</v>
@@ -6885,10 +6885,10 @@
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G121" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="H121" s="34" t="s">
         <v>253</v>
-      </c>
-      <c r="H121" s="34" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA633762-7B94-4A75-B3B2-C4A690F483F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,19 +17,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="244">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -45,7 +38,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -55,7 +47,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -68,7 +59,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -78,7 +68,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -88,7 +77,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,7 +86,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -108,7 +95,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -118,7 +104,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -128,7 +113,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -160,7 +144,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -170,7 +153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -180,7 +162,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -190,7 +171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -200,7 +180,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -210,7 +189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -223,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -234,7 +211,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -245,7 +221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +231,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -267,7 +241,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -279,7 +252,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -289,7 +261,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -301,7 +272,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -311,7 +281,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -323,7 +292,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -333,7 +301,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -343,7 +310,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -355,7 +321,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -365,7 +330,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -375,7 +339,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -385,7 +348,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -395,7 +357,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -405,7 +366,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -415,7 +375,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -425,7 +384,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -435,7 +393,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -445,7 +402,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -475,7 +431,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -485,7 +440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -495,7 +449,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -505,7 +458,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -515,7 +467,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -525,7 +476,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -535,7 +485,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -545,7 +494,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -557,7 +505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -567,7 +514,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -577,7 +523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -587,7 +532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -597,7 +541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -607,7 +550,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -618,7 +560,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -628,7 +569,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -638,7 +578,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -648,7 +587,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -659,7 +597,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -669,7 +606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -679,7 +615,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -691,7 +626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -701,7 +635,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -711,7 +644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -721,7 +653,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -731,7 +662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -746,7 +676,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -756,7 +685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -766,7 +694,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -776,7 +703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -786,7 +712,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -796,7 +721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -806,7 +730,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -816,7 +739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -826,7 +748,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -836,7 +757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -848,7 +768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -858,7 +777,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -868,7 +786,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -879,7 +796,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -890,7 +806,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -901,7 +816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -912,7 +826,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -922,7 +835,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -932,7 +844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -942,7 +853,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -952,7 +862,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -967,7 +876,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -977,7 +885,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -987,7 +894,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -997,7 +903,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -1007,7 +912,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1018,7 +922,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1028,7 +931,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1039,7 +941,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1049,7 +950,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1060,7 +960,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1070,7 +969,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1082,7 +980,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1092,7 +989,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1103,7 +999,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1113,7 +1008,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1130,7 +1024,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1140,7 +1033,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1152,7 +1044,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1162,7 +1053,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1174,7 +1064,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1184,7 +1073,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1194,7 +1082,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1204,7 +1091,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1216,7 +1102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1226,7 +1111,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1236,7 +1120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1249,7 +1132,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1259,7 +1141,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1269,7 +1150,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1279,7 +1159,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1289,7 +1168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1299,7 +1177,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1309,7 +1186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1324,7 +1200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1334,7 +1209,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1344,7 +1218,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1354,7 +1227,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1364,7 +1236,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1374,7 +1245,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1384,7 +1254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1394,7 +1263,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1404,7 +1272,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1420,7 +1287,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1430,7 +1296,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1440,7 +1305,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1450,7 +1314,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1466,7 +1329,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1476,7 +1338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1486,7 +1347,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1496,7 +1356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1511,7 +1370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1521,7 +1379,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1531,7 +1388,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1541,7 +1397,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1551,7 +1406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1561,7 +1415,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1572,7 +1425,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1582,7 +1434,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1597,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1607,7 +1457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1617,7 +1466,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1627,7 +1475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1637,7 +1484,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1647,7 +1493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1658,7 +1503,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1668,7 +1512,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1680,7 +1523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1691,7 +1533,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1701,7 +1542,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1713,7 +1553,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1723,7 +1562,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1733,7 +1571,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1743,7 +1580,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1753,7 +1589,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1763,7 +1598,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1773,7 +1607,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1784,7 +1617,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1794,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1804,7 +1635,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1814,7 +1644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1824,7 +1653,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1834,7 +1662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1844,7 +1671,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1855,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1865,7 +1690,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1875,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1885,7 +1708,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1895,7 +1717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1905,7 +1726,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1915,7 +1735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1925,7 +1744,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1936,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1948,7 +1765,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1959,7 +1775,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1969,7 +1784,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1981,7 +1795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1991,7 +1804,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2001,7 +1813,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -2013,7 +1824,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -2023,7 +1833,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2033,7 +1842,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -2043,7 +1851,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -2054,7 +1861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2426,6 +2232,9 @@
     <t>ISSUE_ASSIGNEE.WEB</t>
   </si>
   <si>
+    <t>&lt;p&gt;${operatorName}将&lt;a href=${url} target=_blank&gt;${summary}&lt;/a &gt; 分配给 ${assigneeName}&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>hmsg_message_template-12</t>
   </si>
   <si>
@@ -2723,6 +2532,9 @@
   </si>
   <si>
     <t>问题已解决</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href=${url} target=_blank&gt;${summary}&lt;/a&gt; 已经由 ${assigneeName} 解决&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-18</t>
@@ -2986,6 +2798,9 @@
     <t>ISSUE_SOLVE.WEB</t>
   </si>
   <si>
+    <t>&lt;p&gt;经办人${assigneeName}的问题&lt;a href=${url} target=_blank&gt;${summary}&lt;/a&gt;已由${operatorName}变更为已解决状态&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>hmsg_message_template-20</t>
   </si>
   <si>
@@ -3246,6 +3061,12 @@
     <t>ISSUE_CHANGE_STATUS_JSON</t>
   </si>
   <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}"}}</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-24</t>
+  </si>
+  <si>
     <t>PROJECT_REPORT.EMAIL</t>
   </si>
   <si>
@@ -3469,380 +3290,13 @@
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>消息模板参数</t>
-  </si>
-  <si>
-    <t>hmsg_template_arg</t>
-  </si>
-  <si>
-    <t>*arg_id</t>
-  </si>
-  <si>
-    <t>#template_id</t>
-  </si>
-  <si>
-    <t>#arg_name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>assigneeName</t>
-  </si>
-  <si>
-    <t>createdAt</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>loginName</t>
-  </si>
-  <si>
-    <t>objectKind</t>
-  </si>
-  <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>operatorName</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>发送配置</t>
-  </si>
-  <si>
-    <t>hmsg_template_server</t>
-  </si>
-  <si>
-    <t>*temp_server_id</t>
-  </si>
-  <si>
-    <t>#tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>#tenant_id:en_US</t>
-  </si>
-  <si>
-    <t>#message_code</t>
-  </si>
-  <si>
-    <t>message_name:zh_CN</t>
-  </si>
-  <si>
-    <t>message_name:en_US</t>
-  </si>
-  <si>
-    <t>category_code</t>
-  </si>
-  <si>
-    <t>subcategory_code</t>
-  </si>
-  <si>
-    <t>receive_config_flag</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-8</t>
-  </si>
-  <si>
-    <t>ISSUECREATE</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>问题创建，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-9</t>
-  </si>
-  <si>
-    <t>ISSUEASSIGNEE</t>
-  </si>
-  <si>
-    <t>问题分配，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-10</t>
-  </si>
-  <si>
-    <t>ISSUESOLVE</t>
-  </si>
-  <si>
-    <t>问题已解决，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-11</t>
-  </si>
-  <si>
-    <t>ISSUECHANGESTATUS</t>
-  </si>
-  <si>
-    <t>问题状态变更，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>PROJECT_REPORT</t>
-  </si>
-  <si>
-    <t>PRO-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>发送配置(其它)</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line</t>
-  </si>
-  <si>
-    <t>*temp_server_line_id</t>
-  </si>
-  <si>
-    <t>#temp_server_id</t>
-  </si>
-  <si>
-    <t>#type_code</t>
-  </si>
-  <si>
-    <t>server_id</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>server_code</t>
-  </si>
-  <si>
-    <t>try_times</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-14</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>CHOERODON-EMAIL</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-15</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-16</t>
-  </si>
-  <si>
-    <t>WEB_HOOK</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-17</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-18</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-19</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-20</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-21</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-22</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-23</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-24</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-25</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-26</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-27</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-28</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-29</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#edit</t>
-  </si>
-  <si>
-    <t>#TENANT_ID</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-31</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-32</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-33</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-24</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>hmsg_message_template-25</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_CHANGE_STATUS_JSON</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ISSUE_COMMENT_NOTICE.EMAIL</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}"}}</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href=${url} target=_blank&gt;${summary}&lt;/a&gt; 已经由 ${assigneeName} 解决&lt;/p&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;${assigneeName} 创建了问题 &lt;a href=${url} target=_blank&gt;${summary}&lt;/a &gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>issue-status-change-notice</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>反馈说明</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>行为</t>
-  </si>
-  <si>
-    <t>commentUser</t>
-  </si>
-  <si>
-    <t>评论人</t>
-  </si>
-  <si>
-    <t>issueSummary</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentType</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作列表链接</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题概要</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE-COMMENT-NOTICE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_template_server-12</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_template_server-13</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_COMMENT</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题评论</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-30</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-31</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_message_setting_config-35</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_message_setting_config-34</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUECHANGESTATUS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choerodon敏捷通知-问题新评论</t>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -4069,78 +3523,361 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_message_template-26</t>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT_NOTICE.WEB</t>
+  </si>
+  <si>
+    <t>问题新评论</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您${action}${issueType} &lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt; 收到一条新的${commentType}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>消息模板参数</t>
+  </si>
+  <si>
+    <t>hmsg_template_arg</t>
+  </si>
+  <si>
+    <t>*arg_id</t>
+  </si>
+  <si>
+    <t>#template_id</t>
+  </si>
+  <si>
+    <t>#arg_name</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>assigneeName</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>loginName</t>
+  </si>
+  <si>
+    <t>objectKind</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>operatorName</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>issueSummary</t>
+  </si>
+  <si>
+    <t>问题概要</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>工作列表链接</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>反馈说明</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>行为</t>
+  </si>
+  <si>
+    <t>commentUser</t>
+  </si>
+  <si>
+    <t>评论人</t>
+  </si>
+  <si>
+    <t>commentType</t>
+  </si>
+  <si>
+    <t>评论类型</t>
   </si>
   <si>
     <t>issueType</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>问题类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_message_template-26</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_COMMENT_NOTICE.WEB</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choerodon敏捷通知-问题已解决</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choerodon敏捷通知-问题新评论</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题新评论</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;经办人${assigneeName}的问题 ${summary} 已由${operatorName}变更为${status}状态&lt;/p&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作列表站内信链接</t>
+  </si>
+  <si>
+    <t>发送配置</t>
+  </si>
+  <si>
+    <t>hmsg_template_server</t>
+  </si>
+  <si>
+    <t>*temp_server_id</t>
+  </si>
+  <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>#message_code</t>
+  </si>
+  <si>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
+  </si>
+  <si>
+    <t>category_code</t>
+  </si>
+  <si>
+    <t>subcategory_code</t>
+  </si>
+  <si>
+    <t>receive_config_flag</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-8</t>
+  </si>
+  <si>
+    <t>ISSUECREATE</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
+  </si>
+  <si>
+    <t>问题创建，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-9</t>
+  </si>
+  <si>
+    <t>ISSUEASSIGNEE</t>
+  </si>
+  <si>
+    <t>问题分配，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-10</t>
+  </si>
+  <si>
+    <t>ISSUESOLVE</t>
+  </si>
+  <si>
+    <t>问题已解决，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-11</t>
+  </si>
+  <si>
+    <t>ISSUECHANGESTATUS</t>
+  </si>
+  <si>
+    <t>问题状态变更，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-12</t>
+  </si>
+  <si>
+    <t>PROJECT_REPORT</t>
+  </si>
+  <si>
+    <t>PRO-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-13</t>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT</t>
+  </si>
+  <si>
+    <t>问题评论</t>
+  </si>
+  <si>
+    <t>ISSUE-COMMENT-NOTICE</t>
+  </si>
+  <si>
+    <t>发送配置(其它)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line</t>
+  </si>
+  <si>
+    <t>*temp_server_line_id</t>
+  </si>
+  <si>
+    <t>#temp_server_id</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>server_id</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>server_code</t>
+  </si>
+  <si>
+    <t>try_times</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-14</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-15</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-16</t>
+  </si>
+  <si>
+    <t>WEB_HOOK</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-17</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-18</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-19</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-20</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-21</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-22</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-23</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-24</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-25</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-26</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-27</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-28</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-29</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-30</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-31</t>
   </si>
   <si>
     <t>hmsg_template_server_line-32</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;${operatorName}将&lt;a href=${url} target=_blank&gt;${summary}&lt;/a &gt; 分配给 ${assigneeName}&lt;/p&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;经办人${assigneeName}的问题&lt;a href=${url} target=_blank&gt;${summary}&lt;/a&gt;已由${operatorName}变更为已解决状态&lt;/p&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作列表站内信链接</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您${action}${issueType} &lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt; 收到一条新的${commentType}&lt;/p&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-31</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-32</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-33</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-34</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4151,37 +3888,42 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4189,42 +3931,187 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4244,45 +4131,28 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4313,8 +4183,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4326,28 +4382,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -4372,12 +4412,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -4386,13 +4435,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4407,6 +4454,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -4415,97 +4471,386 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4578,9 +4923,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4838,105 +5180,107 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="12" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="C1" s="37" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="36" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="39" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="12" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="14" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="31" t="s">
@@ -4946,169 +5290,170 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="18" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="14" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="19" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="21" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="21" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="21" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="21" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="23" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="15" t="s">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="24" t="s">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="51.109375" customWidth="1"/>
-    <col min="10" max="10" width="152.5546875" customWidth="1"/>
-    <col min="11" max="11" width="112.88671875" customWidth="1"/>
-    <col min="13" max="13" width="73.6640625" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" customWidth="1"/>
-    <col min="15" max="15" width="29.44140625" customWidth="1"/>
-    <col min="16" max="16" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="29.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="44.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="29.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="24.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="51.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="152.555555555556" customWidth="1"/>
+    <col min="11" max="11" width="112.888888888889" customWidth="1"/>
+    <col min="13" max="13" width="73.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="23.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="29.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="29.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5122,14 +5467,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5146,10 +5491,10 @@
       <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -5173,17 +5518,17 @@
       <c r="M7" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="5:16">
       <c r="E8" t="s">
         <v>66</v>
       </c>
@@ -5202,8 +5547,8 @@
       <c r="J8" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="34" t="s">
-        <v>214</v>
+      <c r="K8" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="N8" t="s">
         <v>72</v>
@@ -5215,7 +5560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="5:16">
       <c r="E9" t="s">
         <v>75</v>
       </c>
@@ -5241,7 +5586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42" customHeight="1">
+    <row r="10" ht="42" customHeight="1" spans="5:16">
       <c r="E10" t="s">
         <v>79</v>
       </c>
@@ -5254,7 +5599,7 @@
       <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>81</v>
       </c>
       <c r="N10" t="s">
@@ -5267,7 +5612,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="5:16">
       <c r="E11" t="s">
         <v>82</v>
       </c>
@@ -5280,8 +5625,8 @@
       <c r="H11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>250</v>
+      <c r="I11" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="N11" t="s">
         <v>72</v>
@@ -5293,18 +5638,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="5:16">
       <c r="E12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
         <v>69</v>
@@ -5325,21 +5670,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="5:16">
       <c r="E13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
         <v>72</v>
@@ -5351,21 +5696,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="5:16">
       <c r="E14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N14" t="s">
         <v>72</v>
@@ -5377,21 +5722,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="5:16">
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>212</v>
+        <v>90</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="N15" t="s">
         <v>72</v>
@@ -5403,18 +5748,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="5:16">
       <c r="E16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
         <v>69</v>
@@ -5435,21 +5780,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="5:16">
       <c r="E17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>211</v>
+        <v>102</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="N17" t="s">
         <v>72</v>
@@ -5461,21 +5806,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="5:16">
       <c r="E18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="N18" t="s">
         <v>72</v>
@@ -5487,21 +5832,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="5:16">
       <c r="E19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>251</v>
+        <v>102</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="N19" t="s">
         <v>72</v>
@@ -5513,21 +5858,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="21.95" customHeight="1">
+    <row r="20" ht="21.95" customHeight="1" spans="5:16">
       <c r="E20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="N20" t="s">
         <v>72</v>
@@ -5539,21 +5884,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="5:16">
       <c r="E21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
         <v>112</v>
       </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
       <c r="H21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="N21" t="s">
         <v>72</v>
@@ -5565,21 +5910,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.95" customHeight="1">
+    <row r="22" ht="18.95" customHeight="1" spans="5:16">
       <c r="E22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>246</v>
+        <v>112</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="N22" t="s">
         <v>72</v>
@@ -5591,21 +5936,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.95" customHeight="1">
+    <row r="23" ht="18.95" customHeight="1" spans="5:16">
       <c r="E23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>207</v>
+        <v>119</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>210</v>
+        <v>112</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="N23" t="s">
         <v>72</v>
@@ -5617,24 +5962,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="21.95" customHeight="1">
-      <c r="E24" s="34" t="s">
-        <v>205</v>
+    <row r="24" ht="21.95" customHeight="1" spans="5:16">
+      <c r="E24" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N24" s="34" t="s">
-        <v>209</v>
+        <v>124</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
@@ -5643,27 +5988,27 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="21.95" customHeight="1">
-      <c r="E25" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="N25" s="34" t="s">
-        <v>209</v>
+    <row r="25" ht="21.95" customHeight="1" spans="5:16">
+      <c r="E25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="O25" t="s">
         <v>73</v>
@@ -5672,27 +6017,25 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="21.95" customHeight="1">
-      <c r="E26" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="N26" s="34" t="s">
-        <v>209</v>
+    <row r="26" ht="21.95" customHeight="1" spans="5:16">
+      <c r="E26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="N26" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="O26" t="s">
         <v>73</v>
@@ -5701,1204 +6044,1205 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="21.95" customHeight="1">
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" ht="21.95" customHeight="1">
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="2">
+    <row r="27" ht="21.95" customHeight="1" spans="9:9">
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" ht="21.95" customHeight="1" spans="9:9">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7">
         <v>44036</v>
       </c>
       <c r="B29" t="s">
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="E30" s="34" t="s">
-        <v>248</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G38" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G47" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G56" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G57" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G59" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G63" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G66" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G67" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G68" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G69" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G70" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G72" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G74" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G75" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G76" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G77" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G78" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G79" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G80" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F81" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F82" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G82" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F83" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G83" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F84" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G84" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F86" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F87" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G87" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F88" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F89" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G89" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F91" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F92" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F93" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G93" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F94" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G94" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="5:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="5:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="5:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="5:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="5:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="5:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="5:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G104" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G105" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H105" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G106" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="H106" s="34" t="s">
-        <v>227</v>
+      <c r="G106" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G107" t="s">
-        <v>216</v>
-      </c>
-      <c r="H107" s="34" t="s">
-        <v>226</v>
+        <v>157</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G108" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="H108" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G109" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="H109" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G110" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="H110" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G111" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="H111" s="34" t="s">
-        <v>225</v>
+      <c r="G111" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G112" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="H112" s="34" t="s">
-        <v>240</v>
+      <c r="G112" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G113" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H113" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G114" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="H114" s="34" t="s">
-        <v>227</v>
+      <c r="G114" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G115" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="H115" s="34" t="s">
-        <v>226</v>
+      <c r="G115" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G116" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="H116" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="5:8">
       <c r="E117" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G117" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="H117" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="5:8">
       <c r="E118" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G118" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="H118" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="5:8">
       <c r="E119" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G119" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="H119" s="34" t="s">
-        <v>225</v>
+      <c r="G119" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="5:8">
       <c r="E120" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G120" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="H120" s="34" t="s">
-        <v>240</v>
+      <c r="G120" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="5:8">
       <c r="E121" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G121" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="H121" s="34" t="s">
-        <v>253</v>
+      <c r="G121" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -6907,22 +7251,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="29.88671875" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="15.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="34.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="34.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="33.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="29.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="20.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="29.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="22.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="17.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6936,14 +7280,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6955,48 +7299,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>146</v>
+        <v>171</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="I7" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="J7" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="M7" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="N7" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="O7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -7005,33 +7349,33 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>213</v>
+        <v>184</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -7040,7 +7384,7 @@
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -7052,21 +7396,21 @@
         <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="M9" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -7075,33 +7419,33 @@
         <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
         <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="M10" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="5:15">
       <c r="E11" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -7110,33 +7454,33 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
         <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="M11" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="34" t="s">
-        <v>229</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -7145,33 +7489,33 @@
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
         <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="M12" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="N12" t="s">
         <v>73</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="34" t="s">
-        <v>230</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
+      <c r="E13" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -7179,32 +7523,32 @@
       <c r="G13" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>232</v>
+      <c r="H13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="K13" t="s">
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>155</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>228</v>
+        <v>184</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="N13" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O13" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -7212,58 +7556,58 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>173</v>
+        <v>204</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="M15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
         <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
@@ -7274,17 +7618,17 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s">
         <v>73</v>
@@ -7295,17 +7639,17 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
@@ -7316,17 +7660,17 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="F19" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s">
         <v>73</v>
@@ -7337,14 +7681,14 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
@@ -7353,7 +7697,7 @@
         <v>73</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -7364,14 +7708,14 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
@@ -7385,14 +7729,14 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="H22" t="s">
         <v>76</v>
@@ -7406,14 +7750,14 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F23" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G23" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="H23" t="s">
         <v>67</v>
@@ -7427,23 +7771,23 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I24" t="s">
         <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
@@ -7454,17 +7798,17 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s">
         <v>73</v>
@@ -7475,17 +7819,17 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s">
         <v>73</v>
@@ -7494,19 +7838,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:13" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="5:13">
       <c r="E27" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="F27" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s">
         <v>73</v>
@@ -7517,23 +7861,23 @@
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ref="F28:F30" si="0">$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I28" t="s">
         <v>73</v>
       </c>
       <c r="K28" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s">
         <v>73</v>
@@ -7544,17 +7888,17 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="H29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -7565,17 +7909,17 @@
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -7586,17 +7930,17 @@
     </row>
     <row r="31" spans="5:13">
       <c r="E31" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="F31" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L31" t="s">
         <v>73</v>
@@ -7606,24 +7950,24 @@
       </c>
     </row>
     <row r="32" spans="5:13">
-      <c r="E32" s="34" t="s">
-        <v>233</v>
+      <c r="E32" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="F32" t="str">
         <f>$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
         <v>73</v>
       </c>
       <c r="K32" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s">
         <v>73</v>
@@ -7632,25 +7976,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="E33" s="34" t="s">
-        <v>234</v>
+    <row r="33" spans="5:13">
+      <c r="E33" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="F33" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="I33" t="s">
         <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
@@ -7659,19 +8003,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="E34" s="34" t="s">
-        <v>247</v>
+    <row r="34" spans="5:13">
+      <c r="E34" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="F34" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G34" t="s">
-        <v>182</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>242</v>
+        <v>216</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="L34" t="s">
         <v>73</v>
@@ -7680,38 +8024,38 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2">
+    <row r="37" spans="1:8">
+      <c r="A37" s="7">
         <v>44036</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>200</v>
+        <v>235</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7720,12 +8064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7734,12 +8078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -7748,12 +8092,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="E41" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>237</v>
+    <row r="41" spans="5:8">
+      <c r="E41" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -7762,12 +8106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="E42" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>231</v>
+    <row r="42" spans="5:8">
+      <c r="E42" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -7777,8 +8121,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="244">
   <si>
     <r>
       <rPr>
@@ -3874,10 +3874,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3906,12 +3906,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3958,8 +3952,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3974,52 +4036,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4033,46 +4050,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4094,6 +4074,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -4101,9 +4096,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4185,7 +4179,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4197,37 +4281,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4245,13 +4317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4263,85 +4341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4353,19 +4353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4487,21 +4481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4522,6 +4501,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4537,11 +4531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4555,182 +4555,173 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4739,46 +4730,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4791,7 +4781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5194,10 +5184,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -5211,79 +5201,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="16"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -5291,56 +5281,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5350,64 +5340,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5432,8 +5422,8 @@
   <sheetPr/>
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J12" sqref="$A12:$XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="J14" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5923,7 +5913,7 @@
       <c r="H22" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>116</v>
       </c>
       <c r="N22" t="s">
@@ -5949,7 +5939,7 @@
       <c r="H23" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>121</v>
       </c>
       <c r="N23" t="s">
@@ -6001,8 +5991,11 @@
       <c r="H25" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>129</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>71</v>
@@ -6030,7 +6023,7 @@
       <c r="H26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="8" t="s">
         <v>133</v>
       </c>
       <c r="K26" s="5"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E27E6-79AE-4EF1-A2AE-DB2C22CFE213}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="609" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -29,6 +35,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -47,6 +54,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -59,6 +67,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -77,6 +86,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -95,6 +105,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -113,6 +124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -144,6 +156,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -162,6 +175,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -180,6 +194,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -201,6 +216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -221,6 +237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -241,6 +258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -261,6 +279,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -281,6 +300,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -292,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -310,6 +331,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -321,6 +343,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -339,6 +362,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -357,6 +381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -375,6 +400,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -393,6 +419,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -440,6 +467,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -458,6 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -476,6 +505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -494,6 +524,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -505,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -523,6 +555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -541,6 +574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -560,6 +594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -578,6 +613,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -597,6 +633,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -615,6 +652,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -626,6 +664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -644,6 +683,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -662,6 +702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -685,6 +726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -703,6 +745,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -721,6 +764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -739,6 +783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -757,6 +802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -768,6 +814,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -786,6 +833,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -796,6 +844,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -816,6 +865,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -826,6 +876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -844,6 +895,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -862,6 +914,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -885,6 +938,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -903,6 +957,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -922,6 +977,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -941,6 +997,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -960,6 +1017,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -980,6 +1038,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -999,6 +1058,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1033,6 +1093,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1053,6 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1064,6 +1126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1082,6 +1145,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1102,6 +1166,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1120,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1132,6 +1198,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1150,6 +1217,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1168,6 +1236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1186,6 +1255,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1200,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1218,6 +1289,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1236,6 +1308,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1254,6 +1327,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1272,6 +1346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1287,6 +1362,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1296,6 +1372,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1314,6 +1391,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1329,6 +1407,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1338,6 +1417,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1356,6 +1436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1370,6 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1388,6 +1470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1406,6 +1489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1425,6 +1509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1448,6 +1533,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1466,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1484,6 +1571,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1503,6 +1591,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1523,6 +1612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1533,6 +1623,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1542,6 +1633,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1553,6 +1645,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1571,6 +1664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1589,6 +1683,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1607,6 +1702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1626,6 +1722,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1644,6 +1741,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1662,6 +1760,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1681,6 +1780,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1699,6 +1799,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1717,6 +1818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1735,6 +1837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1754,6 +1857,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1765,6 +1869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1775,6 +1880,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1784,6 +1890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1795,6 +1902,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1813,6 +1921,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1824,6 +1933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1842,6 +1952,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1861,6 +1972,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -3534,9 +3646,6 @@
     <t>问题新评论</t>
   </si>
   <si>
-    <t>&lt;p&gt;您${action}${issueType} &lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt; 收到一条新的${commentType}&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>消息模板参数</t>
   </si>
   <si>
@@ -3865,19 +3974,19 @@
   </si>
   <si>
     <t>notify_message_setting_config-35</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您${action}${issueType} &lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt; 收到一条新的${commentType}。${commentType}内容如下：&lt;/p&gt;
+&lt;p&gt;${commentUser}：&lt;/p&gt;
+&lt;p&gt;${comment}&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3888,31 +3997,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3952,157 +4061,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -4131,12 +4089,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4145,8 +4105,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4177,194 +4172,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4465,254 +4274,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4731,20 +4298,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4778,9 +4333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4788,59 +4340,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4913,6 +4436,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5170,280 +4696,277 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="32" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="36" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="36" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="36" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="36" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="33" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J14" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="E104" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="29.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="44.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="29.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="24.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="51.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="152.555555555556" customWidth="1"/>
-    <col min="11" max="11" width="112.888888888889" customWidth="1"/>
-    <col min="13" max="13" width="73.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="23.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="29.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="29.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="51.109375" customWidth="1"/>
+    <col min="10" max="10" width="152.5546875" customWidth="1"/>
+    <col min="11" max="11" width="112.88671875" customWidth="1"/>
+    <col min="13" max="13" width="73.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" customWidth="1"/>
+    <col min="16" max="16" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5457,7 +4980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:16">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5518,7 +5041,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="5:16">
+    <row r="8" spans="1:16">
       <c r="E8" t="s">
         <v>66</v>
       </c>
@@ -5550,7 +5073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="5:16">
+    <row r="9" spans="1:16">
       <c r="E9" t="s">
         <v>75</v>
       </c>
@@ -5576,7 +5099,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="5:16">
+    <row r="10" spans="1:16" ht="42" customHeight="1">
       <c r="E10" t="s">
         <v>79</v>
       </c>
@@ -5602,7 +5125,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="5:16">
+    <row r="11" spans="1:16">
       <c r="E11" t="s">
         <v>82</v>
       </c>
@@ -5628,7 +5151,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="5:16">
+    <row r="12" spans="1:16">
       <c r="E12" t="s">
         <v>85</v>
       </c>
@@ -5660,7 +5183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="5:16">
+    <row r="13" spans="1:16">
       <c r="E13" t="s">
         <v>88</v>
       </c>
@@ -5686,7 +5209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="5:16">
+    <row r="14" spans="1:16">
       <c r="E14" t="s">
         <v>92</v>
       </c>
@@ -5712,7 +5235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="5:16">
+    <row r="15" spans="1:16">
       <c r="E15" t="s">
         <v>95</v>
       </c>
@@ -5738,7 +5261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="5:16">
+    <row r="16" spans="1:16">
       <c r="E16" t="s">
         <v>97</v>
       </c>
@@ -5770,7 +5293,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="1:16">
       <c r="E17" t="s">
         <v>100</v>
       </c>
@@ -5796,7 +5319,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="5:16">
+    <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="E18" t="s">
         <v>104</v>
       </c>
@@ -5822,7 +5345,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="1:16">
       <c r="E19" t="s">
         <v>107</v>
       </c>
@@ -5848,7 +5371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" ht="21.95" customHeight="1" spans="5:16">
+    <row r="20" spans="1:16" ht="21.95" customHeight="1">
       <c r="E20" t="s">
         <v>110</v>
       </c>
@@ -5874,7 +5397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="5:16">
+    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="E21" t="s">
         <v>114</v>
       </c>
@@ -5900,7 +5423,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" ht="18.95" customHeight="1" spans="5:16">
+    <row r="22" spans="1:16" ht="18.95" customHeight="1">
       <c r="E22" t="s">
         <v>117</v>
       </c>
@@ -5926,7 +5449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" ht="18.95" customHeight="1" spans="5:16">
+    <row r="23" spans="1:16" ht="18.95" customHeight="1">
       <c r="E23" t="s">
         <v>119</v>
       </c>
@@ -5952,7 +5475,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="21.95" customHeight="1" spans="5:16">
+    <row r="24" spans="1:16" ht="21.95" customHeight="1">
       <c r="E24" s="5" t="s">
         <v>122</v>
       </c>
@@ -5978,7 +5501,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" ht="21.95" customHeight="1" spans="5:16">
+    <row r="25" spans="1:16" ht="21.95" customHeight="1">
       <c r="E25" s="5" t="s">
         <v>126</v>
       </c>
@@ -6010,7 +5533,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" ht="21.95" customHeight="1" spans="5:16">
+    <row r="26" spans="1:16" ht="21.95" customHeight="1">
       <c r="E26" s="5" t="s">
         <v>130</v>
       </c>
@@ -6023,8 +5546,8 @@
       <c r="H26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>133</v>
+      <c r="I26" s="39" t="s">
+        <v>243</v>
       </c>
       <c r="K26" s="5"/>
       <c r="N26" s="5" t="s">
@@ -6037,13 +5560,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" ht="21.95" customHeight="1" spans="9:9">
+    <row r="27" spans="1:16" ht="21.95" customHeight="1">
       <c r="I27" s="8"/>
     </row>
-    <row r="28" ht="21.95" customHeight="1" spans="9:9">
+    <row r="28" spans="1:16" ht="21.95" customHeight="1">
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:16">
       <c r="A29" s="7">
         <v>44036</v>
       </c>
@@ -6051,1191 +5574,1190 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" t="s">
         <v>138</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>139</v>
       </c>
-      <c r="I29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7">
+    </row>
+    <row r="30" spans="1:16">
       <c r="E30" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="E31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="E32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F81" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F82" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F83" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F84" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F86" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F87" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F88" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F89" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F91" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F92" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F93" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F94" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="5:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="5:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="5:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="5:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="101" spans="5:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="5:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="5:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G103" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="5:7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G106" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H106" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G107" t="s">
+        <v>156</v>
+      </c>
+      <c r="H107" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G108" t="s">
+        <v>158</v>
+      </c>
+      <c r="H108" t="s">
         <v>159</v>
-      </c>
-      <c r="H108" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G109" t="s">
+        <v>160</v>
+      </c>
+      <c r="H109" t="s">
         <v>161</v>
-      </c>
-      <c r="H109" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G110" t="s">
+        <v>162</v>
+      </c>
+      <c r="H110" t="s">
         <v>163</v>
-      </c>
-      <c r="H110" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G111" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G112" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G114" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G115" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G116" t="s">
+        <v>158</v>
+      </c>
+      <c r="H116" t="s">
         <v>159</v>
-      </c>
-      <c r="H116" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="117" spans="5:8">
       <c r="E117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G117" t="s">
+        <v>160</v>
+      </c>
+      <c r="H117" t="s">
         <v>161</v>
-      </c>
-      <c r="H117" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="118" spans="5:8">
       <c r="E118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G118" t="s">
+        <v>162</v>
+      </c>
+      <c r="H118" t="s">
         <v>163</v>
-      </c>
-      <c r="H118" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="119" spans="5:8">
       <c r="E119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G119" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="120" spans="5:8">
       <c r="E120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G120" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="121" spans="5:8">
       <c r="E121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -7244,22 +6766,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="15.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="34.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="34.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="33.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="29.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="20.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="29.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="22.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="17.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7273,7 +6795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7292,48 +6814,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" t="s">
         <v>175</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>176</v>
-      </c>
-      <c r="J7" t="s">
-        <v>177</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" t="s">
         <v>178</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>179</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>180</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
-        <v>182</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -7342,7 +6864,7 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
@@ -7354,21 +6876,21 @@
         <v>73</v>
       </c>
       <c r="L8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
       </c>
       <c r="O8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
-        <v>187</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -7377,7 +6899,7 @@
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -7389,21 +6911,21 @@
         <v>73</v>
       </c>
       <c r="L9" t="s">
+        <v>183</v>
+      </c>
+      <c r="M9" t="s">
         <v>184</v>
-      </c>
-      <c r="M9" t="s">
-        <v>185</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
       </c>
       <c r="O9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
-        <v>190</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -7412,7 +6934,7 @@
         <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
         <v>102</v>
@@ -7424,21 +6946,21 @@
         <v>73</v>
       </c>
       <c r="L10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" t="s">
         <v>184</v>
-      </c>
-      <c r="M10" t="s">
-        <v>185</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
       </c>
       <c r="O10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1">
+      <c r="E11" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="5:15">
-      <c r="E11" t="s">
-        <v>193</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -7447,7 +6969,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" t="s">
         <v>112</v>
@@ -7459,21 +6981,21 @@
         <v>73</v>
       </c>
       <c r="L11" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" t="s">
         <v>184</v>
-      </c>
-      <c r="M11" t="s">
-        <v>185</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" s="5" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -7482,7 +7004,7 @@
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I12" t="s">
         <v>124</v>
@@ -7494,10 +7016,10 @@
         <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N12" t="s">
         <v>73</v>
@@ -7506,9 +7028,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -7517,31 +7039,31 @@
         <v>74</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K13" t="s">
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N13" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -7549,49 +7071,49 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J15" t="s">
         <v>208</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>209</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>210</v>
-      </c>
-      <c r="L15" t="s">
-        <v>211</v>
       </c>
       <c r="M15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="5:13">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H16" t="s">
         <v>93</v>
@@ -7600,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
@@ -7611,14 +7133,14 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H17" t="s">
         <v>96</v>
@@ -7632,14 +7154,14 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -7653,14 +7175,14 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H19" t="s">
         <v>86</v>
@@ -7674,14 +7196,14 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
@@ -7690,7 +7212,7 @@
         <v>73</v>
       </c>
       <c r="K20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -7701,14 +7223,14 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
@@ -7722,14 +7244,14 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H22" t="s">
         <v>76</v>
@@ -7743,14 +7265,14 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F23" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H23" t="s">
         <v>67</v>
@@ -7764,14 +7286,14 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H24" t="s">
         <v>105</v>
@@ -7780,7 +7302,7 @@
         <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
@@ -7791,14 +7313,14 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -7812,14 +7334,14 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H26" t="s">
         <v>101</v>
@@ -7831,16 +7353,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="5:13">
+    <row r="27" spans="5:13" ht="15" customHeight="1">
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F27" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H27" t="s">
         <v>98</v>
@@ -7854,14 +7376,14 @@
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ref="F28:F30" si="0">$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -7870,7 +7392,7 @@
         <v>73</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
         <v>73</v>
@@ -7881,14 +7403,14 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H29" t="s">
         <v>115</v>
@@ -7902,14 +7424,14 @@
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H30" t="s">
         <v>118</v>
@@ -7923,14 +7445,14 @@
     </row>
     <row r="31" spans="5:13">
       <c r="E31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F31" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H31" t="s">
         <v>120</v>
@@ -7944,14 +7466,14 @@
     </row>
     <row r="32" spans="5:13">
       <c r="E32" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F32" t="str">
         <f>$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H32" t="s">
         <v>123</v>
@@ -7960,7 +7482,7 @@
         <v>73</v>
       </c>
       <c r="K32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s">
         <v>73</v>
@@ -7969,16 +7491,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:13">
+    <row r="33" spans="1:13">
       <c r="E33" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F33" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>127</v>
@@ -7987,7 +7509,7 @@
         <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
@@ -7996,16 +7518,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="5:13">
+    <row r="34" spans="1:13">
       <c r="E34" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F34" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>131</v>
@@ -8017,7 +7539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:13">
       <c r="A37" s="7">
         <v>44036</v>
       </c>
@@ -8025,30 +7547,30 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" t="s">
         <v>237</v>
       </c>
-      <c r="H37" t="s">
+    </row>
+    <row r="38" spans="1:13">
+      <c r="E38" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="38" spans="5:8">
-      <c r="E38" t="s">
-        <v>239</v>
-      </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -8057,12 +7579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="39" spans="1:13">
       <c r="E39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -8071,12 +7593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="1:13">
       <c r="E40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -8085,12 +7607,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="1:13">
       <c r="E41" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -8099,12 +7621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
+    <row r="42" spans="1:13">
       <c r="E42" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -8114,8 +7636,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E27E6-79AE-4EF1-A2AE-DB2C22CFE213}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="609" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,19 +17,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="243">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -54,7 +47,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -67,7 +59,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -86,7 +77,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -105,7 +95,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -124,7 +113,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -156,7 +144,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -175,7 +162,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -194,7 +180,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -216,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -237,7 +221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -258,7 +241,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -279,7 +261,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -300,7 +281,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -312,7 +292,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -331,7 +310,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -343,7 +321,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -362,7 +339,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -381,7 +357,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -400,7 +375,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -419,7 +393,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -467,7 +440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -486,7 +458,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -505,7 +476,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -524,7 +494,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -536,7 +505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -555,7 +523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -574,7 +541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -594,7 +560,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -613,7 +578,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -633,7 +597,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -652,7 +615,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -664,7 +626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -683,7 +644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -702,7 +662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -726,7 +685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -745,7 +703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -764,7 +721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -783,7 +739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -802,7 +757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -814,7 +768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -833,7 +786,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -844,7 +796,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -865,7 +816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -876,7 +826,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -895,7 +844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -914,7 +862,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -938,7 +885,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -957,7 +903,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -977,7 +922,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -997,7 +941,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1017,7 +960,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1038,7 +980,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1058,7 +999,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1093,7 +1033,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1114,7 +1053,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1126,7 +1064,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1145,7 +1082,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1166,7 +1102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1185,7 +1120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1198,7 +1132,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1217,7 +1150,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1236,7 +1168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1255,7 +1186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1270,7 +1200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1289,7 +1218,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1308,7 +1236,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1327,7 +1254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1346,7 +1272,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1362,7 +1287,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1372,7 +1296,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1391,7 +1314,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1407,7 +1329,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1417,7 +1338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1436,7 +1356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1451,7 +1370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1470,7 +1388,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1489,7 +1406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1509,7 +1425,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1533,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1552,7 +1466,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1571,7 +1484,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1591,7 +1503,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1612,7 +1523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1623,7 +1533,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1633,7 +1542,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1645,7 +1553,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1664,7 +1571,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1683,7 +1589,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1702,7 +1607,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1722,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1741,7 +1644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1760,7 +1662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1780,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1799,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1818,7 +1717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1837,7 +1735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1857,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1869,7 +1765,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1880,7 +1775,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1890,7 +1784,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1902,7 +1795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1921,7 +1813,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1933,7 +1824,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1952,7 +1842,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1972,7 +1861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -3646,347 +3534,349 @@
     <t>问题新评论</t>
   </si>
   <si>
-    <t>消息模板参数</t>
-  </si>
-  <si>
-    <t>hmsg_template_arg</t>
-  </si>
-  <si>
-    <t>*arg_id</t>
-  </si>
-  <si>
-    <t>#template_id</t>
-  </si>
-  <si>
-    <t>#arg_name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>assigneeName</t>
-  </si>
-  <si>
-    <t>createdAt</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>loginName</t>
-  </si>
-  <si>
-    <t>objectKind</t>
-  </si>
-  <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>operatorName</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>issueSummary</t>
-  </si>
-  <si>
-    <t>问题概要</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>工作列表链接</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>反馈说明</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>行为</t>
-  </si>
-  <si>
-    <t>commentUser</t>
-  </si>
-  <si>
-    <t>评论人</t>
-  </si>
-  <si>
-    <t>commentType</t>
-  </si>
-  <si>
-    <t>评论类型</t>
-  </si>
-  <si>
-    <t>issueType</t>
-  </si>
-  <si>
-    <t>问题类型</t>
-  </si>
-  <si>
-    <t>工作列表站内信链接</t>
-  </si>
-  <si>
-    <t>发送配置</t>
-  </si>
-  <si>
-    <t>hmsg_template_server</t>
-  </si>
-  <si>
-    <t>*temp_server_id</t>
-  </si>
-  <si>
-    <t>#tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>#tenant_id:en_US</t>
-  </si>
-  <si>
-    <t>#message_code</t>
-  </si>
-  <si>
-    <t>message_name:zh_CN</t>
-  </si>
-  <si>
-    <t>message_name:en_US</t>
-  </si>
-  <si>
-    <t>category_code</t>
-  </si>
-  <si>
-    <t>subcategory_code</t>
-  </si>
-  <si>
-    <t>receive_config_flag</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-8</t>
-  </si>
-  <si>
-    <t>ISSUECREATE</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>问题创建，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-9</t>
-  </si>
-  <si>
-    <t>ISSUEASSIGNEE</t>
-  </si>
-  <si>
-    <t>问题分配，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-10</t>
-  </si>
-  <si>
-    <t>ISSUESOLVE</t>
-  </si>
-  <si>
-    <t>问题已解决，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-11</t>
-  </si>
-  <si>
-    <t>ISSUECHANGESTATUS</t>
-  </si>
-  <si>
-    <t>问题状态变更，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-12</t>
-  </si>
-  <si>
-    <t>PROJECT_REPORT</t>
-  </si>
-  <si>
-    <t>PRO-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-13</t>
-  </si>
-  <si>
-    <t>ISSUE_COMMENT</t>
-  </si>
-  <si>
-    <t>问题评论</t>
-  </si>
-  <si>
-    <t>ISSUE-COMMENT-NOTICE</t>
-  </si>
-  <si>
-    <t>发送配置(其它)</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line</t>
-  </si>
-  <si>
-    <t>*temp_server_line_id</t>
-  </si>
-  <si>
-    <t>#temp_server_id</t>
-  </si>
-  <si>
-    <t>#type_code</t>
-  </si>
-  <si>
-    <t>server_id</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>server_code</t>
-  </si>
-  <si>
-    <t>try_times</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-14</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>CHOERODON-EMAIL</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-15</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-16</t>
-  </si>
-  <si>
-    <t>WEB_HOOK</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-17</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-18</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-19</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-20</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-21</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-22</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-23</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-24</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-25</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-26</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-27</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-28</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-29</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-30</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-31</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-32</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#edit</t>
-  </si>
-  <si>
-    <t>#TENANT_ID</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-31</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-32</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-33</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-34</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-35</t>
-  </si>
-  <si>
     <t>&lt;p&gt;您${action}${issueType} &lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt; 收到一条新的${commentType}。${commentType}内容如下：&lt;/p&gt;
 &lt;p&gt;${commentUser}：&lt;/p&gt;
 &lt;p&gt;${comment}&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息模板参数</t>
+  </si>
+  <si>
+    <t>hmsg_template_arg</t>
+  </si>
+  <si>
+    <t>*arg_id</t>
+  </si>
+  <si>
+    <t>#template_id</t>
+  </si>
+  <si>
+    <t>#arg_name</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>assigneeName</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>loginName</t>
+  </si>
+  <si>
+    <t>objectKind</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>operatorName</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>issueSummary</t>
+  </si>
+  <si>
+    <t>问题概要</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>工作列表链接</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>反馈说明</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>行为</t>
+  </si>
+  <si>
+    <t>commentUser</t>
+  </si>
+  <si>
+    <t>评论人</t>
+  </si>
+  <si>
+    <t>commentType</t>
+  </si>
+  <si>
+    <t>评论类型</t>
+  </si>
+  <si>
+    <t>issueType</t>
+  </si>
+  <si>
+    <t>问题类型</t>
+  </si>
+  <si>
+    <t>工作列表站内信链接</t>
+  </si>
+  <si>
+    <t>发送配置</t>
+  </si>
+  <si>
+    <t>hmsg_template_server</t>
+  </si>
+  <si>
+    <t>*temp_server_id</t>
+  </si>
+  <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>#message_code</t>
+  </si>
+  <si>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
+  </si>
+  <si>
+    <t>category_code</t>
+  </si>
+  <si>
+    <t>subcategory_code</t>
+  </si>
+  <si>
+    <t>receive_config_flag</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-8</t>
+  </si>
+  <si>
+    <t>ISSUECREATE</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
+  </si>
+  <si>
+    <t>问题创建，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-9</t>
+  </si>
+  <si>
+    <t>ISSUEASSIGNEE</t>
+  </si>
+  <si>
+    <t>问题分配，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-10</t>
+  </si>
+  <si>
+    <t>ISSUESOLVE</t>
+  </si>
+  <si>
+    <t>问题已解决，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-11</t>
+  </si>
+  <si>
+    <t>ISSUECHANGESTATUS</t>
+  </si>
+  <si>
+    <t>问题状态变更，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-12</t>
+  </si>
+  <si>
+    <t>PROJECT_REPORT</t>
+  </si>
+  <si>
+    <t>PRO-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-13</t>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT</t>
+  </si>
+  <si>
+    <t>问题评论</t>
+  </si>
+  <si>
+    <t>发送配置(其它)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line</t>
+  </si>
+  <si>
+    <t>*temp_server_line_id</t>
+  </si>
+  <si>
+    <t>#temp_server_id</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>server_id</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>server_code</t>
+  </si>
+  <si>
+    <t>try_times</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-14</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-15</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-16</t>
+  </si>
+  <si>
+    <t>WEB_HOOK</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-17</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-18</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-19</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-20</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-21</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-22</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-23</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-24</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-25</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-26</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-27</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-28</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-29</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-30</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-31</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-32</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-31</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-32</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-33</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-34</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3997,31 +3887,37 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4061,6 +3957,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -4082,6 +4135,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -4089,14 +4149,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4105,43 +4169,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4172,8 +4201,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4274,10 +4489,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4291,6 +4748,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4298,32 +4758,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4333,37 +4805,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4436,9 +4940,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4696,277 +5197,280 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="C1" s="34" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="35" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="17" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="23" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="26" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="20" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="28" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="31" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="31" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="31" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="31" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="32" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="21" t="s">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="33" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E104" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="51.109375" customWidth="1"/>
-    <col min="10" max="10" width="152.5546875" customWidth="1"/>
-    <col min="11" max="11" width="112.88671875" customWidth="1"/>
-    <col min="13" max="13" width="73.6640625" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" customWidth="1"/>
-    <col min="15" max="15" width="29.44140625" customWidth="1"/>
-    <col min="16" max="16" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="29.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="44.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="29.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="24.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="51.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="152.555555555556" customWidth="1"/>
+    <col min="11" max="11" width="112.888888888889" customWidth="1"/>
+    <col min="13" max="13" width="73.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="23.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="29.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="29.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4980,7 +5484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5041,7 +5545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="5:16">
       <c r="E8" t="s">
         <v>66</v>
       </c>
@@ -5073,7 +5577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="5:16">
       <c r="E9" t="s">
         <v>75</v>
       </c>
@@ -5099,7 +5603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42" customHeight="1">
+    <row r="10" ht="42" customHeight="1" spans="5:16">
       <c r="E10" t="s">
         <v>79</v>
       </c>
@@ -5125,7 +5629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="5:16">
       <c r="E11" t="s">
         <v>82</v>
       </c>
@@ -5151,7 +5655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="5:16">
       <c r="E12" t="s">
         <v>85</v>
       </c>
@@ -5183,7 +5687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="5:16">
       <c r="E13" t="s">
         <v>88</v>
       </c>
@@ -5209,7 +5713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="5:16">
       <c r="E14" t="s">
         <v>92</v>
       </c>
@@ -5235,7 +5739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="5:16">
       <c r="E15" t="s">
         <v>95</v>
       </c>
@@ -5261,7 +5765,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="5:16">
       <c r="E16" t="s">
         <v>97</v>
       </c>
@@ -5293,7 +5797,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="5:16">
       <c r="E17" t="s">
         <v>100</v>
       </c>
@@ -5319,7 +5823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="5:16">
       <c r="E18" t="s">
         <v>104</v>
       </c>
@@ -5345,7 +5849,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="5:16">
       <c r="E19" t="s">
         <v>107</v>
       </c>
@@ -5371,7 +5875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="21.95" customHeight="1">
+    <row r="20" ht="21.95" customHeight="1" spans="5:16">
       <c r="E20" t="s">
         <v>110</v>
       </c>
@@ -5397,7 +5901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="5:16">
       <c r="E21" t="s">
         <v>114</v>
       </c>
@@ -5423,7 +5927,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.95" customHeight="1">
+    <row r="22" ht="18.95" customHeight="1" spans="5:16">
       <c r="E22" t="s">
         <v>117</v>
       </c>
@@ -5449,7 +5953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.95" customHeight="1">
+    <row r="23" ht="18.95" customHeight="1" spans="5:16">
       <c r="E23" t="s">
         <v>119</v>
       </c>
@@ -5475,7 +5979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="21.95" customHeight="1">
+    <row r="24" ht="21.95" customHeight="1" spans="5:16">
       <c r="E24" s="5" t="s">
         <v>122</v>
       </c>
@@ -5501,7 +6005,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="21.95" customHeight="1">
+    <row r="25" ht="21.95" customHeight="1" spans="5:16">
       <c r="E25" s="5" t="s">
         <v>126</v>
       </c>
@@ -5533,7 +6037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="21.95" customHeight="1">
+    <row r="26" ht="21.95" customHeight="1" spans="5:16">
       <c r="E26" s="5" t="s">
         <v>130</v>
       </c>
@@ -5546,8 +6050,8 @@
       <c r="H26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="39" t="s">
-        <v>243</v>
+      <c r="I26" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="K26" s="5"/>
       <c r="N26" s="5" t="s">
@@ -5560,13 +6064,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="21.95" customHeight="1">
+    <row r="27" ht="21.95" customHeight="1" spans="9:9">
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:16" ht="21.95" customHeight="1">
+    <row r="28" ht="21.95" customHeight="1" spans="9:9">
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:9">
       <c r="A29" s="7">
         <v>44036</v>
       </c>
@@ -5574,1214 +6078,1215 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
       <c r="E30" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F81" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F82" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F83" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F84" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G84" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F85" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G85" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F86" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F87" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F88" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F89" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G89" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F90" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F91" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G91" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F92" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G92" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F93" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G93" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F94" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G94" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G96" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="5:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="5:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="5:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="5:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="5:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G102" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="5:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G103" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="5:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G104" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H105" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G107" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G108" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H108" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G109" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H109" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G110" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H110" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G116" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H116" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="5:8">
       <c r="E117" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G117" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H117" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="5:8">
       <c r="E118" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G118" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="5:8">
       <c r="E119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="5:8">
       <c r="E120" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="5:8">
       <c r="E121" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="29.88671875" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="15.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="34.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="34.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="33.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="29.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="20.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="29.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="22.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="17.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6795,7 +7300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6814,48 +7319,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -6864,7 +7369,7 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
@@ -6876,21 +7381,21 @@
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -6899,7 +7404,7 @@
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -6911,21 +7416,21 @@
         <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -6934,7 +7439,7 @@
         <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I10" t="s">
         <v>102</v>
@@ -6946,21 +7451,21 @@
         <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="5:15">
       <c r="E11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -6969,7 +7474,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I11" t="s">
         <v>112</v>
@@ -6981,21 +7486,21 @@
         <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
       <c r="E12" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -7004,7 +7509,7 @@
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I12" t="s">
         <v>124</v>
@@ -7016,10 +7521,10 @@
         <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N12" t="s">
         <v>73</v>
@@ -7028,9 +7533,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:15">
       <c r="E13" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -7039,31 +7544,31 @@
         <v>74</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K13" t="s">
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="N13" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -7104,7 +7609,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:13">
       <c r="E16" t="s">
         <v>211</v>
       </c>
@@ -7353,7 +7858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:13" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="5:13">
       <c r="E27" t="s">
         <v>226</v>
       </c>
@@ -7491,7 +7996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="5:13">
       <c r="E33" s="5" t="s">
         <v>232</v>
       </c>
@@ -7518,7 +8023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="5:13">
       <c r="E34" s="5" t="s">
         <v>233</v>
       </c>
@@ -7539,7 +8044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:8">
       <c r="A37" s="7">
         <v>44036</v>
       </c>
@@ -7547,7 +8052,7 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>234</v>
@@ -7556,7 +8061,7 @@
         <v>235</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>236</v>
@@ -7565,12 +8070,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="5:8">
       <c r="E38" t="s">
         <v>238</v>
       </c>
       <c r="F38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7579,12 +8084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="5:8">
       <c r="E39" t="s">
         <v>239</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7593,12 +8098,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="5:8">
       <c r="E40" t="s">
         <v>240</v>
       </c>
       <c r="F40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -7607,12 +8112,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="5:8">
       <c r="E41" s="5" t="s">
         <v>241</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -7621,12 +8126,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="5:8">
       <c r="E42" s="5" t="s">
         <v>242</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -7636,8 +8141,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF0BCB6-A950-4CE0-A022-636634A4BA9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="609" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="264">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -47,6 +54,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -59,6 +67,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -77,6 +86,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -95,6 +105,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -113,6 +124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -144,6 +156,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -162,6 +175,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -180,6 +194,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -201,6 +216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -221,6 +237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -241,6 +258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -261,6 +279,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -281,6 +300,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -292,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -310,6 +331,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -321,6 +343,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -339,6 +362,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -357,6 +381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -375,6 +400,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -393,6 +419,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -440,6 +467,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -458,6 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -476,6 +505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -494,6 +524,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -505,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -523,6 +555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -541,6 +574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -560,6 +594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -578,6 +613,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -597,6 +633,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -615,6 +652,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -626,6 +664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -644,6 +683,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -662,6 +702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -685,6 +726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -703,6 +745,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -721,6 +764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -739,6 +783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -757,6 +802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -768,6 +814,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -786,6 +833,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -796,6 +844,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -816,6 +865,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -826,6 +876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -844,6 +895,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -862,6 +914,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -885,6 +938,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -903,6 +957,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -922,6 +977,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -941,6 +997,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -960,6 +1017,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -980,6 +1038,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -999,6 +1058,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1033,6 +1093,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1053,6 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1064,6 +1126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1082,6 +1145,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1102,6 +1166,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1120,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1132,6 +1198,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1150,6 +1217,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1168,6 +1236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1186,6 +1255,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1200,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1218,6 +1289,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1236,6 +1308,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1254,6 +1327,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1272,6 +1346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1287,6 +1362,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1296,6 +1372,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1314,6 +1391,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1329,6 +1407,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1338,6 +1417,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1356,6 +1436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1370,6 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1388,6 +1470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1406,6 +1489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1425,6 +1509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1448,6 +1533,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1466,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1484,6 +1571,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1503,6 +1591,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1523,6 +1612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1533,6 +1623,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1542,6 +1633,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1553,6 +1645,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1571,6 +1664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1589,6 +1683,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1607,6 +1702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1626,6 +1722,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1644,6 +1741,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1662,6 +1760,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1681,6 +1780,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1699,6 +1799,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1717,6 +1818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1735,6 +1837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1754,6 +1857,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1765,6 +1869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1775,6 +1880,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1784,6 +1890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1795,6 +1902,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1813,6 +1921,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1824,6 +1933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1842,6 +1952,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1861,6 +1972,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -3061,9 +3173,6 @@
     <t>ISSUE_CHANGE_STATUS_JSON</t>
   </si>
   <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}"}}</t>
-  </si>
-  <si>
     <t>hmsg_message_template-24</t>
   </si>
   <si>
@@ -3534,349 +3643,432 @@
     <t>问题新评论</t>
   </si>
   <si>
+    <t>消息模板参数</t>
+  </si>
+  <si>
+    <t>hmsg_template_arg</t>
+  </si>
+  <si>
+    <t>*arg_id</t>
+  </si>
+  <si>
+    <t>#template_id</t>
+  </si>
+  <si>
+    <t>#arg_name</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>assigneeName</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>loginName</t>
+  </si>
+  <si>
+    <t>objectKind</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>operatorName</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>issueSummary</t>
+  </si>
+  <si>
+    <t>问题概要</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>工作列表链接</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>反馈说明</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>行为</t>
+  </si>
+  <si>
+    <t>commentUser</t>
+  </si>
+  <si>
+    <t>评论人</t>
+  </si>
+  <si>
+    <t>commentType</t>
+  </si>
+  <si>
+    <t>评论类型</t>
+  </si>
+  <si>
+    <t>issueType</t>
+  </si>
+  <si>
+    <t>问题类型</t>
+  </si>
+  <si>
+    <t>工作列表站内信链接</t>
+  </si>
+  <si>
+    <t>发送配置</t>
+  </si>
+  <si>
+    <t>hmsg_template_server</t>
+  </si>
+  <si>
+    <t>*temp_server_id</t>
+  </si>
+  <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>#message_code</t>
+  </si>
+  <si>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
+  </si>
+  <si>
+    <t>category_code</t>
+  </si>
+  <si>
+    <t>subcategory_code</t>
+  </si>
+  <si>
+    <t>receive_config_flag</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-8</t>
+  </si>
+  <si>
+    <t>ISSUECREATE</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
+  </si>
+  <si>
+    <t>问题创建，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-9</t>
+  </si>
+  <si>
+    <t>ISSUEASSIGNEE</t>
+  </si>
+  <si>
+    <t>问题分配，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-10</t>
+  </si>
+  <si>
+    <t>ISSUESOLVE</t>
+  </si>
+  <si>
+    <t>问题已解决，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-11</t>
+  </si>
+  <si>
+    <t>ISSUECHANGESTATUS</t>
+  </si>
+  <si>
+    <t>问题状态变更，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-12</t>
+  </si>
+  <si>
+    <t>PROJECT_REPORT</t>
+  </si>
+  <si>
+    <t>PRO-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-13</t>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT</t>
+  </si>
+  <si>
+    <t>问题评论</t>
+  </si>
+  <si>
+    <t>发送配置(其它)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line</t>
+  </si>
+  <si>
+    <t>*temp_server_line_id</t>
+  </si>
+  <si>
+    <t>#temp_server_id</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>server_id</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>server_code</t>
+  </si>
+  <si>
+    <t>try_times</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-14</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-15</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-16</t>
+  </si>
+  <si>
+    <t>WEB_HOOK</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-17</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-18</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-19</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-20</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-21</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-22</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-23</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-24</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-25</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-26</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-27</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-28</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-29</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-30</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-31</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-32</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-31</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-32</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-33</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-34</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-35</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-27</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_message_template-28</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_CHANGE_STATUS.DINGTALKANDWECHAT</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT_NOTICE.DINGTALKANDWECHAT</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_CHANGE_STATUS_JSON</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT_NOTICE_JSON</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choerodon敏捷通知-问题分配</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choerodon敏捷通知-问题新评论</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","projectName":"${projectName}","url":"${url}"}}</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}"}}</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectName</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueSummary</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentUser</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"projectName":"${projectName}","issueSummary":"${issueSummary}","link":"${link}","comment":"${comment}","action":"${action}","commentUser":"${commentUser}","commentType":"${commentType}","issueType":"${issueType}","url":"${url}"}}</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;p&gt;您${action}${issueType} &lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt; 收到一条新的${commentType}。${commentType}内容如下：&lt;/p&gt;
 &lt;p&gt;${commentUser}：&lt;/p&gt;
 &lt;p&gt;${comment}&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>消息模板参数</t>
-  </si>
-  <si>
-    <t>hmsg_template_arg</t>
-  </si>
-  <si>
-    <t>*arg_id</t>
-  </si>
-  <si>
-    <t>#template_id</t>
-  </si>
-  <si>
-    <t>#arg_name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>assigneeName</t>
-  </si>
-  <si>
-    <t>createdAt</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>loginName</t>
-  </si>
-  <si>
-    <t>objectKind</t>
-  </si>
-  <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>operatorName</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>issueSummary</t>
-  </si>
-  <si>
-    <t>问题概要</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>工作列表链接</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>反馈说明</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>行为</t>
-  </si>
-  <si>
-    <t>commentUser</t>
-  </si>
-  <si>
-    <t>评论人</t>
-  </si>
-  <si>
-    <t>commentType</t>
-  </si>
-  <si>
-    <t>评论类型</t>
-  </si>
-  <si>
-    <t>issueType</t>
-  </si>
-  <si>
-    <t>问题类型</t>
-  </si>
-  <si>
-    <t>工作列表站内信链接</t>
-  </si>
-  <si>
-    <t>发送配置</t>
-  </si>
-  <si>
-    <t>hmsg_template_server</t>
-  </si>
-  <si>
-    <t>*temp_server_id</t>
-  </si>
-  <si>
-    <t>#tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>#tenant_id:en_US</t>
-  </si>
-  <si>
-    <t>#message_code</t>
-  </si>
-  <si>
-    <t>message_name:zh_CN</t>
-  </si>
-  <si>
-    <t>message_name:en_US</t>
-  </si>
-  <si>
-    <t>category_code</t>
-  </si>
-  <si>
-    <t>subcategory_code</t>
-  </si>
-  <si>
-    <t>receive_config_flag</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-8</t>
-  </si>
-  <si>
-    <t>ISSUECREATE</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>问题创建，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-9</t>
-  </si>
-  <si>
-    <t>ISSUEASSIGNEE</t>
-  </si>
-  <si>
-    <t>问题分配，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-10</t>
-  </si>
-  <si>
-    <t>ISSUESOLVE</t>
-  </si>
-  <si>
-    <t>问题已解决，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-11</t>
-  </si>
-  <si>
-    <t>ISSUECHANGESTATUS</t>
-  </si>
-  <si>
-    <t>问题状态变更，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-12</t>
-  </si>
-  <si>
-    <t>PROJECT_REPORT</t>
-  </si>
-  <si>
-    <t>PRO-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-13</t>
-  </si>
-  <si>
-    <t>ISSUE_COMMENT</t>
-  </si>
-  <si>
-    <t>问题评论</t>
-  </si>
-  <si>
-    <t>发送配置(其它)</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line</t>
-  </si>
-  <si>
-    <t>*temp_server_line_id</t>
-  </si>
-  <si>
-    <t>#temp_server_id</t>
-  </si>
-  <si>
-    <t>#type_code</t>
-  </si>
-  <si>
-    <t>server_id</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>server_code</t>
-  </si>
-  <si>
-    <t>try_times</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-14</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>CHOERODON-EMAIL</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-15</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-16</t>
-  </si>
-  <si>
-    <t>WEB_HOOK</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-17</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-18</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-19</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-20</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-21</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-22</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-23</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-24</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-25</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-26</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-27</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-28</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-29</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-30</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-31</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-32</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#edit</t>
-  </si>
-  <si>
-    <t>#TENANT_ID</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-31</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-32</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-33</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-34</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-35</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-33</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-34</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3887,31 +4079,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3957,163 +4149,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -4136,6 +4171,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4149,18 +4185,21 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4169,8 +4208,28 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4201,194 +4260,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4489,254 +4362,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4748,9 +4379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4758,20 +4386,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4805,9 +4421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4815,59 +4428,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4940,6 +4525,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5197,280 +4785,277 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A1" s="11"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="33" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="29.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="44.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="29.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="24.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="51.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="152.555555555556" customWidth="1"/>
-    <col min="11" max="11" width="112.888888888889" customWidth="1"/>
-    <col min="13" max="13" width="73.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="23.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="29.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="29.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="51.109375" customWidth="1"/>
+    <col min="10" max="10" width="152.5546875" customWidth="1"/>
+    <col min="11" max="11" width="112.88671875" customWidth="1"/>
+    <col min="13" max="13" width="73.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" customWidth="1"/>
+    <col min="16" max="16" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5484,7 +5069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:16">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5545,15 +5130,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="5:16">
+    <row r="8" spans="1:16">
       <c r="E8" t="s">
         <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="G8" t="s">
-        <v>68</v>
+      <c r="G8" s="39" t="s">
+        <v>247</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
@@ -5577,7 +5162,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="5:16">
+    <row r="9" spans="1:16">
       <c r="E9" t="s">
         <v>75</v>
       </c>
@@ -5603,7 +5188,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="5:16">
+    <row r="10" spans="1:16" ht="42" customHeight="1">
       <c r="E10" t="s">
         <v>79</v>
       </c>
@@ -5629,7 +5214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="5:16">
+    <row r="11" spans="1:16">
       <c r="E11" t="s">
         <v>82</v>
       </c>
@@ -5655,7 +5240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="5:16">
+    <row r="12" spans="1:16">
       <c r="E12" t="s">
         <v>85</v>
       </c>
@@ -5687,7 +5272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="5:16">
+    <row r="13" spans="1:16">
       <c r="E13" t="s">
         <v>88</v>
       </c>
@@ -5713,7 +5298,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="5:16">
+    <row r="14" spans="1:16">
       <c r="E14" t="s">
         <v>92</v>
       </c>
@@ -5739,7 +5324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="5:16">
+    <row r="15" spans="1:16">
       <c r="E15" t="s">
         <v>95</v>
       </c>
@@ -5765,7 +5350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="5:16">
+    <row r="16" spans="1:16">
       <c r="E16" t="s">
         <v>97</v>
       </c>
@@ -5778,8 +5363,8 @@
       <c r="H16" t="s">
         <v>99</v>
       </c>
-      <c r="I16" t="s">
-        <v>69</v>
+      <c r="I16" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="J16" t="s">
         <v>70</v>
@@ -5797,7 +5382,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="1:16">
       <c r="E17" t="s">
         <v>100</v>
       </c>
@@ -5823,7 +5408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="5:16">
+    <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="E18" t="s">
         <v>104</v>
       </c>
@@ -5849,7 +5434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="1:16">
       <c r="E19" t="s">
         <v>107</v>
       </c>
@@ -5875,7 +5460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" ht="21.95" customHeight="1" spans="5:16">
+    <row r="20" spans="1:16" ht="21.95" customHeight="1">
       <c r="E20" t="s">
         <v>110</v>
       </c>
@@ -5901,7 +5486,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="5:16">
+    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="E21" t="s">
         <v>114</v>
       </c>
@@ -5927,12 +5512,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" ht="18.95" customHeight="1" spans="5:16">
+    <row r="22" spans="1:16" ht="18.95" customHeight="1">
       <c r="E22" t="s">
         <v>117</v>
       </c>
-      <c r="F22" t="s">
-        <v>118</v>
+      <c r="F22" s="39" t="s">
+        <v>243</v>
       </c>
       <c r="G22" t="s">
         <v>112</v>
@@ -5953,12 +5538,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" ht="18.95" customHeight="1" spans="5:16">
+    <row r="23" spans="1:16" ht="18.95" customHeight="1">
       <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>120</v>
+      <c r="F23" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="G23" t="s">
         <v>112</v>
@@ -5966,8 +5551,8 @@
       <c r="H23" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>121</v>
+      <c r="I23" s="40" t="s">
+        <v>250</v>
       </c>
       <c r="N23" t="s">
         <v>72</v>
@@ -5979,21 +5564,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="21.95" customHeight="1" spans="5:16">
+    <row r="24" spans="1:16" ht="21.95" customHeight="1">
       <c r="E24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" t="s">
         <v>122</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>123</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="H24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>72</v>
@@ -6005,25 +5590,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" ht="21.95" customHeight="1" spans="5:16">
+    <row r="25" spans="1:16" ht="21.95" customHeight="1">
       <c r="E25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="I25" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" t="s">
-        <v>70</v>
-      </c>
+      <c r="J25" s="39"/>
       <c r="K25" s="5" t="s">
         <v>71</v>
       </c>
@@ -6037,21 +5620,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" ht="21.95" customHeight="1" spans="5:16">
+    <row r="26" spans="1:16" ht="21.95" customHeight="1">
       <c r="E26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>261</v>
       </c>
       <c r="K26" s="5"/>
       <c r="N26" s="5" t="s">
@@ -6064,384 +5647,417 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" ht="21.95" customHeight="1" spans="9:9">
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" ht="21.95" customHeight="1" spans="9:9">
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7">
+    <row r="27" spans="1:16" ht="21.95" customHeight="1">
+      <c r="E27" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="21.95" customHeight="1">
+      <c r="E28" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="N28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="21.95" customHeight="1">
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" ht="21.95" customHeight="1">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="7">
         <v>44036</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="H31" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="I31" t="s">
         <v>138</v>
       </c>
-      <c r="H29" t="s">
-        <v>139</v>
-      </c>
-      <c r="I29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7">
-      <c r="E30" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" t="str">
-        <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-8</v>
-      </c>
-      <c r="G30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7">
-      <c r="E31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" t="str">
-        <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-8</v>
-      </c>
-      <c r="G31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7">
-      <c r="E32" t="s">
-        <v>141</v>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="E32" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F39" t="str">
-        <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
       </c>
       <c r="G39" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F40" t="str">
-        <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G47" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F48" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G48" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F49" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G49" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F57" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G57" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F58" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G58" t="s">
         <v>148</v>
@@ -6449,343 +6065,343 @@
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G59" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F60" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-9</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G60" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F61" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-9</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F63" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-15</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-9</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F64" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-15</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-9</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G65" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F66" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-13</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-15</v>
       </c>
       <c r="G66" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F67" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-13</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-15</v>
       </c>
       <c r="G67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G68" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F69" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-19</v>
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-13</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F70" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-19</v>
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-13</v>
       </c>
       <c r="G70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G71" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="str">
-        <f>消息模板!$E$17</f>
-        <v>hmsg_message_template-17</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-19</v>
       </c>
       <c r="G72" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="str">
-        <f>消息模板!$E$17</f>
-        <v>hmsg_message_template-17</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-19</v>
       </c>
       <c r="G73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G74" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F75" t="str">
+        <f>消息模板!$E$17</f>
+        <v>hmsg_message_template-17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" t="str">
+        <f>消息模板!$E$17</f>
+        <v>hmsg_message_template-17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
-      <c r="G75" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7">
-      <c r="E76" t="s">
-        <v>141</v>
-      </c>
-      <c r="F76" t="str">
+      <c r="G77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
-      <c r="G76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7">
-      <c r="E77" t="s">
-        <v>141</v>
-      </c>
-      <c r="F77" t="str">
+      <c r="G78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7">
+      <c r="E79" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
-      <c r="G77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="5:7">
-      <c r="E78" t="s">
-        <v>141</v>
-      </c>
-      <c r="F78" t="str">
+      <c r="G79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7">
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
-      <c r="G78" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="5:7">
-      <c r="E79" t="s">
-        <v>141</v>
-      </c>
-      <c r="F79" t="str">
+      <c r="G80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
-      <c r="G79" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="5:7">
-      <c r="E80" t="s">
-        <v>141</v>
-      </c>
-      <c r="F80" t="str">
+      <c r="G81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
-      <c r="G80" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="5:7">
-      <c r="E81" t="s">
-        <v>141</v>
-      </c>
-      <c r="F81" t="str">
-        <f>$E$20</f>
-        <v>hmsg_message_template-20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="5:7">
-      <c r="E82" t="s">
-        <v>141</v>
-      </c>
-      <c r="F82" t="str">
-        <f>$E$20</f>
-        <v>hmsg_message_template-20</v>
-      </c>
       <c r="G82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F83" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G83" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F84" t="str">
         <f>$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G84" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F85" t="str">
-        <f>$E$21</f>
-        <v>hmsg_message_template-21</v>
+        <f>$E$20</f>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F86" t="str">
-        <f>$E$21</f>
-        <v>hmsg_message_template-21</v>
+        <f>$E$20</f>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G86" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F87" t="str">
         <f>$E$21</f>
@@ -6797,55 +6413,55 @@
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F88" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F89" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G89" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F90" t="str">
-        <f>$E$22</f>
-        <v>hmsg_message_template-22</v>
+        <f>$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F91" t="str">
-        <f>$E$22</f>
-        <v>hmsg_message_template-22</v>
+        <f>$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G91" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F92" t="str">
         <f>$E$22</f>
@@ -6857,436 +6473,729 @@
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F93" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G93" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F94" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G94" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F95" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F96" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G96" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="5:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="5:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G98" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="5:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="5:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="101" spans="5:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="5:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="5:7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8">
+      <c r="E104" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G104" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="5:7">
-      <c r="E104" t="s">
-        <v>141</v>
-      </c>
-      <c r="F104" t="str">
+    <row r="105" spans="5:8">
+      <c r="E105" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8">
+      <c r="E106" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
-      <c r="G104" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="5:8">
-      <c r="E105" t="s">
-        <v>141</v>
-      </c>
-      <c r="F105" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G105" t="s">
-        <v>147</v>
-      </c>
-      <c r="H105" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="5:8">
-      <c r="E106" t="s">
-        <v>141</v>
-      </c>
-      <c r="F106" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>156</v>
+      <c r="G106" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G107" t="s">
-        <v>157</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>158</v>
+        <v>145</v>
+      </c>
+      <c r="H107" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G108" t="s">
-        <v>159</v>
-      </c>
-      <c r="H108" t="s">
-        <v>160</v>
+      <c r="G108" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G109" t="s">
-        <v>161</v>
-      </c>
-      <c r="H109" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G110" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H110" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G111" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>166</v>
+      <c r="G111" t="s">
+        <v>159</v>
+      </c>
+      <c r="H111" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G112" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>168</v>
+      <c r="G112" t="s">
+        <v>161</v>
+      </c>
+      <c r="H112" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F113" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>147</v>
-      </c>
-      <c r="H113" t="s">
-        <v>154</v>
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F114" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-26</v>
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G115" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>158</v>
+      <c r="G115" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H115" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G116" t="s">
-        <v>159</v>
-      </c>
-      <c r="H116" t="s">
-        <v>160</v>
+      <c r="G116" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="5:8">
       <c r="E117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G117" t="s">
-        <v>161</v>
-      </c>
-      <c r="H117" t="s">
-        <v>162</v>
+      <c r="G117" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="5:8">
       <c r="E118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G118" t="s">
-        <v>163</v>
+      <c r="G118" s="39" t="s">
+        <v>254</v>
       </c>
       <c r="H118" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="5:8">
       <c r="E119" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G119" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>166</v>
+      <c r="G119" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H119" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="5:8">
       <c r="E120" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G120" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>168</v>
+      <c r="G120" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="H120" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="5:8">
       <c r="E121" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G121" s="5" t="s">
-        <v>149</v>
+      <c r="G121" s="39" t="s">
+        <v>257</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="5:8">
+      <c r="E122" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G122" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="5:8">
+      <c r="E123" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123" t="str">
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G123" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="5:8">
+      <c r="E124" t="s">
+        <v>139</v>
+      </c>
+      <c r="F124" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G124" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="5:8">
+      <c r="E125" t="s">
+        <v>139</v>
+      </c>
+      <c r="F125" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G125" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="5:8">
+      <c r="E126" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G126" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="5:8">
+      <c r="E127" t="s">
+        <v>139</v>
+      </c>
+      <c r="F127" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G127" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="H127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="5:8">
+      <c r="E128" t="s">
+        <v>139</v>
+      </c>
+      <c r="F128" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G128" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="5:8">
+      <c r="E129" t="s">
+        <v>139</v>
+      </c>
+      <c r="F129" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G129" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="H129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="5:8">
+      <c r="E130" t="s">
+        <v>139</v>
+      </c>
+      <c r="F130" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G130" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="5:8">
+      <c r="E131" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G131" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="5:8">
+      <c r="E132" t="s">
+        <v>139</v>
+      </c>
+      <c r="F132" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G132" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="5:8">
+      <c r="E133" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G133" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H133" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="5:8">
+      <c r="E134" t="s">
+        <v>139</v>
+      </c>
+      <c r="F134" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G134" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="135" spans="5:8">
+      <c r="E135" t="s">
+        <v>139</v>
+      </c>
+      <c r="F135" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G135" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="5:8">
+      <c r="E136" t="s">
+        <v>139</v>
+      </c>
+      <c r="F136" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G136" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="H136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="5:8">
+      <c r="E137" t="s">
+        <v>139</v>
+      </c>
+      <c r="F137" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G137" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H137" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="5:8">
+      <c r="E138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F138" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G138" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="H138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="5:8">
+      <c r="E139" t="s">
+        <v>139</v>
+      </c>
+      <c r="F139" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G139" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="5:8">
+      <c r="E140" t="s">
+        <v>139</v>
+      </c>
+      <c r="F140" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G140" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="5:8">
+      <c r="E141" t="s">
+        <v>139</v>
+      </c>
+      <c r="F141" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G141" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="15.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="34.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="34.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="33.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="29.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="20.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="29.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="22.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="17.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7300,7 +7209,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7319,48 +7228,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" t="s">
         <v>175</v>
-      </c>
-      <c r="I7" t="s">
-        <v>176</v>
-      </c>
-      <c r="J7" t="s">
-        <v>177</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7" t="s">
         <v>178</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>179</v>
       </c>
-      <c r="N7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
         <v>180</v>
-      </c>
-      <c r="O7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
-        <v>182</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -7369,7 +7278,7 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
@@ -7381,21 +7290,21 @@
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -7404,7 +7313,7 @@
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -7416,21 +7325,21 @@
         <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -7439,7 +7348,7 @@
         <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I10" t="s">
         <v>102</v>
@@ -7451,21 +7360,21 @@
         <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="5:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="E11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -7474,7 +7383,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I11" t="s">
         <v>112</v>
@@ -7486,21 +7395,21 @@
         <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -7509,33 +7418,33 @@
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
         <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N12" t="s">
         <v>73</v>
       </c>
       <c r="O12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="E13" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -7544,31 +7453,31 @@
         <v>74</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K13" t="s">
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N13" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -7576,49 +7485,49 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15" t="s">
         <v>207</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>208</v>
-      </c>
-      <c r="K15" t="s">
-        <v>209</v>
-      </c>
-      <c r="L15" t="s">
-        <v>210</v>
       </c>
       <c r="M15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="5:13">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H16" t="s">
         <v>93</v>
@@ -7627,7 +7536,7 @@
         <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
@@ -7638,14 +7547,14 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H17" t="s">
         <v>96</v>
@@ -7659,14 +7568,14 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -7680,14 +7589,14 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F19" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H19" t="s">
         <v>86</v>
@@ -7701,14 +7610,14 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
@@ -7717,7 +7626,7 @@
         <v>73</v>
       </c>
       <c r="K20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -7728,14 +7637,14 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
@@ -7749,14 +7658,14 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H22" t="s">
         <v>76</v>
@@ -7770,14 +7679,14 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F23" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H23" t="s">
         <v>67</v>
@@ -7791,14 +7700,14 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H24" t="s">
         <v>105</v>
@@ -7807,7 +7716,7 @@
         <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
@@ -7818,14 +7727,14 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -7839,14 +7748,14 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H26" t="s">
         <v>101</v>
@@ -7858,16 +7767,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="5:13">
+    <row r="27" spans="5:13" ht="15" customHeight="1">
       <c r="E27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F27" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H27" t="s">
         <v>98</v>
@@ -7881,14 +7790,14 @@
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ref="F28:F30" si="0">$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -7897,7 +7806,7 @@
         <v>73</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
         <v>73</v>
@@ -7908,14 +7817,14 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H29" t="s">
         <v>115</v>
@@ -7929,14 +7838,14 @@
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H30" t="s">
         <v>118</v>
@@ -7950,14 +7859,14 @@
     </row>
     <row r="31" spans="5:13">
       <c r="E31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F31" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H31" t="s">
         <v>120</v>
@@ -7971,23 +7880,23 @@
     </row>
     <row r="32" spans="5:13">
       <c r="E32" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F32" t="str">
         <f>$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I32" t="s">
         <v>73</v>
       </c>
       <c r="K32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L32" t="s">
         <v>73</v>
@@ -7996,25 +7905,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:13">
+    <row r="33" spans="1:13">
       <c r="E33" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F33" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
         <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
@@ -8023,19 +7932,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="5:13">
+    <row r="34" spans="1:13">
       <c r="E34" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F34" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s">
         <v>73</v>
@@ -8044,66 +7953,80 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="7">
+    <row r="35" spans="1:13">
+      <c r="E35" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F35" t="str">
+        <f>$E$13</f>
+        <v>hmsg_template_server-13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="L35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="E36" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" t="str">
+        <f>$E$13</f>
+        <v>hmsg_template_server-13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L36" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="7">
         <v>44036</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="H39" t="s">
         <v>235</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="3" t="s">
+    </row>
+    <row r="40" spans="1:13">
+      <c r="E40" t="s">
         <v>236</v>
       </c>
-      <c r="H37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8">
-      <c r="E38" t="s">
-        <v>238</v>
-      </c>
-      <c r="F38" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8">
-      <c r="E39" t="s">
-        <v>239</v>
-      </c>
-      <c r="F39" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8">
-      <c r="E40" t="s">
-        <v>240</v>
-      </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -8112,12 +8035,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
-      <c r="E41" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>194</v>
+    <row r="41" spans="1:13">
+      <c r="E41" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" t="s">
+        <v>186</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -8126,12 +8049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
-      <c r="E42" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>200</v>
+    <row r="42" spans="1:13">
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" t="s">
+        <v>189</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -8140,9 +8063,37 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:13">
+      <c r="E43" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="E44" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF0BCB6-A950-4CE0-A022-636634A4BA9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,19 +17,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="251">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -54,7 +47,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -67,7 +59,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -86,7 +77,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -105,7 +95,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -124,7 +113,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -156,7 +144,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -175,7 +162,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -194,7 +180,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -216,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -237,7 +221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -258,7 +241,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -279,7 +261,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -300,7 +281,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -312,7 +292,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -331,7 +310,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -343,7 +321,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -362,7 +339,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -381,7 +357,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -400,7 +375,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -419,7 +393,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -467,7 +440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -486,7 +458,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -505,7 +476,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -524,7 +494,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -536,7 +505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -555,7 +523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -574,7 +541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -594,7 +560,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -613,7 +578,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -633,7 +597,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -652,7 +615,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -664,7 +626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -683,7 +644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -702,7 +662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -726,7 +685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -745,7 +703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -764,7 +721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -783,7 +739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -802,7 +757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -814,7 +768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -833,7 +786,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -844,7 +796,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -865,7 +816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -876,7 +826,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -895,7 +844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -914,7 +862,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -938,7 +885,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -957,7 +903,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -977,7 +922,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -997,7 +941,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1017,7 +960,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1038,7 +980,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1058,7 +999,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1093,7 +1033,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1114,7 +1053,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1126,7 +1064,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1145,7 +1082,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1166,7 +1102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1185,7 +1120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1198,7 +1132,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1217,7 +1150,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1236,7 +1168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1255,7 +1186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1270,7 +1200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1289,7 +1218,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1308,7 +1236,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1327,7 +1254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1346,7 +1272,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1362,7 +1287,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1372,7 +1296,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1391,7 +1314,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1407,7 +1329,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1417,7 +1338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1436,7 +1356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1451,7 +1370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1470,7 +1388,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1489,7 +1406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1509,7 +1425,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1533,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1552,7 +1466,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1571,7 +1484,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1591,7 +1503,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1612,7 +1523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1623,7 +1533,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1633,7 +1542,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1645,7 +1553,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1664,7 +1571,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1683,7 +1589,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1702,7 +1607,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1722,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1741,7 +1644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1760,7 +1662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1780,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1799,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1818,7 +1717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1837,7 +1735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1857,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1869,7 +1765,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1880,7 +1775,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1890,7 +1784,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1902,7 +1795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1921,7 +1813,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1933,7 +1824,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1952,7 +1842,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1972,7 +1861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -3067,7 +2955,7 @@
                         &lt;div style=""&gt;
                           &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;Choerodon通知-问题状态变更&lt;/p&gt;
                           &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;您好：&lt;/p&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;您好，经办人${assigneeName}的问题“${summary}”已由${operatorName}变更为${status}状态&lt;br&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;您好，${memberType}${assigneeName}的问题“${summary}”已由${operatorName}变更为${status}状态&lt;br&gt;
 &lt;/p&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
@@ -3158,7 +3046,7 @@
     <t>ISSUE_CHANGE_STATUS.WEB</t>
   </si>
   <si>
-    <t>&lt;p&gt;经办人${assigneeName}的问题 ${summary} 已由${operatorName}变更为${status}状态&lt;/p&gt;</t>
+    <t>&lt;p&gt;${memberType}${assigneeName}的问题 ${summary} 已由${operatorName}变更为${status}状态&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-22</t>
@@ -3171,6 +3059,9 @@
   </si>
   <si>
     <t>ISSUE_CHANGE_STATUS_JSON</t>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}","memberType":"${memberType}"}}</t>
   </si>
   <si>
     <t>hmsg_message_template-24</t>
@@ -3643,432 +3534,373 @@
     <t>问题新评论</t>
   </si>
   <si>
-    <t>消息模板参数</t>
-  </si>
-  <si>
-    <t>hmsg_template_arg</t>
-  </si>
-  <si>
-    <t>*arg_id</t>
-  </si>
-  <si>
-    <t>#template_id</t>
-  </si>
-  <si>
-    <t>#arg_name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>assigneeName</t>
-  </si>
-  <si>
-    <t>createdAt</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>loginName</t>
-  </si>
-  <si>
-    <t>objectKind</t>
-  </si>
-  <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>operatorName</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>issueSummary</t>
-  </si>
-  <si>
-    <t>问题概要</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>工作列表链接</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>反馈说明</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>行为</t>
-  </si>
-  <si>
-    <t>commentUser</t>
-  </si>
-  <si>
-    <t>评论人</t>
-  </si>
-  <si>
-    <t>commentType</t>
-  </si>
-  <si>
-    <t>评论类型</t>
-  </si>
-  <si>
-    <t>issueType</t>
-  </si>
-  <si>
-    <t>问题类型</t>
-  </si>
-  <si>
-    <t>工作列表站内信链接</t>
-  </si>
-  <si>
-    <t>发送配置</t>
-  </si>
-  <si>
-    <t>hmsg_template_server</t>
-  </si>
-  <si>
-    <t>*temp_server_id</t>
-  </si>
-  <si>
-    <t>#tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>#tenant_id:en_US</t>
-  </si>
-  <si>
-    <t>#message_code</t>
-  </si>
-  <si>
-    <t>message_name:zh_CN</t>
-  </si>
-  <si>
-    <t>message_name:en_US</t>
-  </si>
-  <si>
-    <t>category_code</t>
-  </si>
-  <si>
-    <t>subcategory_code</t>
-  </si>
-  <si>
-    <t>receive_config_flag</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-8</t>
-  </si>
-  <si>
-    <t>ISSUECREATE</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>问题创建，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-9</t>
-  </si>
-  <si>
-    <t>ISSUEASSIGNEE</t>
-  </si>
-  <si>
-    <t>问题分配，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-10</t>
-  </si>
-  <si>
-    <t>ISSUESOLVE</t>
-  </si>
-  <si>
-    <t>问题已解决，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-11</t>
-  </si>
-  <si>
-    <t>ISSUECHANGESTATUS</t>
-  </si>
-  <si>
-    <t>问题状态变更，给相关用户发送通知</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-12</t>
-  </si>
-  <si>
-    <t>PROJECT_REPORT</t>
-  </si>
-  <si>
-    <t>PRO-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-13</t>
-  </si>
-  <si>
-    <t>ISSUE_COMMENT</t>
-  </si>
-  <si>
-    <t>问题评论</t>
-  </si>
-  <si>
-    <t>发送配置(其它)</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line</t>
-  </si>
-  <si>
-    <t>*temp_server_line_id</t>
-  </si>
-  <si>
-    <t>#temp_server_id</t>
-  </si>
-  <si>
-    <t>#type_code</t>
-  </si>
-  <si>
-    <t>server_id</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>server_code</t>
-  </si>
-  <si>
-    <t>try_times</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-14</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>CHOERODON-EMAIL</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-15</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-16</t>
-  </si>
-  <si>
-    <t>WEB_HOOK</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-17</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-18</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-19</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-20</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-21</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-22</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-23</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-24</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-25</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-26</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-27</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-28</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-29</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-30</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-31</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-32</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#edit</t>
-  </si>
-  <si>
-    <t>#TENANT_ID</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-31</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-32</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-33</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-34</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-35</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-27</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_message_template-28</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_CHANGE_STATUS.DINGTALKANDWECHAT</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_COMMENT_NOTICE.DINGTALKANDWECHAT</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_CHANGE_STATUS_JSON</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_COMMENT_NOTICE_JSON</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choerodon敏捷通知-问题分配</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choerodon敏捷通知-问题新评论</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","projectName":"${projectName}","url":"${url}"}}</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}"}}</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectName</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>issueSummary</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentUser</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>issueType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"projectName":"${projectName}","issueSummary":"${issueSummary}","link":"${link}","comment":"${comment}","action":"${action}","commentUser":"${commentUser}","commentType":"${commentType}","issueType":"${issueType}","url":"${url}"}}</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;p&gt;您${action}${issueType} &lt;a href=${url} target=_blank&gt;${issueSummary}&lt;/a&gt; 收到一条新的${commentType}。${commentType}内容如下：&lt;/p&gt;
 &lt;p&gt;${commentUser}：&lt;/p&gt;
 &lt;p&gt;${comment}&lt;/p&gt;</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_message_template-27</t>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT_NOTICE.DINGTALKANDWECHAT</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-28</t>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT_NOTICE_JSON</t>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"projectName":"${projectName}","issueSummary":"${issueSummary}","link":"${link}","comment":"${comment}","action":"${action}","commentUser":"${commentUser}","commentType":"${commentType}","issueType":"${issueType}","url":"${url}"}}</t>
+  </si>
+  <si>
+    <t>消息模板参数</t>
+  </si>
+  <si>
+    <t>hmsg_template_arg</t>
+  </si>
+  <si>
+    <t>*arg_id</t>
+  </si>
+  <si>
+    <t>#template_id</t>
+  </si>
+  <si>
+    <t>#arg_name</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>assigneeName</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>loginName</t>
+  </si>
+  <si>
+    <t>objectKind</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>operatorName</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>memberType</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>issueSummary</t>
+  </si>
+  <si>
+    <t>问题概要</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>工作列表链接</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>反馈说明</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>行为</t>
+  </si>
+  <si>
+    <t>commentUser</t>
+  </si>
+  <si>
+    <t>评论人</t>
+  </si>
+  <si>
+    <t>commentType</t>
+  </si>
+  <si>
+    <t>评论类型</t>
+  </si>
+  <si>
+    <t>issueType</t>
+  </si>
+  <si>
+    <t>问题类型</t>
+  </si>
+  <si>
+    <t>工作列表站内信链接</t>
+  </si>
+  <si>
+    <t>发送配置</t>
+  </si>
+  <si>
+    <t>hmsg_template_server</t>
+  </si>
+  <si>
+    <t>*temp_server_id</t>
+  </si>
+  <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>#message_code</t>
+  </si>
+  <si>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
+  </si>
+  <si>
+    <t>category_code</t>
+  </si>
+  <si>
+    <t>subcategory_code</t>
+  </si>
+  <si>
+    <t>receive_config_flag</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-8</t>
+  </si>
+  <si>
+    <t>ISSUECREATE</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
+  </si>
+  <si>
+    <t>问题创建，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-9</t>
+  </si>
+  <si>
+    <t>ISSUEASSIGNEE</t>
+  </si>
+  <si>
+    <t>问题分配，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-10</t>
+  </si>
+  <si>
+    <t>ISSUESOLVE</t>
+  </si>
+  <si>
+    <t>问题已解决，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-11</t>
+  </si>
+  <si>
+    <t>ISSUECHANGESTATUS</t>
+  </si>
+  <si>
+    <t>问题状态变更，给相关用户发送通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-12</t>
+  </si>
+  <si>
+    <t>PROJECT_REPORT</t>
+  </si>
+  <si>
+    <t>PRO-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-13</t>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT</t>
+  </si>
+  <si>
+    <t>问题评论</t>
+  </si>
+  <si>
+    <t>发送配置(其它)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line</t>
+  </si>
+  <si>
+    <t>*temp_server_line_id</t>
+  </si>
+  <si>
+    <t>#temp_server_id</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>server_id</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>server_code</t>
+  </si>
+  <si>
+    <t>try_times</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-14</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-15</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-16</t>
+  </si>
+  <si>
+    <t>WEB_HOOK</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-17</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-18</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-19</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-20</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-21</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-22</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-23</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-24</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-25</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-26</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-27</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-28</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-29</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-30</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-31</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-32</t>
   </si>
   <si>
     <t>hmsg_template_server_line-33</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>hmsg_template_server_line-34</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-31</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-32</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-33</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-34</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4079,31 +3911,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4149,6 +3981,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -4171,7 +4160,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4185,21 +4173,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4208,28 +4193,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4260,8 +4225,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4362,10 +4513,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4375,8 +4768,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4386,8 +4783,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4421,6 +4830,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4428,31 +4840,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4525,9 +4965,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4785,277 +5222,280 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="C1" s="34" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="35" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="17" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="23" t="s">
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="26" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="20" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="28" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="31" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="31" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="31" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="31" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="32" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="21" t="s">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="33" t="s">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="51.109375" customWidth="1"/>
-    <col min="10" max="10" width="152.5546875" customWidth="1"/>
-    <col min="11" max="11" width="112.88671875" customWidth="1"/>
-    <col min="13" max="13" width="73.6640625" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" customWidth="1"/>
-    <col min="15" max="15" width="29.44140625" customWidth="1"/>
-    <col min="16" max="16" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="29.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="44.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="29.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="24.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="51.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="152.555555555556" customWidth="1"/>
+    <col min="11" max="11" width="112.888888888889" customWidth="1"/>
+    <col min="13" max="13" width="73.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="23.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="29.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="29.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5069,7 +5509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5130,15 +5570,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="5:16">
       <c r="E8" t="s">
         <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>247</v>
+      <c r="G8" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
@@ -5162,7 +5602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="5:16">
       <c r="E9" t="s">
         <v>75</v>
       </c>
@@ -5188,7 +5628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42" customHeight="1">
+    <row r="10" ht="42" customHeight="1" spans="5:16">
       <c r="E10" t="s">
         <v>79</v>
       </c>
@@ -5201,7 +5641,7 @@
       <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>81</v>
       </c>
       <c r="N10" t="s">
@@ -5214,7 +5654,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="5:16">
       <c r="E11" t="s">
         <v>82</v>
       </c>
@@ -5240,7 +5680,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="5:16">
       <c r="E12" t="s">
         <v>85</v>
       </c>
@@ -5272,7 +5712,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="5:16">
       <c r="E13" t="s">
         <v>88</v>
       </c>
@@ -5298,7 +5738,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="5:16">
       <c r="E14" t="s">
         <v>92</v>
       </c>
@@ -5324,7 +5764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="5:16">
       <c r="E15" t="s">
         <v>95</v>
       </c>
@@ -5350,7 +5790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="5:16">
       <c r="E16" t="s">
         <v>97</v>
       </c>
@@ -5363,8 +5803,8 @@
       <c r="H16" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="39" t="s">
-        <v>249</v>
+      <c r="I16" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="J16" t="s">
         <v>70</v>
@@ -5382,7 +5822,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="5:16">
       <c r="E17" t="s">
         <v>100</v>
       </c>
@@ -5408,7 +5848,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="5:16">
       <c r="E18" t="s">
         <v>104</v>
       </c>
@@ -5421,7 +5861,7 @@
       <c r="H18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="9" t="s">
         <v>106</v>
       </c>
       <c r="N18" t="s">
@@ -5434,7 +5874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="5:16">
       <c r="E19" t="s">
         <v>107</v>
       </c>
@@ -5460,7 +5900,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="21.95" customHeight="1">
+    <row r="20" ht="21.95" customHeight="1" spans="5:16">
       <c r="E20" t="s">
         <v>110</v>
       </c>
@@ -5473,7 +5913,7 @@
       <c r="H20" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="9" t="s">
         <v>113</v>
       </c>
       <c r="N20" t="s">
@@ -5486,7 +5926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="5:16">
       <c r="E21" t="s">
         <v>114</v>
       </c>
@@ -5499,7 +5939,7 @@
       <c r="H21" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="9" t="s">
         <v>116</v>
       </c>
       <c r="N21" t="s">
@@ -5512,12 +5952,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.95" customHeight="1">
+    <row r="22" ht="18.95" customHeight="1" spans="5:16">
       <c r="E22" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>243</v>
+      <c r="F22" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="G22" t="s">
         <v>112</v>
@@ -5525,7 +5965,7 @@
       <c r="H22" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="9" t="s">
         <v>116</v>
       </c>
       <c r="N22" t="s">
@@ -5538,12 +5978,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.95" customHeight="1">
+    <row r="23" ht="18.95" customHeight="1" spans="5:16">
       <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>245</v>
+      <c r="F23" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="G23" t="s">
         <v>112</v>
@@ -5551,8 +5991,8 @@
       <c r="H23" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="40" t="s">
-        <v>250</v>
+      <c r="I23" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="N23" t="s">
         <v>72</v>
@@ -5564,21 +6004,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="21.95" customHeight="1">
+    <row r="24" ht="21.95" customHeight="1" spans="5:16">
       <c r="E24" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="8" t="s">
         <v>124</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>72</v>
@@ -5590,23 +6030,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="21.95" customHeight="1">
+    <row r="25" ht="21.95" customHeight="1" spans="5:16">
       <c r="E25" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>248</v>
+        <v>127</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J25" s="39"/>
+      <c r="I25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="7"/>
       <c r="K25" s="5" t="s">
         <v>71</v>
       </c>
@@ -5620,21 +6060,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="21.95" customHeight="1">
+    <row r="26" ht="21.95" customHeight="1" spans="5:16">
       <c r="E26" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" s="40" t="s">
-        <v>261</v>
+        <v>132</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="K26" s="5"/>
       <c r="N26" s="5" t="s">
@@ -5647,21 +6087,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="21.95" customHeight="1">
-      <c r="E27" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>244</v>
+    <row r="27" ht="21.95" customHeight="1" spans="5:16">
+      <c r="E27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27" s="40" t="s">
-        <v>261</v>
+        <v>132</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="K27" s="5"/>
       <c r="N27" s="5" t="s">
@@ -5674,21 +6114,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="21.95" customHeight="1">
-      <c r="E28" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>260</v>
+    <row r="28" ht="21.95" customHeight="1" spans="5:16">
+      <c r="E28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="J28" t="s">
         <v>70</v>
@@ -5704,884 +6144,875 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="21.95" customHeight="1">
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" ht="21.95" customHeight="1">
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="7">
+    <row r="29" ht="21.95" customHeight="1" spans="9:9">
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" ht="21.95" customHeight="1" spans="9:9">
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="8">
         <v>44036</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
       <c r="E32" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G39" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G41" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G47" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G48" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G56" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G59" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G60" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G61" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G63" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G64" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G65" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G66" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G69" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G70" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G71" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G72" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
       <c r="G73" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G74" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G75" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G77" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G78" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G79" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G80" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F81" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F82" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G82" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F83" t="str">
-        <f>$E$20</f>
+        <f t="shared" ref="F83:F87" si="0">$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G83" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F84" t="str">
-        <f>$E$20</f>
+        <f t="shared" si="0"/>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G84" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F85" t="str">
-        <f>$E$20</f>
+        <f t="shared" si="0"/>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G85" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F86" t="str">
-        <f>$E$20</f>
+        <f t="shared" si="0"/>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G86" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="5:7">
-      <c r="E87" t="s">
-        <v>139</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7">
       <c r="F87" t="str">
-        <f>$E$21</f>
-        <v>hmsg_message_template-21</v>
+        <f t="shared" si="0"/>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G87" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F88" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F89" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G89" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F90" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G90" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F91" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G91" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F92" t="str">
-        <f>$E$22</f>
-        <v>hmsg_message_template-22</v>
+        <f>$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G92" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="5:7">
-      <c r="E93" t="s">
-        <v>139</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7">
       <c r="F93" t="str">
-        <f>$E$22</f>
-        <v>hmsg_message_template-22</v>
+        <f>$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G93" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F94" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G94" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F95" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F96" t="str">
         <f>$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G96" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="5:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F97" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="5:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F98" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G98" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="5:8">
-      <c r="E99" t="s">
-        <v>139</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
       <c r="F99" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f>$E$22</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G99" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="5:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G100" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="5:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$23</f>
@@ -6591,124 +7022,109 @@
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="5:8">
+    <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G103" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="5:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G104" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="5:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G105" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="5:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F106" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7">
+      <c r="E107" t="s">
+        <v>146</v>
+      </c>
+      <c r="F107" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7">
+      <c r="E108" t="s">
+        <v>146</v>
+      </c>
+      <c r="F108" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7">
+      <c r="F109" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7">
+      <c r="E110" t="s">
+        <v>146</v>
+      </c>
+      <c r="F110" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
-      <c r="G106" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="5:8">
-      <c r="E107" t="s">
-        <v>139</v>
-      </c>
-      <c r="F107" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>145</v>
-      </c>
-      <c r="H107" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="5:8">
-      <c r="E108" t="s">
-        <v>139</v>
-      </c>
-      <c r="F108" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="5:8">
-      <c r="E109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F109" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G109" t="s">
-        <v>155</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="5:8">
-      <c r="E110" t="s">
-        <v>139</v>
-      </c>
-      <c r="F110" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
       <c r="G110" t="s">
-        <v>157</v>
-      </c>
-      <c r="H110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G111" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H111" t="s">
         <v>160</v>
@@ -6716,28 +7132,28 @@
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" t="s">
         <v>163</v>
       </c>
       <c r="H113" s="5" t="s">
@@ -6746,89 +7162,89 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" t="s">
         <v>165</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F115" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-26</v>
-      </c>
-      <c r="G115" s="39" t="s">
-        <v>251</v>
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G115" t="s">
+        <v>167</v>
       </c>
       <c r="H115" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F116" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-26</v>
-      </c>
-      <c r="G116" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>154</v>
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>169</v>
+      </c>
+      <c r="H116" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="5:8">
       <c r="E117" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F117" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-26</v>
-      </c>
-      <c r="G117" s="39" t="s">
-        <v>253</v>
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="5:8">
       <c r="E118" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F118" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-26</v>
-      </c>
-      <c r="G118" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="H118" t="s">
-        <v>158</v>
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-25</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="5:8">
       <c r="E119" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G119" s="39" t="s">
-        <v>255</v>
+      <c r="G119" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="H119" t="s">
         <v>160</v>
@@ -6836,29 +7252,29 @@
     </row>
     <row r="120" spans="5:8">
       <c r="E120" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G120" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="G120" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="121" spans="5:8">
       <c r="E121" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G121" s="39" t="s">
-        <v>257</v>
+      <c r="G121" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>164</v>
@@ -6866,104 +7282,104 @@
     </row>
     <row r="122" spans="5:8">
       <c r="E122" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F122" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G122" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="H122" s="5" t="s">
+      <c r="G122" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H122" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="123" spans="5:8">
       <c r="E123" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F123" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G123" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="H123" s="5" t="s">
+      <c r="G123" s="7" t="s">
         <v>167</v>
+      </c>
+      <c r="H123" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="5:8">
       <c r="E124" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F124" t="str">
-        <f>消息模板!$E$27</f>
-        <v>hmsg_message_template-27</v>
-      </c>
-      <c r="G124" s="39" t="s">
-        <v>251</v>
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="H124" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="5:8">
       <c r="E125" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F125" t="str">
-        <f>消息模板!$E$27</f>
-        <v>hmsg_message_template-27</v>
-      </c>
-      <c r="G125" s="39" t="s">
-        <v>252</v>
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="5:8">
       <c r="E126" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F126" t="str">
-        <f>消息模板!$E$27</f>
-        <v>hmsg_message_template-27</v>
-      </c>
-      <c r="G126" s="39" t="s">
-        <v>253</v>
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="5:8">
       <c r="E127" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F127" t="str">
-        <f>消息模板!$E$27</f>
-        <v>hmsg_message_template-27</v>
-      </c>
-      <c r="G127" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="H127" t="s">
-        <v>158</v>
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-26</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="5:8">
       <c r="E128" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F128" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G128" s="39" t="s">
-        <v>255</v>
+      <c r="G128" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="H128" t="s">
         <v>160</v>
@@ -6971,29 +7387,29 @@
     </row>
     <row r="129" spans="5:8">
       <c r="E129" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F129" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G129" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="G129" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="130" spans="5:8">
       <c r="E130" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F130" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G130" s="39" t="s">
-        <v>257</v>
+      <c r="G130" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>164</v>
@@ -7001,104 +7417,104 @@
     </row>
     <row r="131" spans="5:8">
       <c r="E131" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F131" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G131" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="H131" s="5" t="s">
+      <c r="G131" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H131" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="132" spans="5:8">
       <c r="E132" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F132" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G132" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="H132" s="5" t="s">
+      <c r="G132" s="7" t="s">
         <v>167</v>
+      </c>
+      <c r="H132" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="5:8">
       <c r="E133" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F133" t="str">
-        <f>消息模板!$E$28</f>
-        <v>hmsg_message_template-28</v>
-      </c>
-      <c r="G133" s="39" t="s">
-        <v>251</v>
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="H133" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="5:8">
       <c r="E134" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F134" t="str">
-        <f>消息模板!$E$28</f>
-        <v>hmsg_message_template-28</v>
-      </c>
-      <c r="G134" s="39" t="s">
-        <v>252</v>
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="5:8">
       <c r="E135" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F135" t="str">
-        <f>消息模板!$E$28</f>
-        <v>hmsg_message_template-28</v>
-      </c>
-      <c r="G135" s="39" t="s">
-        <v>253</v>
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="5:8">
       <c r="E136" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F136" t="str">
-        <f>消息模板!$E$28</f>
-        <v>hmsg_message_template-28</v>
-      </c>
-      <c r="G136" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="H136" t="s">
-        <v>158</v>
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-27</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="5:8">
       <c r="E137" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F137" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G137" s="39" t="s">
-        <v>255</v>
+      <c r="G137" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="H137" t="s">
         <v>160</v>
@@ -7106,29 +7522,29 @@
     </row>
     <row r="138" spans="5:8">
       <c r="E138" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F138" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G138" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="G138" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H138" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="139" spans="5:8">
       <c r="E139" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F139" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G139" s="39" t="s">
-        <v>257</v>
+      <c r="G139" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>164</v>
@@ -7136,66 +7552,127 @@
     </row>
     <row r="140" spans="5:8">
       <c r="E140" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F140" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G140" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="H140" s="5" t="s">
+      <c r="G140" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H140" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="141" spans="5:8">
       <c r="E141" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F141" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G141" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="H141" s="5" t="s">
+      <c r="G141" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="H141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="5:8">
+      <c r="E142" t="s">
+        <v>146</v>
+      </c>
+      <c r="F142" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="5:8">
+      <c r="E143" t="s">
+        <v>146</v>
+      </c>
+      <c r="F143" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="5:8">
+      <c r="E144" t="s">
+        <v>146</v>
+      </c>
+      <c r="F144" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="5:8">
+      <c r="E145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F145" t="str">
+        <f>消息模板!$E$28</f>
+        <v>hmsg_message_template-28</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="E5" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="29.88671875" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="15.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="34.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="34.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="33.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="29.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="20.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="29.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="22.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="17.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7209,7 +7686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7228,48 +7705,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="O7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -7278,7 +7755,7 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
@@ -7290,21 +7767,21 @@
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -7313,7 +7790,7 @@
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -7325,21 +7802,21 @@
         <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -7348,7 +7825,7 @@
         <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I10" t="s">
         <v>102</v>
@@ -7360,21 +7837,21 @@
         <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M10" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="5:15">
       <c r="E11" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -7383,7 +7860,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="I11" t="s">
         <v>112</v>
@@ -7395,21 +7872,21 @@
         <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M11" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
       <c r="E12" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -7418,33 +7895,33 @@
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
         <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M12" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="N12" t="s">
         <v>73</v>
       </c>
       <c r="O12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
       <c r="E13" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -7453,31 +7930,31 @@
         <v>74</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K13" t="s">
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="N13" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -7485,49 +7962,49 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="J15" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K15" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L15" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F16" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G16" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H16" t="s">
         <v>93</v>
@@ -7536,7 +8013,7 @@
         <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
@@ -7547,14 +8024,14 @@
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F17" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G17" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H17" t="s">
         <v>96</v>
@@ -7568,14 +8045,14 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F18" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G18" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -7589,14 +8066,14 @@
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F19" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H19" t="s">
         <v>86</v>
@@ -7610,14 +8087,14 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G20" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
@@ -7626,7 +8103,7 @@
         <v>73</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -7637,14 +8114,14 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F21" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G21" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
@@ -7658,14 +8135,14 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F22" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H22" t="s">
         <v>76</v>
@@ -7679,14 +8156,14 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F23" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G23" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H23" t="s">
         <v>67</v>
@@ -7700,14 +8177,14 @@
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F24" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G24" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H24" t="s">
         <v>105</v>
@@ -7716,7 +8193,7 @@
         <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
         <v>73</v>
@@ -7727,14 +8204,14 @@
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G25" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -7748,14 +8225,14 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H26" t="s">
         <v>101</v>
@@ -7767,16 +8244,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:13" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="5:13">
       <c r="E27" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F27" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G27" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>98</v>
@@ -7790,14 +8267,14 @@
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ref="F28:F30" si="0">$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G28" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -7806,7 +8283,7 @@
         <v>73</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s">
         <v>73</v>
@@ -7817,14 +8294,14 @@
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G29" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H29" t="s">
         <v>115</v>
@@ -7838,14 +8315,14 @@
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
         <v>118</v>
@@ -7859,14 +8336,14 @@
     </row>
     <row r="31" spans="5:13">
       <c r="E31" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F31" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G31" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
         <v>120</v>
@@ -7880,23 +8357,23 @@
     </row>
     <row r="32" spans="5:13">
       <c r="E32" s="5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F32" t="str">
         <f>$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
         <v>73</v>
       </c>
       <c r="K32" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s">
         <v>73</v>
@@ -7905,25 +8382,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="5:13">
       <c r="E33" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F33" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G33" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I33" t="s">
         <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
@@ -7932,19 +8409,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="5:13">
       <c r="E34" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F34" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G34" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s">
         <v>73</v>
@@ -7953,19 +8430,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="E35" s="39" t="s">
-        <v>262</v>
+    <row r="35" spans="5:13">
+      <c r="E35" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="F35" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G35" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="L35" t="s">
         <v>73</v>
@@ -7974,19 +8451,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="E36" s="39" t="s">
-        <v>263</v>
+    <row r="36" spans="5:13">
+      <c r="E36" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="F36" t="str">
         <f>$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G36" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s">
         <v>73</v>
@@ -7995,38 +8472,38 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="7">
+    <row r="39" spans="1:8">
+      <c r="A39" s="8">
         <v>44036</v>
       </c>
       <c r="B39" t="s">
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H39" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F40" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -8035,12 +8512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -8049,12 +8526,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -8063,12 +8540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="5:8">
       <c r="E43" s="5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -8077,12 +8554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="5:8">
       <c r="E44" s="5" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -8092,8 +8569,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="251">
   <si>
     <r>
       <rPr>
@@ -3895,12 +3895,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3935,12 +3935,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3982,73 +3976,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -4058,45 +3985,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4117,11 +4005,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4132,10 +4080,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4159,13 +4147,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -4178,12 +4159,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -4227,7 +4202,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4239,7 +4226,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4251,19 +4352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4275,139 +4376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4516,24 +4491,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4554,42 +4525,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4611,156 +4556,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4768,12 +4743,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4783,44 +4754,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4833,7 +4804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5236,8 +5207,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
@@ -5253,79 +5224,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="16"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -5333,56 +5304,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5392,30 +5363,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -5423,7 +5394,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -5431,25 +5402,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5474,8 +5445,8 @@
   <sheetPr/>
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="D90" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5577,7 +5548,7 @@
       <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H8" t="s">
@@ -5641,7 +5612,7 @@
       <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>81</v>
       </c>
       <c r="N10" t="s">
@@ -5803,7 +5774,7 @@
       <c r="H16" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>69</v>
       </c>
       <c r="J16" t="s">
@@ -5861,7 +5832,7 @@
       <c r="H18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>106</v>
       </c>
       <c r="N18" t="s">
@@ -5913,7 +5884,7 @@
       <c r="H20" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>113</v>
       </c>
       <c r="N20" t="s">
@@ -5939,7 +5910,7 @@
       <c r="H21" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>116</v>
       </c>
       <c r="N21" t="s">
@@ -5956,7 +5927,7 @@
       <c r="E22" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G22" t="s">
@@ -5965,7 +5936,7 @@
       <c r="H22" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>116</v>
       </c>
       <c r="N22" t="s">
@@ -5982,7 +5953,7 @@
       <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>120</v>
       </c>
       <c r="G23" t="s">
@@ -5991,7 +5962,7 @@
       <c r="H23" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="8" t="s">
         <v>121</v>
       </c>
       <c r="N23" t="s">
@@ -6017,7 +5988,7 @@
       <c r="H24" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>125</v>
       </c>
       <c r="N24" s="5" t="s">
@@ -6037,16 +6008,16 @@
       <c r="F25" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>128</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
         <v>71</v>
       </c>
@@ -6073,7 +6044,7 @@
       <c r="H26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="8" t="s">
         <v>133</v>
       </c>
       <c r="K26" s="5"/>
@@ -6088,10 +6059,10 @@
       </c>
     </row>
     <row r="27" ht="21.95" customHeight="1" spans="5:16">
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -6100,7 +6071,7 @@
       <c r="H27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="8" t="s">
         <v>133</v>
       </c>
       <c r="K27" s="5"/>
@@ -6115,19 +6086,19 @@
       </c>
     </row>
     <row r="28" ht="21.95" customHeight="1" spans="5:16">
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="8" t="s">
         <v>138</v>
       </c>
       <c r="J28" t="s">
@@ -6145,13 +6116,13 @@
       </c>
     </row>
     <row r="29" ht="21.95" customHeight="1" spans="9:9">
-      <c r="I29" s="9"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" ht="21.95" customHeight="1" spans="9:9">
-      <c r="I30" s="9"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>44036</v>
       </c>
       <c r="B31" t="s">
@@ -6839,7 +6810,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="6:7">
+    <row r="87" spans="5:7">
+      <c r="E87" t="s">
+        <v>146</v>
+      </c>
       <c r="F87" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_message_template-20</v>
@@ -6853,7 +6827,7 @@
         <v>146</v>
       </c>
       <c r="F88" t="str">
-        <f>$E$21</f>
+        <f t="shared" ref="F88:F93" si="1">$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G88" t="s">
@@ -6865,7 +6839,7 @@
         <v>146</v>
       </c>
       <c r="F89" t="str">
-        <f>$E$21</f>
+        <f t="shared" si="1"/>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G89" t="s">
@@ -6877,7 +6851,7 @@
         <v>146</v>
       </c>
       <c r="F90" t="str">
-        <f>$E$21</f>
+        <f t="shared" si="1"/>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G90" t="s">
@@ -6889,7 +6863,7 @@
         <v>146</v>
       </c>
       <c r="F91" t="str">
-        <f>$E$21</f>
+        <f t="shared" si="1"/>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G91" t="s">
@@ -6908,7 +6882,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="6:7">
+    <row r="93" spans="5:7">
+      <c r="E93" t="s">
+        <v>146</v>
+      </c>
       <c r="F93" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
@@ -6922,7 +6899,7 @@
         <v>146</v>
       </c>
       <c r="F94" t="str">
-        <f>$E$22</f>
+        <f t="shared" ref="F94:F99" si="2">$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G94" t="s">
@@ -6934,7 +6911,7 @@
         <v>146</v>
       </c>
       <c r="F95" t="str">
-        <f>$E$22</f>
+        <f t="shared" si="2"/>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G95" t="s">
@@ -6946,7 +6923,7 @@
         <v>146</v>
       </c>
       <c r="F96" t="str">
-        <f>$E$22</f>
+        <f t="shared" si="2"/>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G96" t="s">
@@ -6958,7 +6935,7 @@
         <v>146</v>
       </c>
       <c r="F97" t="str">
-        <f>$E$22</f>
+        <f t="shared" si="2"/>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G97" t="s">
@@ -6970,16 +6947,19 @@
         <v>146</v>
       </c>
       <c r="F98" t="str">
-        <f>$E$22</f>
+        <f t="shared" si="2"/>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G98" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="6:7">
+    <row r="99" spans="5:7">
+      <c r="E99" t="s">
+        <v>146</v>
+      </c>
       <c r="F99" t="str">
-        <f>$E$22</f>
+        <f t="shared" si="2"/>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G99" t="s">
@@ -7094,7 +7074,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="6:7">
+    <row r="109" spans="5:7">
+      <c r="E109" t="s">
+        <v>146</v>
+      </c>
       <c r="F109" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
@@ -7243,7 +7226,7 @@
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G119" s="5" t="s">
         <v>152</v>
       </c>
       <c r="H119" t="s">
@@ -7258,7 +7241,7 @@
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="G120" s="5" t="s">
         <v>161</v>
       </c>
       <c r="H120" s="5" t="s">
@@ -7273,7 +7256,7 @@
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="G121" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H121" s="5" t="s">
@@ -7288,7 +7271,7 @@
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G122" s="5" t="s">
         <v>165</v>
       </c>
       <c r="H122" t="s">
@@ -7303,7 +7286,7 @@
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G123" s="5" t="s">
         <v>167</v>
       </c>
       <c r="H123" t="s">
@@ -7318,7 +7301,7 @@
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G124" s="7" t="s">
+      <c r="G124" s="5" t="s">
         <v>169</v>
       </c>
       <c r="H124" t="s">
@@ -7333,7 +7316,7 @@
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G125" s="7" t="s">
+      <c r="G125" s="5" t="s">
         <v>171</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -7348,7 +7331,7 @@
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G126" s="5" t="s">
         <v>173</v>
       </c>
       <c r="H126" s="5" t="s">
@@ -7363,7 +7346,7 @@
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
-      <c r="G127" s="7" t="s">
+      <c r="G127" s="5" t="s">
         <v>154</v>
       </c>
       <c r="H127" s="5" t="s">
@@ -7378,7 +7361,7 @@
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="G128" s="5" t="s">
         <v>152</v>
       </c>
       <c r="H128" t="s">
@@ -7393,7 +7376,7 @@
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="G129" s="5" t="s">
         <v>161</v>
       </c>
       <c r="H129" s="5" t="s">
@@ -7408,7 +7391,7 @@
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G130" s="7" t="s">
+      <c r="G130" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H130" s="5" t="s">
@@ -7423,7 +7406,7 @@
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G131" s="7" t="s">
+      <c r="G131" s="5" t="s">
         <v>165</v>
       </c>
       <c r="H131" t="s">
@@ -7438,7 +7421,7 @@
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="G132" s="5" t="s">
         <v>167</v>
       </c>
       <c r="H132" t="s">
@@ -7453,7 +7436,7 @@
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="G133" s="5" t="s">
         <v>169</v>
       </c>
       <c r="H133" t="s">
@@ -7468,7 +7451,7 @@
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="G134" s="5" t="s">
         <v>171</v>
       </c>
       <c r="H134" s="5" t="s">
@@ -7483,7 +7466,7 @@
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="G135" s="5" t="s">
         <v>173</v>
       </c>
       <c r="H135" s="5" t="s">
@@ -7498,7 +7481,7 @@
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="G136" s="5" t="s">
         <v>154</v>
       </c>
       <c r="H136" s="5" t="s">
@@ -7513,7 +7496,7 @@
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G137" s="7" t="s">
+      <c r="G137" s="5" t="s">
         <v>152</v>
       </c>
       <c r="H137" t="s">
@@ -7528,7 +7511,7 @@
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="G138" s="5" t="s">
         <v>161</v>
       </c>
       <c r="H138" s="5" t="s">
@@ -7543,7 +7526,7 @@
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G139" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H139" s="5" t="s">
@@ -7558,7 +7541,7 @@
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G140" s="7" t="s">
+      <c r="G140" s="5" t="s">
         <v>165</v>
       </c>
       <c r="H140" t="s">
@@ -7573,7 +7556,7 @@
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G141" s="7" t="s">
+      <c r="G141" s="5" t="s">
         <v>167</v>
       </c>
       <c r="H141" t="s">
@@ -7588,7 +7571,7 @@
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="G142" s="5" t="s">
         <v>169</v>
       </c>
       <c r="H142" t="s">
@@ -7603,7 +7586,7 @@
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G143" s="7" t="s">
+      <c r="G143" s="5" t="s">
         <v>171</v>
       </c>
       <c r="H143" s="5" t="s">
@@ -7618,7 +7601,7 @@
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G144" s="7" t="s">
+      <c r="G144" s="5" t="s">
         <v>173</v>
       </c>
       <c r="H144" s="5" t="s">
@@ -7633,7 +7616,7 @@
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="G145" s="5" t="s">
         <v>154</v>
       </c>
       <c r="H145" s="5" t="s">
@@ -7651,7 +7634,7 @@
   <sheetPr/>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -8431,7 +8414,7 @@
       </c>
     </row>
     <row r="35" spans="5:13">
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>240</v>
       </c>
       <c r="F35" t="str">
@@ -8452,7 +8435,7 @@
       </c>
     </row>
     <row r="36" spans="5:13">
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>241</v>
       </c>
       <c r="F36" t="str">
@@ -8473,7 +8456,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>44036</v>
       </c>
       <c r="B39" t="s">

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/hzero_message/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6281BFCA-965B-0444-ABCA-7F4AD0D6A153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="609" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,30 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="253">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -38,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -47,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -59,6 +79,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -68,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -77,6 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -86,6 +109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -95,6 +119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -104,6 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -113,6 +139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -144,6 +171,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -153,6 +181,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -162,6 +191,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -171,6 +201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -180,6 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -189,6 +221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -201,6 +234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -211,6 +245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -221,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -231,6 +267,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -241,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -252,6 +290,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -261,6 +300,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -272,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -281,6 +322,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -292,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -301,6 +344,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -310,6 +354,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -321,6 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -330,6 +376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -339,6 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -348,6 +396,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -357,6 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -366,6 +416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -375,6 +426,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -384,6 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -393,6 +446,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -402,6 +456,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -431,6 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -440,6 +496,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -449,6 +506,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -458,6 +516,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -467,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -476,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -485,6 +546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -494,6 +556,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -505,6 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -514,6 +578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -523,6 +588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -532,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -541,6 +608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -550,6 +618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -560,6 +629,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -569,6 +639,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -578,6 +649,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -587,6 +659,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -597,6 +670,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -606,6 +680,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -615,6 +690,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -626,6 +702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -635,6 +712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -644,6 +722,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -653,6 +732,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -662,6 +742,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -676,6 +757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -685,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -694,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -703,6 +787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -712,6 +797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -721,6 +807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -730,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -739,6 +827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -748,6 +837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -757,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -768,6 +859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -777,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -786,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -796,6 +890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -806,6 +901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -816,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -826,6 +923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -835,6 +933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -844,6 +943,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -853,6 +953,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -862,6 +963,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -876,6 +978,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -885,6 +988,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -894,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -903,6 +1008,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -912,6 +1018,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -922,6 +1029,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -931,6 +1039,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -941,6 +1050,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -950,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -960,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -969,6 +1081,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -980,6 +1093,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -989,6 +1103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -999,6 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1008,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1024,6 +1141,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1033,6 +1151,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1044,6 +1163,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1053,6 +1173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1064,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1073,6 +1195,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1082,6 +1205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1091,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1102,6 +1227,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1111,6 +1237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1120,6 +1247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1132,6 +1260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1141,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1150,6 +1280,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1159,6 +1290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1168,6 +1300,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1177,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1186,6 +1320,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1200,6 +1335,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1209,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1218,6 +1355,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1227,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1236,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1245,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1254,6 +1395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1263,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1272,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1287,6 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1296,6 +1441,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1305,6 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1314,6 +1461,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1329,6 +1477,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1338,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1347,6 +1497,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1356,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1370,6 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1379,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1388,6 +1542,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1397,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1406,6 +1562,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1415,6 +1572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1425,6 +1583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1434,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1448,6 +1608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1457,6 +1618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1466,6 +1628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1475,6 +1638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1484,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1493,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1503,6 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1512,6 +1679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1523,6 +1691,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1533,6 +1702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1542,6 +1712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1553,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1562,6 +1734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1571,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1580,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1589,6 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1598,6 +1774,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1607,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1617,6 +1795,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1626,6 +1805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1635,6 +1815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1644,6 +1825,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1653,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1662,6 +1845,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1671,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1681,6 +1866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1690,6 +1876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1699,6 +1886,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1708,6 +1896,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1717,6 +1906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1726,6 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1735,6 +1926,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1744,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1754,6 +1947,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1765,6 +1959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1775,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1784,6 +1980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1795,6 +1992,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1804,6 +2002,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1813,6 +2012,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1824,6 +2024,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1833,6 +2034,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1842,6 +2044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1851,6 +2054,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1861,6 +2065,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1940,9 +2145,6 @@
   </si>
   <si>
     <t>Choerodon敏捷通知-问题分配</t>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","projectName":"${projectName}","url":"${url}"}}</t>
   </si>
   <si>
     <t>project</t>
@@ -2230,9 +2432,6 @@
   </si>
   <si>
     <t>ISSUE_ASSIGNEE.WEB</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;${operatorName}将&lt;a href=${url} target=_blank&gt;${summary}&lt;/a &gt; 分配给 ${assigneeName}&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-12</t>
@@ -3061,9 +3260,6 @@
     <t>ISSUE_CHANGE_STATUS_JSON</t>
   </si>
   <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}","memberType":"${memberType}"}}</t>
-  </si>
-  <si>
     <t>hmsg_message_template-24</t>
   </si>
   <si>
@@ -3889,18 +4085,32 @@
   <si>
     <t>notify_message_setting_config-35</t>
   </si>
+  <si>
+    <t>问题状态变更</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;${operatorName}将&lt;a href=${url} target=_blank&gt;${summary}&lt;/a &gt; 分配给 ${assigneeName}&lt;/p&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","projectName":"${projectName}","url":"${url}","operatorName":"${operatorName}"}}</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"summary":"${summary}","assigneeName":"${assigneeName}","operatorName":"${operatorName}","status":"${status}","memberType":"${memberType}"}}</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatorName</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3911,36 +4121,37 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3948,187 +4159,42 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4148,28 +4214,45 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4200,194 +4283,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4488,254 +4385,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4754,20 +4409,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4801,9 +4444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4811,59 +4451,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4936,6 +4548,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5193,280 +4808,277 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="57">
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="1:8" ht="57">
+      <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="1:8" ht="76">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="1:8" ht="19">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="32" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="38">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="36" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="36" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="36" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="36" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="3:5" ht="57">
+      <c r="C27" s="33" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D90" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="29.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="44.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="29.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="24.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="51.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="152.555555555556" customWidth="1"/>
-    <col min="11" max="11" width="112.888888888889" customWidth="1"/>
-    <col min="13" max="13" width="73.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="23.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="29.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="29.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" customWidth="1"/>
+    <col min="10" max="10" width="152.5703125" customWidth="1"/>
+    <col min="11" max="11" width="112.85546875" customWidth="1"/>
+    <col min="13" max="13" width="73.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5480,7 +5092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:16">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5541,7 +5153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="5:16">
+    <row r="8" spans="1:16">
       <c r="E8" t="s">
         <v>66</v>
       </c>
@@ -5554,57 +5166,57 @@
       <c r="H8" t="s">
         <v>68</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="J8" t="s">
         <v>69</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="N8" t="s">
         <v>71</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>72</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>73</v>
       </c>
-      <c r="P8" t="s">
+    </row>
+    <row r="9" spans="1:16">
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="5:16">
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>76</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
         <v>77</v>
       </c>
-      <c r="H9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="42" customHeight="1">
+      <c r="E10" t="s">
         <v>78</v>
       </c>
-      <c r="N9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" ht="42" customHeight="1" spans="5:16">
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
       </c>
       <c r="G10" t="s">
         <v>68</v>
@@ -5613,515 +5225,515 @@
         <v>68</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="E11" t="s">
         <v>81</v>
       </c>
-      <c r="N10" t="s">
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
         <v>72</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P11" t="s">
         <v>73</v>
       </c>
-      <c r="P10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="5:16">
-      <c r="E11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:16">
+      <c r="E12" t="s">
         <v>83</v>
       </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="F12" t="s">
         <v>84</v>
       </c>
-      <c r="N11" t="s">
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
         <v>72</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P12" t="s">
         <v>73</v>
       </c>
-      <c r="P11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="5:16">
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:16">
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
         <v>85</v>
       </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" t="s">
         <v>69</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K16" t="s">
         <v>70</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N16" t="s">
         <v>71</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O16" t="s">
         <v>72</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P16" t="s">
         <v>73</v>
       </c>
-      <c r="P12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="5:16">
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" t="s">
+    </row>
+    <row r="17" spans="1:16">
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
         <v>72</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P17" t="s">
         <v>73</v>
       </c>
-      <c r="P13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="5:16">
-      <c r="E14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" t="s">
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1">
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
         <v>72</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P18" t="s">
         <v>73</v>
       </c>
-      <c r="P14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="5:16">
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" t="s">
+    </row>
+    <row r="19" spans="1:16">
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" t="s">
         <v>72</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P19" t="s">
         <v>73</v>
       </c>
-      <c r="P15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="5:16">
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" t="s">
+    </row>
+    <row r="20" spans="1:16" ht="22" customHeight="1">
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" t="s">
         <v>71</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O20" t="s">
         <v>72</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P20" t="s">
         <v>73</v>
       </c>
-      <c r="P16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="5:16">
-      <c r="E17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N17" t="s">
+    </row>
+    <row r="21" spans="1:16" ht="20" customHeight="1">
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
         <v>72</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P21" t="s">
         <v>73</v>
       </c>
-      <c r="P17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="5:16">
-      <c r="E18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="N18" t="s">
+    </row>
+    <row r="22" spans="1:16" ht="19" customHeight="1">
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" t="s">
         <v>72</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P22" t="s">
         <v>73</v>
       </c>
-      <c r="P18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="5:16">
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N19" t="s">
+    </row>
+    <row r="23" spans="1:16" ht="19" customHeight="1">
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="N23" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" t="s">
         <v>72</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P23" t="s">
         <v>73</v>
       </c>
-      <c r="P19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" ht="21.95" customHeight="1" spans="5:16">
-      <c r="E20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N20" t="s">
+    </row>
+    <row r="24" spans="1:16" ht="22" customHeight="1">
+      <c r="E24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" t="s">
         <v>72</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P24" t="s">
         <v>73</v>
       </c>
-      <c r="P20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1" spans="5:16">
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="N21" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" t="s">
-        <v>73</v>
-      </c>
-      <c r="P21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" ht="18.95" customHeight="1" spans="5:16">
-      <c r="E22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="N22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O22" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" ht="18.95" customHeight="1" spans="5:16">
-      <c r="E23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N23" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" t="s">
-        <v>73</v>
-      </c>
-      <c r="P23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" ht="21.95" customHeight="1" spans="5:16">
-      <c r="E24" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" t="s">
+    </row>
+    <row r="25" spans="1:16" ht="22" customHeight="1">
+      <c r="E25" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F25" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="G25" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" t="s">
-        <v>73</v>
-      </c>
-      <c r="P24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" ht="21.95" customHeight="1" spans="5:16">
-      <c r="E25" s="5" t="s">
+      <c r="H25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="O25" t="s">
         <v>72</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>73</v>
       </c>
-      <c r="P25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" ht="21.95" customHeight="1" spans="5:16">
+    </row>
+    <row r="26" spans="1:16" ht="22" customHeight="1">
       <c r="E26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="K26" s="5"/>
       <c r="N26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" t="s">
         <v>72</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>73</v>
       </c>
-      <c r="P26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" ht="21.95" customHeight="1" spans="5:16">
+    </row>
+    <row r="27" spans="1:16" ht="22" customHeight="1">
       <c r="E27" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K27" s="5"/>
       <c r="N27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" t="s">
         <v>72</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>73</v>
       </c>
-      <c r="P27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" ht="21.95" customHeight="1" spans="5:16">
+    </row>
+    <row r="28" spans="1:16" ht="22" customHeight="1">
       <c r="E28" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28" s="5"/>
       <c r="N28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" t="s">
         <v>72</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>73</v>
       </c>
-      <c r="P28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" ht="21.95" customHeight="1" spans="9:9">
+    </row>
+    <row r="29" spans="1:16" ht="22" customHeight="1">
       <c r="I29" s="8"/>
     </row>
-    <row r="30" ht="21.95" customHeight="1" spans="9:9">
+    <row r="30" spans="1:16" ht="22" customHeight="1">
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:16">
       <c r="A31" s="7">
         <v>44036</v>
       </c>
@@ -6129,1533 +5741,1580 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="H31" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="I31" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7">
+    </row>
+    <row r="32" spans="1:16">
       <c r="E32" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
-      <c r="G40" t="s">
-        <v>155</v>
+      <c r="G40" s="39" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F41" t="str">
-        <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
       </c>
       <c r="G41" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G47" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G48" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G49" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F50" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>147</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F51" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G53" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G55" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G56" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G57" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G58" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F59" t="str">
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7">
+      <c r="E60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" t="str">
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7">
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" t="str">
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
-      <c r="G59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7">
-      <c r="E60" t="s">
-        <v>146</v>
-      </c>
-      <c r="F60" t="str">
+      <c r="G62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7">
+      <c r="E63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
-      <c r="G60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7">
-      <c r="E61" t="s">
-        <v>146</v>
-      </c>
-      <c r="F61" t="str">
+      <c r="G63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
-      <c r="G61" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7">
-      <c r="E62" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62" t="str">
+      <c r="G64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
-      <c r="G62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7">
-      <c r="E63" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" t="str">
+      <c r="G65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
-      <c r="G63" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7">
-      <c r="E64" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" t="str">
+      <c r="G66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7">
+      <c r="E67" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
-      <c r="G64" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7">
-      <c r="E65" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" t="str">
+      <c r="G67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
-      <c r="G65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7">
-      <c r="E66" t="s">
-        <v>146</v>
-      </c>
-      <c r="F66" t="str">
+      <c r="G68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7">
+      <c r="E69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
-      <c r="G66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="5:7">
-      <c r="E67" t="s">
-        <v>146</v>
-      </c>
-      <c r="F67" t="str">
+      <c r="G69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
-      <c r="G67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7">
-      <c r="E68" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" t="str">
+      <c r="G70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
-      <c r="G68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7">
-      <c r="E69" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69" t="str">
+      <c r="G71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
-      <c r="G69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7">
-      <c r="E70" t="s">
-        <v>146</v>
-      </c>
-      <c r="F70" t="str">
+      <c r="G72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7">
+      <c r="E73" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
-      <c r="G70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7">
-      <c r="E71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" t="str">
+      <c r="G73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
-      <c r="G71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7">
-      <c r="E72" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" t="str">
+      <c r="G74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
-      <c r="G72" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7">
-      <c r="E73" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" t="str">
+      <c r="G75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-19</v>
       </c>
-      <c r="G73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7">
-      <c r="E74" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" t="str">
+      <c r="G76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
-      <c r="G74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="5:7">
-      <c r="E75" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" t="str">
+      <c r="G77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
-      <c r="G75" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7">
-      <c r="E76" t="s">
-        <v>146</v>
-      </c>
-      <c r="F76" t="str">
+      <c r="G78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7">
+      <c r="E79" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
-      <c r="G76" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7">
-      <c r="E77" t="s">
-        <v>146</v>
-      </c>
-      <c r="F77" t="str">
+      <c r="G79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7">
+      <c r="E80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
-      <c r="G77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="5:7">
-      <c r="E78" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" t="str">
+      <c r="G80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="E81" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
-      <c r="G78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="5:7">
-      <c r="E79" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79" t="str">
+      <c r="G81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
-      <c r="G79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="5:7">
-      <c r="E80" t="s">
-        <v>146</v>
-      </c>
-      <c r="F80" t="str">
+      <c r="G82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="E83" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
-      <c r="G80" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="5:7">
-      <c r="E81" t="s">
-        <v>146</v>
-      </c>
-      <c r="F81" t="str">
+      <c r="G83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7">
+      <c r="E84" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
-      <c r="G81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="5:7">
-      <c r="E82" t="s">
-        <v>146</v>
-      </c>
-      <c r="F82" t="str">
+      <c r="G84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7">
+      <c r="E85" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
-      <c r="G82" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="5:7">
-      <c r="E83" t="s">
-        <v>146</v>
-      </c>
-      <c r="F83" t="str">
-        <f t="shared" ref="F83:F87" si="0">$E$20</f>
-        <v>hmsg_message_template-20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="5:7">
-      <c r="E84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F84" t="str">
-        <f t="shared" si="0"/>
-        <v>hmsg_message_template-20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="5:7">
-      <c r="E85" t="s">
-        <v>146</v>
-      </c>
-      <c r="F85" t="str">
-        <f t="shared" si="0"/>
-        <v>hmsg_message_template-20</v>
-      </c>
       <c r="G85" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F86:F90" si="0">$E$20</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G86" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G87" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" ref="F88:F93" si="1">$E$21</f>
-        <v>hmsg_message_template-21</v>
+        <f t="shared" si="0"/>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F89" t="str">
+        <f t="shared" si="0"/>
+        <v>hmsg_message_template-20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7">
+      <c r="E90" t="s">
+        <v>143</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="0"/>
+        <v>hmsg_message_template-20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7">
+      <c r="E91" t="s">
+        <v>143</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" ref="F91:F94" si="1">$E$21</f>
+        <v>hmsg_message_template-21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7">
+      <c r="E92" t="s">
+        <v>143</v>
+      </c>
+      <c r="F92" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_message_template-21</v>
       </c>
-      <c r="G89" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="5:7">
-      <c r="E90" t="s">
-        <v>146</v>
-      </c>
-      <c r="F90" t="str">
+      <c r="G92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7">
+      <c r="E93" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_message_template-21</v>
       </c>
-      <c r="G90" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="5:7">
-      <c r="E91" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" t="str">
+      <c r="G93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7">
+      <c r="E94" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_message_template-21</v>
       </c>
-      <c r="G91" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" spans="5:7">
-      <c r="E92" t="s">
-        <v>146</v>
-      </c>
-      <c r="F92" t="str">
+      <c r="G94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7">
+      <c r="E95" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
-      <c r="G92" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="93" spans="5:7">
-      <c r="E93" t="s">
-        <v>146</v>
-      </c>
-      <c r="F93" t="str">
+      <c r="G95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7">
+      <c r="E96" t="s">
+        <v>143</v>
+      </c>
+      <c r="F96" t="str">
         <f>$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
-      <c r="G93" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="94" spans="5:7">
-      <c r="E94" t="s">
-        <v>146</v>
-      </c>
-      <c r="F94" t="str">
-        <f t="shared" ref="F94:F99" si="2">$E$22</f>
-        <v>hmsg_message_template-22</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="G96" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="5:7">
-      <c r="E95" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" si="2"/>
-        <v>hmsg_message_template-22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="5:7">
-      <c r="E96" t="s">
-        <v>146</v>
-      </c>
-      <c r="F96" t="str">
-        <f t="shared" si="2"/>
-        <v>hmsg_message_template-22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F97:F102" si="2">$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G97" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="2"/>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G98" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="2"/>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G99" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F100" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f t="shared" si="2"/>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G100" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F101" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f t="shared" si="2"/>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F102" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-23</v>
+        <f t="shared" si="2"/>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G102" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G103" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G104" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G105" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G106" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G107" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G108" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G109" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F110" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7">
+      <c r="E111" t="s">
+        <v>143</v>
+      </c>
+      <c r="F111" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7">
+      <c r="E112" t="s">
+        <v>143</v>
+      </c>
+      <c r="F112" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8">
+      <c r="E113" t="s">
+        <v>143</v>
+      </c>
+      <c r="F113" t="str">
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8">
+      <c r="E114" t="s">
+        <v>143</v>
+      </c>
+      <c r="F114" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
-      <c r="G110" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="5:8">
-      <c r="E111" t="s">
-        <v>146</v>
-      </c>
-      <c r="F111" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G111" t="s">
-        <v>152</v>
-      </c>
-      <c r="H111" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" spans="5:8">
-      <c r="E112" t="s">
-        <v>146</v>
-      </c>
-      <c r="F112" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-25</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <